--- a/project/OtherAssets/Excle/A_Default/建筑.xlsx
+++ b/project/OtherAssets/Excle/A_Default/建筑.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stall" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="643">
   <si>
     <t>ID</t>
   </si>
@@ -1446,6 +1446,21 @@
   </si>
   <si>
     <t>shop_facility_20094</t>
+  </si>
+  <si>
+    <t>冰箱</t>
+  </si>
+  <si>
+    <t>工具台</t>
+  </si>
+  <si>
+    <t>huijia</t>
+  </si>
+  <si>
+    <t>洗碗池</t>
+  </si>
+  <si>
+    <t>灶台</t>
   </si>
   <si>
     <t>装饰容纳人数</t>
@@ -2145,10 +2160,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2173,36 +2188,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -2210,8 +2195,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2228,14 +2221,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2264,6 +2249,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -2280,8 +2281,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2295,9 +2304,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2330,7 +2345,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2342,7 +2387,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2354,37 +2411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2402,97 +2435,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2510,7 +2465,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2556,18 +2571,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2583,6 +2591,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2611,6 +2628,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2625,27 +2651,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2657,130 +2672,130 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3190,34 +3205,34 @@
   <sheetPr/>
   <dimension ref="A1:X63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L56" sqref="L56"/>
+      <selection pane="topRight" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.5" style="17" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="3" customWidth="1"/>
-    <col min="3" max="5" width="14.625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="14.6296296296296" style="3" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.6296296296296" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.3796296296296" style="3" customWidth="1"/>
     <col min="9" max="9" width="15" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="20.375" style="11" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="17.125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="25.375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="31.375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.1296296296296" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.1296296296296" style="11" customWidth="1"/>
+    <col min="12" max="12" width="20.3796296296296" style="11" customWidth="1"/>
+    <col min="13" max="13" width="18.6296296296296" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.1296296296296" style="3" customWidth="1"/>
+    <col min="15" max="15" width="25.3796296296296" style="3" customWidth="1"/>
+    <col min="16" max="16" width="31.3796296296296" style="3" customWidth="1"/>
     <col min="17" max="17" width="29.75" style="3" customWidth="1"/>
-    <col min="18" max="18" width="20.375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="21.125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="17.125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="20.3796296296296" style="3" customWidth="1"/>
+    <col min="19" max="19" width="21.1296296296296" style="3" customWidth="1"/>
+    <col min="20" max="20" width="17.1296296296296" style="3" customWidth="1"/>
     <col min="21" max="21" width="14" style="3" customWidth="1"/>
-    <col min="22" max="22" width="15.875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="15.8796296296296" style="3" customWidth="1"/>
     <col min="23" max="23" width="17" style="3" customWidth="1"/>
     <col min="24" max="24" width="14" style="3" customWidth="1"/>
     <col min="25" max="16384" width="9" style="3"/>
@@ -7534,23 +7549,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="22.125" customWidth="1"/>
+    <col min="1" max="2" width="22.1296296296296" customWidth="1"/>
     <col min="4" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="18.25" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
-    <col min="8" max="8" width="16.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1296296296296" customWidth="1"/>
+    <col min="8" max="8" width="16.8796296296296" style="1" customWidth="1"/>
     <col min="9" max="9" width="26.75" customWidth="1"/>
     <col min="10" max="10" width="28.5" customWidth="1"/>
-    <col min="11" max="11" width="21.375" customWidth="1"/>
-    <col min="12" max="12" width="20.875" customWidth="1"/>
+    <col min="11" max="11" width="21.3796296296296" customWidth="1"/>
+    <col min="12" max="12" width="20.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -8766,6 +8781,646 @@
         <v>473</v>
       </c>
       <c r="J38" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="16">
+        <v>22010</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="6">
+        <v>200</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39">
+        <v>-1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="16">
+        <v>22010</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2</v>
+      </c>
+      <c r="D40" s="6">
+        <v>56000</v>
+      </c>
+      <c r="E40" s="6">
+        <v>6</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I40">
+        <v>-1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="16">
+        <v>22010</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C41" s="3">
+        <v>3</v>
+      </c>
+      <c r="D41" s="6">
+        <v>180000</v>
+      </c>
+      <c r="E41" s="6">
+        <v>12</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41">
+        <v>-1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="16">
+        <v>22010</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C42" s="3">
+        <v>4</v>
+      </c>
+      <c r="D42" s="6">
+        <v>630000</v>
+      </c>
+      <c r="E42" s="6">
+        <v>24</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42">
+        <v>-1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:10">
+      <c r="A43" s="16">
+        <v>22011</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="6">
+        <v>200</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I43">
+        <v>-1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:10">
+      <c r="A44" s="16">
+        <v>22011</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2</v>
+      </c>
+      <c r="D44" s="6">
+        <v>56000</v>
+      </c>
+      <c r="E44" s="6">
+        <v>6</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I44">
+        <v>-1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:10">
+      <c r="A45" s="16">
+        <v>22011</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C45" s="3">
+        <v>3</v>
+      </c>
+      <c r="D45" s="6">
+        <v>180000</v>
+      </c>
+      <c r="E45" s="6">
+        <v>12</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I45">
+        <v>-1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:10">
+      <c r="A46" s="16">
+        <v>22011</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C46" s="3">
+        <v>4</v>
+      </c>
+      <c r="D46" s="6">
+        <v>630000</v>
+      </c>
+      <c r="E46" s="6">
+        <v>24</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I46">
+        <v>-1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:10">
+      <c r="A47" s="16">
+        <v>22012</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
+      <c r="D47" s="6">
+        <v>200</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I47">
+        <v>-1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:10">
+      <c r="A48" s="16">
+        <v>22012</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2</v>
+      </c>
+      <c r="D48" s="6">
+        <v>56000</v>
+      </c>
+      <c r="E48" s="6">
+        <v>6</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I48">
+        <v>-1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:10">
+      <c r="A49" s="16">
+        <v>22012</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C49" s="3">
+        <v>3</v>
+      </c>
+      <c r="D49" s="6">
+        <v>180000</v>
+      </c>
+      <c r="E49" s="6">
+        <v>12</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I49">
+        <v>-1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:10">
+      <c r="A50" s="16">
+        <v>22012</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C50" s="3">
+        <v>4</v>
+      </c>
+      <c r="D50" s="6">
+        <v>630000</v>
+      </c>
+      <c r="E50" s="6">
+        <v>24</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I50">
+        <v>-1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:10">
+      <c r="A51" s="16">
+        <v>22013</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="6">
+        <v>200</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I51">
+        <v>-1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:10">
+      <c r="A52" s="16">
+        <v>22013</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C52" s="3">
+        <v>2</v>
+      </c>
+      <c r="D52" s="6">
+        <v>56000</v>
+      </c>
+      <c r="E52" s="6">
+        <v>6</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I52">
+        <v>-1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:10">
+      <c r="A53" s="16">
+        <v>22013</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C53" s="3">
+        <v>3</v>
+      </c>
+      <c r="D53" s="6">
+        <v>180000</v>
+      </c>
+      <c r="E53" s="6">
+        <v>12</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I53">
+        <v>-1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:10">
+      <c r="A54" s="16">
+        <v>22013</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C54" s="3">
+        <v>4</v>
+      </c>
+      <c r="D54" s="6">
+        <v>630000</v>
+      </c>
+      <c r="E54" s="6">
+        <v>24</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I54">
+        <v>-1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:10">
+      <c r="A55" s="16">
+        <v>22014</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1</v>
+      </c>
+      <c r="D55" s="6">
+        <v>200</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I55">
+        <v>-1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:10">
+      <c r="A56" s="16">
+        <v>22014</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C56" s="3">
+        <v>2</v>
+      </c>
+      <c r="D56" s="6">
+        <v>56000</v>
+      </c>
+      <c r="E56" s="6">
+        <v>6</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I56">
+        <v>-1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:10">
+      <c r="A57" s="16">
+        <v>22014</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C57" s="3">
+        <v>3</v>
+      </c>
+      <c r="D57" s="6">
+        <v>180000</v>
+      </c>
+      <c r="E57" s="6">
+        <v>12</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I57">
+        <v>-1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="1:10">
+      <c r="A58" s="16">
+        <v>22014</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C58" s="3">
+        <v>4</v>
+      </c>
+      <c r="D58" s="6">
+        <v>630000</v>
+      </c>
+      <c r="E58" s="6">
+        <v>24</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I58">
+        <v>-1</v>
+      </c>
+      <c r="J58" t="s">
         <v>474</v>
       </c>
     </row>
@@ -8788,14 +9443,14 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="18.1296296296296" customWidth="1"/>
+    <col min="5" max="5" width="19.6296296296296" customWidth="1"/>
+    <col min="6" max="6" width="17.8796296296296" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="8" max="8" width="16.8796296296296" customWidth="1"/>
     <col min="9" max="9" width="10.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="22.75" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -8819,7 +9474,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>8</v>
@@ -8837,7 +9492,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -8875,7 +9530,7 @@
         <v>33</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8883,7 +9538,7 @@
         <v>32001</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -8898,19 +9553,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="K3" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="L3" s="15">
         <v>12</v>
@@ -8921,7 +9576,7 @@
         <v>32001</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -8936,19 +9591,19 @@
         <v>0</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="K4" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="L4" s="15">
         <v>24</v>
@@ -8959,7 +9614,7 @@
         <v>32001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
@@ -8974,19 +9629,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="K5" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="L5" s="15">
         <v>40</v>
@@ -8997,7 +9652,7 @@
         <v>32001</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C6" s="3">
         <v>4</v>
@@ -9012,19 +9667,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>45</v>
       </c>
       <c r="J6" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K6" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="L6" s="15">
         <v>60</v>
@@ -9035,7 +9690,7 @@
         <v>32002</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -9050,19 +9705,19 @@
         <v>0</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="K7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="L7" s="15">
         <v>2</v>
@@ -9073,7 +9728,7 @@
         <v>32002</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -9088,19 +9743,19 @@
         <v>0</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="K8" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="L8" s="15">
         <v>5</v>
@@ -9111,7 +9766,7 @@
         <v>32002</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
@@ -9126,19 +9781,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="K9" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="L9" s="15">
         <v>10</v>
@@ -9149,7 +9804,7 @@
         <v>32002</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
@@ -9164,19 +9819,19 @@
         <v>0</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>53</v>
       </c>
       <c r="J10" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="K10" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="L10" s="15">
         <v>20</v>
@@ -9187,7 +9842,7 @@
         <v>32003</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -9202,19 +9857,19 @@
         <v>2</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>45</v>
       </c>
       <c r="J11" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="K11" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="L11" s="15">
         <v>10</v>
@@ -9225,7 +9880,7 @@
         <v>32003</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -9240,19 +9895,19 @@
         <v>2</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>53</v>
       </c>
       <c r="J12" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="K12" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="L12" s="15">
         <v>15</v>
@@ -9263,7 +9918,7 @@
         <v>32003</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -9278,19 +9933,19 @@
         <v>2</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>57</v>
       </c>
       <c r="J13" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K13" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="L13" s="15">
         <v>30</v>
@@ -9301,7 +9956,7 @@
         <v>32003</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="C14" s="3">
         <v>4</v>
@@ -9316,19 +9971,19 @@
         <v>2</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>45</v>
       </c>
       <c r="J14" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="K14" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="L14" s="15">
         <v>50</v>
@@ -9339,7 +9994,7 @@
         <v>32004</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -9354,19 +10009,19 @@
         <v>2</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>53</v>
       </c>
       <c r="J15" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="K15" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="L15" s="15">
         <v>5</v>
@@ -9377,7 +10032,7 @@
         <v>32004</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -9392,19 +10047,19 @@
         <v>2</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>57</v>
       </c>
       <c r="J16" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="K16" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="L16" s="15">
         <v>10</v>
@@ -9415,7 +10070,7 @@
         <v>32004</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
@@ -9430,19 +10085,19 @@
         <v>2</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>45</v>
       </c>
       <c r="J17" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="K17" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="L17" s="15">
         <v>20</v>
@@ -9453,7 +10108,7 @@
         <v>32004</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="C18" s="3">
         <v>4</v>
@@ -9468,19 +10123,19 @@
         <v>2</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>53</v>
       </c>
       <c r="J18" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="K18" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="L18" s="15">
         <v>30</v>
@@ -9491,7 +10146,7 @@
         <v>32005</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -9506,19 +10161,19 @@
         <v>0</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="I19" s="14" t="s">
         <v>45</v>
       </c>
       <c r="J19" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="K19" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="L19" s="15">
         <v>2</v>
@@ -9529,7 +10184,7 @@
         <v>32005</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
@@ -9544,19 +10199,19 @@
         <v>0</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>53</v>
       </c>
       <c r="J20" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="K20" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="L20" s="15">
         <v>5</v>
@@ -9567,7 +10222,7 @@
         <v>32005</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
@@ -9582,19 +10237,19 @@
         <v>0</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="I21" s="14" t="s">
         <v>57</v>
       </c>
       <c r="J21" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="K21" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="L21" s="15">
         <v>10</v>
@@ -9605,7 +10260,7 @@
         <v>32005</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C22" s="3">
         <v>4</v>
@@ -9620,19 +10275,19 @@
         <v>0</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="I22" s="14" t="s">
         <v>45</v>
       </c>
       <c r="J22" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="K22" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="L22" s="15">
         <v>20</v>
@@ -9643,7 +10298,7 @@
         <v>32006</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -9658,19 +10313,19 @@
         <v>2</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>57</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="L23" s="15">
         <v>5</v>
@@ -9681,7 +10336,7 @@
         <v>32006</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
@@ -9696,19 +10351,19 @@
         <v>2</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>45</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="L24" s="15">
         <v>10</v>
@@ -9719,7 +10374,7 @@
         <v>32006</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
@@ -9734,19 +10389,19 @@
         <v>2</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>57</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="L25" s="15">
         <v>20</v>
@@ -9757,7 +10412,7 @@
         <v>32006</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="C26" s="3">
         <v>4</v>
@@ -9772,19 +10427,19 @@
         <v>2</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="I26" s="14" t="s">
         <v>45</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="L26" s="15">
         <v>30</v>
@@ -9795,7 +10450,7 @@
         <v>32007</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -9810,19 +10465,19 @@
         <v>0</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>53</v>
       </c>
       <c r="J27" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="K27" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="L27" s="15">
         <v>5</v>
@@ -9833,7 +10488,7 @@
         <v>32007</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
@@ -9848,19 +10503,19 @@
         <v>0</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>57</v>
       </c>
       <c r="J28" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="K28" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="L28" s="15">
         <v>10</v>
@@ -9871,7 +10526,7 @@
         <v>32007</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="C29" s="3">
         <v>3</v>
@@ -9886,19 +10541,19 @@
         <v>0</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="I29" s="14" t="s">
         <v>45</v>
       </c>
       <c r="J29" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="K29" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="L29" s="15">
         <v>20</v>
@@ -9909,7 +10564,7 @@
         <v>32007</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="C30" s="3">
         <v>4</v>
@@ -9924,19 +10579,19 @@
         <v>0</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>53</v>
       </c>
       <c r="J30" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="K30" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="L30" s="15">
         <v>30</v>
@@ -9947,7 +10602,7 @@
         <v>32008</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -9962,19 +10617,19 @@
         <v>0</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="I31" s="14" t="s">
         <v>53</v>
       </c>
       <c r="J31" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="K31" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="L31" s="15">
         <v>5</v>
@@ -9985,7 +10640,7 @@
         <v>32008</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
@@ -10000,19 +10655,19 @@
         <v>0</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="I32" s="14" t="s">
         <v>57</v>
       </c>
       <c r="J32" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="K32" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="L32" s="15">
         <v>10</v>
@@ -10023,7 +10678,7 @@
         <v>32008</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="C33" s="3">
         <v>3</v>
@@ -10038,19 +10693,19 @@
         <v>0</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="I33" s="14" t="s">
         <v>45</v>
       </c>
       <c r="J33" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="K33" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="L33" s="15">
         <v>20</v>
@@ -10061,7 +10716,7 @@
         <v>32008</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="C34" s="3">
         <v>4</v>
@@ -10076,19 +10731,19 @@
         <v>0</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="I34" s="14" t="s">
         <v>53</v>
       </c>
       <c r="J34" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="K34" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="L34" s="15">
         <v>30</v>

--- a/project/OtherAssets/Excle/A_Default/建筑.xlsx
+++ b/project/OtherAssets/Excle/A_Default/建筑.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="26115" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Stall" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Adorn" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stall!$A$2:$X$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stall!$A$2:$Y$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Adorn!$A$2:$L$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Equip!$A$3:$J$38</definedName>
   </definedNames>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="654">
   <si>
     <t>ID</t>
   </si>
@@ -59,6 +59,9 @@
     <t>食物图标</t>
   </si>
   <si>
+    <t>区域标题</t>
+  </si>
+  <si>
     <t>图标名字</t>
   </si>
   <si>
@@ -122,6 +125,9 @@
     <t>foodIcon_s</t>
   </si>
   <si>
+    <t>title_s</t>
+  </si>
+  <si>
     <t>IconName_s</t>
   </si>
   <si>
@@ -164,6 +170,9 @@
     <t>stall_2001_food</t>
   </si>
   <si>
+    <t>披萨店</t>
+  </si>
+  <si>
     <t>shop_shtall_20011</t>
   </si>
   <si>
@@ -242,6 +251,9 @@
     <t>stall_2002_food</t>
   </si>
   <si>
+    <t>巨无霸取餐台</t>
+  </si>
+  <si>
     <t>shop_shtall_20021</t>
   </si>
   <si>
@@ -308,6 +320,9 @@
     <t>stall_2003_food</t>
   </si>
   <si>
+    <t>寿司取餐台</t>
+  </si>
+  <si>
     <t>shop_shtall_20031</t>
   </si>
   <si>
@@ -380,6 +395,9 @@
     <t>stall_2004_food</t>
   </si>
   <si>
+    <t>海鲜摊</t>
+  </si>
+  <si>
     <t>shop_shtall_20041</t>
   </si>
   <si>
@@ -437,6 +455,9 @@
     <t>stall_2005_food</t>
   </si>
   <si>
+    <t>冰淇淋自助机</t>
+  </si>
+  <si>
     <t>shop_shtall_20051</t>
   </si>
   <si>
@@ -482,6 +503,9 @@
     <t>stall_2006_food</t>
   </si>
   <si>
+    <t>咖啡自助台</t>
+  </si>
+  <si>
     <t>shop_shtall_20061</t>
   </si>
   <si>
@@ -557,6 +581,9 @@
     <t>stall_2007_food</t>
   </si>
   <si>
+    <t>吧台标题</t>
+  </si>
+  <si>
     <t>shop_shtall_20071</t>
   </si>
   <si>
@@ -596,6 +623,9 @@
     <t>stall_2008_food</t>
   </si>
   <si>
+    <t>糖果摊</t>
+  </si>
+  <si>
     <t>shop_shtall_20081</t>
   </si>
   <si>
@@ -650,6 +680,9 @@
     <t>stall_2009_food</t>
   </si>
   <si>
+    <t>巧克力摊</t>
+  </si>
+  <si>
     <t>shop_shtall_20091</t>
   </si>
   <si>
@@ -704,6 +737,9 @@
     <t>stall_2010_food</t>
   </si>
   <si>
+    <t>果汁机</t>
+  </si>
+  <si>
     <t>shop_shtall_20101</t>
   </si>
   <si>
@@ -743,6 +779,9 @@
     <t>stall_2011_food</t>
   </si>
   <si>
+    <t>甜点柜</t>
+  </si>
+  <si>
     <t>shop_shtall_20111</t>
   </si>
   <si>
@@ -782,6 +821,9 @@
     <t>stall_2012_food</t>
   </si>
   <si>
+    <t>可乐自动贩卖机</t>
+  </si>
+  <si>
     <t>shop_shtall_20121</t>
   </si>
   <si>
@@ -821,6 +863,9 @@
     <t>stall_2013_food</t>
   </si>
   <si>
+    <t>自助火锅</t>
+  </si>
+  <si>
     <t>shop_shtall_20131</t>
   </si>
   <si>
@@ -858,6 +903,9 @@
   </si>
   <si>
     <t>stall_2014_food</t>
+  </si>
+  <si>
+    <t>自助蔬菜沙拉</t>
   </si>
   <si>
     <t>shop_shtall_20141</t>
@@ -2145,9 +2193,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -2160,14 +2208,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2182,7 +2261,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2197,21 +2276,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2233,16 +2306,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2250,25 +2315,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2280,24 +2336,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2330,13 +2378,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2354,19 +2456,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2378,103 +2534,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2487,30 +2559,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2539,6 +2587,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2554,11 +2613,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2566,8 +2631,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2590,8 +2664,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2610,42 +2684,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2654,133 +2702,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3188,12 +3236,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X63"/>
+  <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L56" sqref="L56"/>
+      <selection pane="topRight" activeCell="M55" sqref="M55:M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3207,23 +3255,23 @@
     <col min="9" max="9" width="15" style="3" customWidth="1"/>
     <col min="10" max="10" width="16.125" style="3" customWidth="1"/>
     <col min="11" max="11" width="16.125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="20.375" style="11" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="17.125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="25.375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="31.375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="29.75" style="3" customWidth="1"/>
-    <col min="18" max="18" width="20.375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="21.125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="17.125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="14" style="3" customWidth="1"/>
-    <col min="22" max="22" width="15.875" style="3" customWidth="1"/>
-    <col min="23" max="23" width="17" style="3" customWidth="1"/>
-    <col min="24" max="24" width="14" style="3" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="3"/>
+    <col min="12" max="13" width="20.375" style="11" customWidth="1"/>
+    <col min="14" max="14" width="18.625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="17.125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="25.375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="31.375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="29.75" style="3" customWidth="1"/>
+    <col min="19" max="19" width="20.375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="21.125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="17.125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="14" style="3" customWidth="1"/>
+    <col min="23" max="23" width="15.875" style="3" customWidth="1"/>
+    <col min="24" max="24" width="17" style="3" customWidth="1"/>
+    <col min="25" max="25" width="14" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="23.25" customHeight="1" spans="1:24">
+    <row r="1" customFormat="1" ht="23.25" customHeight="1" spans="1:25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -3260,7 +3308,7 @@
       <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
@@ -3269,20 +3317,20 @@
       <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="S1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U1" t="s">
         <v>17</v>
@@ -3296,82 +3344,88 @@
       <c r="X1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:24">
+      <c r="Y1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:25">
       <c r="A2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="M2" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="N2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:24">
+        <v>43</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:25">
       <c r="A3" s="18">
         <v>12001</v>
       </c>
@@ -3397,25 +3451,25 @@
         <v>5</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="15">
-        <v>0</v>
+      <c r="M3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P3" s="15">
         <v>0</v>
@@ -3423,29 +3477,32 @@
       <c r="Q3" s="15">
         <v>0</v>
       </c>
-      <c r="R3" t="s">
-        <v>49</v>
+      <c r="R3" s="15">
+        <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:25">
       <c r="A4" s="18">
         <v>12001</v>
       </c>
@@ -3471,55 +3528,58 @@
         <v>4</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="14" t="s">
+      <c r="P4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>0</v>
+      </c>
+      <c r="R4" s="15">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="15">
-        <v>0</v>
-      </c>
-      <c r="P4" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="15">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>49</v>
-      </c>
-      <c r="S4" t="s">
-        <v>49</v>
-      </c>
-      <c r="T4" t="s">
-        <v>49</v>
-      </c>
-      <c r="U4" t="s">
-        <v>50</v>
-      </c>
-      <c r="V4" t="s">
-        <v>49</v>
-      </c>
       <c r="W4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:25">
       <c r="A5" s="18">
         <v>12001</v>
       </c>
@@ -3545,55 +3605,58 @@
         <v>3</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="P5" s="15">
-        <v>0</v>
+      <c r="M5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="Q5" s="15">
         <v>0</v>
       </c>
-      <c r="R5" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="S5" t="s">
-        <v>49</v>
+      <c r="R5" s="15">
+        <v>0</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="T5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="V5" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="W5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:25">
       <c r="A6" s="18">
         <v>12001</v>
       </c>
@@ -3619,55 +3682,58 @@
         <v>2</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N6" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="M6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
       <c r="O6" s="3" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q6" s="15">
-        <v>0</v>
-      </c>
-      <c r="R6" t="s">
-        <v>67</v>
-      </c>
-      <c r="S6" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="T6" t="s">
-        <v>49</v>
+      <c r="Q6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R6" s="15">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T6" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="U6" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="V6" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="W6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:25">
       <c r="A7" s="18">
         <v>12002</v>
       </c>
@@ -3693,55 +3759,58 @@
         <v>5</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>0</v>
+      </c>
+      <c r="R7" s="15">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>52</v>
+      </c>
+      <c r="T7" t="s">
+        <v>52</v>
+      </c>
+      <c r="U7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V7" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M7" t="s">
-        <v>73</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" s="15">
-        <v>0</v>
-      </c>
-      <c r="P7" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="15">
-        <v>0</v>
-      </c>
-      <c r="R7" t="s">
-        <v>49</v>
-      </c>
-      <c r="S7" t="s">
-        <v>49</v>
-      </c>
-      <c r="T7" t="s">
-        <v>49</v>
-      </c>
-      <c r="U7" t="s">
-        <v>50</v>
-      </c>
-      <c r="V7" t="s">
-        <v>49</v>
-      </c>
       <c r="W7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:25">
       <c r="A8" s="18">
         <v>12002</v>
       </c>
@@ -3767,25 +3836,25 @@
         <v>4</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="M8" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O8" s="15">
-        <v>0</v>
+      <c r="N8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P8" s="15">
         <v>0</v>
@@ -3793,29 +3862,32 @@
       <c r="Q8" s="15">
         <v>0</v>
       </c>
-      <c r="R8" t="s">
-        <v>49</v>
+      <c r="R8" s="15">
+        <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:25">
       <c r="A9" s="18">
         <v>12002</v>
       </c>
@@ -3841,55 +3913,58 @@
         <v>3</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M9" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>48</v>
+        <v>75</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N9" t="s">
+        <v>83</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="P9" s="15">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="Q9" s="15">
         <v>0</v>
       </c>
-      <c r="R9" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="S9" t="s">
-        <v>49</v>
+      <c r="R9" s="15">
+        <v>0</v>
+      </c>
+      <c r="S9" s="24" t="s">
+        <v>85</v>
       </c>
       <c r="T9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U9" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="V9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="W9" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="X9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:25">
       <c r="A10" s="18">
         <v>12002</v>
       </c>
@@ -3915,55 +3990,58 @@
         <v>2</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M10" t="s">
-        <v>86</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>48</v>
+        <v>75</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" t="s">
+        <v>90</v>
       </c>
       <c r="O10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R10" s="15">
+        <v>0</v>
+      </c>
+      <c r="S10" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="T10" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="U10" t="s">
+        <v>52</v>
+      </c>
+      <c r="V10" t="s">
+        <v>95</v>
+      </c>
+      <c r="W10" t="s">
         <v>87</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q10" s="15">
-        <v>0</v>
-      </c>
-      <c r="R10" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="S10" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="T10" t="s">
-        <v>49</v>
-      </c>
-      <c r="U10" t="s">
-        <v>91</v>
-      </c>
-      <c r="V10" t="s">
-        <v>83</v>
-      </c>
-      <c r="W10" t="s">
-        <v>83</v>
-      </c>
       <c r="X10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:24">
+        <v>87</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:25">
       <c r="A11" s="18">
         <v>12003</v>
       </c>
@@ -3989,25 +4067,25 @@
         <v>5</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="M11" t="s">
-        <v>95</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O11" s="15">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="N11" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P11" s="15">
         <v>0</v>
@@ -4015,29 +4093,32 @@
       <c r="Q11" s="15">
         <v>0</v>
       </c>
-      <c r="R11" t="s">
-        <v>49</v>
+      <c r="R11" s="15">
+        <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:25">
       <c r="A12" s="18">
         <v>12003</v>
       </c>
@@ -4063,55 +4144,58 @@
         <v>4</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="M12" t="s">
         <v>98</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>48</v>
+      <c r="M12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="N12" t="s">
+        <v>103</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q12" s="15">
-        <v>0</v>
-      </c>
-      <c r="R12" t="s">
-        <v>101</v>
+        <v>104</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="R12" s="15">
+        <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="T12" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="U12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V12" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="W12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:24">
+        <v>87</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:25">
       <c r="A13" s="18">
         <v>12003</v>
       </c>
@@ -4137,55 +4221,58 @@
         <v>3</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="M13" t="s">
-        <v>105</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>48</v>
+        <v>98</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13" t="s">
+        <v>110</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q13" s="15">
-        <v>0</v>
-      </c>
-      <c r="R13" t="s">
-        <v>108</v>
+        <v>111</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="R13" s="15">
+        <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="T13" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="U13" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="V13" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="W13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:24">
+        <v>87</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:25">
       <c r="A14" s="18">
         <v>12003</v>
       </c>
@@ -4211,55 +4298,58 @@
         <v>2</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="M14" t="s">
-        <v>113</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>48</v>
+        <v>98</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="N14" t="s">
+        <v>118</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="P14" s="15">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="Q14" s="15">
         <v>0</v>
       </c>
-      <c r="R14" t="s">
-        <v>115</v>
+      <c r="R14" s="15">
+        <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="T14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V14" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="W14" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:24">
+        <v>87</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:25">
       <c r="A15" s="18">
         <v>12004</v>
       </c>
@@ -4285,25 +4375,25 @@
         <v>5</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="M15" t="s">
-        <v>119</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O15" s="15">
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="N15" t="s">
+        <v>125</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P15" s="15">
         <v>0</v>
@@ -4311,29 +4401,32 @@
       <c r="Q15" s="15">
         <v>0</v>
       </c>
-      <c r="R15" t="s">
-        <v>49</v>
+      <c r="R15" s="15">
+        <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:25">
       <c r="A16" s="18">
         <v>12004</v>
       </c>
@@ -4359,55 +4452,58 @@
         <v>4</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="N16" t="s">
+        <v>128</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>0</v>
+      </c>
+      <c r="R16" s="15">
+        <v>0</v>
+      </c>
+      <c r="S16" t="s">
+        <v>52</v>
+      </c>
+      <c r="T16" t="s">
+        <v>52</v>
+      </c>
+      <c r="U16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V16" t="s">
         <v>53</v>
       </c>
-      <c r="L16" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="M16" t="s">
-        <v>122</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O16" s="15">
-        <v>0</v>
-      </c>
-      <c r="P16" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="15">
-        <v>0</v>
-      </c>
-      <c r="R16" t="s">
-        <v>49</v>
-      </c>
-      <c r="S16" t="s">
-        <v>49</v>
-      </c>
-      <c r="T16" t="s">
-        <v>49</v>
-      </c>
-      <c r="U16" t="s">
-        <v>50</v>
-      </c>
-      <c r="V16" t="s">
-        <v>49</v>
-      </c>
       <c r="W16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:25">
       <c r="A17" s="18">
         <v>12004</v>
       </c>
@@ -4433,55 +4529,58 @@
         <v>3</v>
       </c>
       <c r="I17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="K17" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="M17" t="s">
-        <v>125</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>48</v>
+      <c r="N17" t="s">
+        <v>131</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="P17" s="15">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="Q17" s="15">
         <v>0</v>
       </c>
-      <c r="R17" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="S17" t="s">
-        <v>49</v>
+      <c r="R17" s="15">
+        <v>0</v>
+      </c>
+      <c r="S17" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="T17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="W17" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="X17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:25">
       <c r="A18" s="18">
         <v>12004</v>
       </c>
@@ -4507,55 +4606,58 @@
         <v>2</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="M18" t="s">
-        <v>130</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>48</v>
+        <v>123</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="N18" t="s">
+        <v>136</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q18" s="15">
-        <v>0</v>
-      </c>
-      <c r="R18" s="23" t="s">
-        <v>133</v>
+        <v>137</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="R18" s="15">
+        <v>0</v>
       </c>
       <c r="S18" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="T18" t="s">
-        <v>49</v>
+        <v>139</v>
+      </c>
+      <c r="T18" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="U18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V18" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:25">
       <c r="A19" s="18">
         <v>12005</v>
       </c>
@@ -4581,55 +4683,58 @@
         <v>5</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="K19" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="N19" t="s">
+        <v>145</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>0</v>
+      </c>
+      <c r="R19" s="15">
+        <v>0</v>
+      </c>
+      <c r="S19" t="s">
+        <v>52</v>
+      </c>
+      <c r="T19" t="s">
+        <v>52</v>
+      </c>
+      <c r="U19" t="s">
+        <v>52</v>
+      </c>
+      <c r="V19" t="s">
         <v>53</v>
       </c>
-      <c r="L19" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="M19" t="s">
-        <v>138</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O19" s="15">
-        <v>0</v>
-      </c>
-      <c r="P19" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="15">
-        <v>0</v>
-      </c>
-      <c r="R19" t="s">
-        <v>49</v>
-      </c>
-      <c r="S19" t="s">
-        <v>49</v>
-      </c>
-      <c r="T19" t="s">
-        <v>49</v>
-      </c>
-      <c r="U19" t="s">
-        <v>50</v>
-      </c>
-      <c r="V19" t="s">
-        <v>49</v>
-      </c>
       <c r="W19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:25">
       <c r="A20" s="18">
         <v>12005</v>
       </c>
@@ -4655,25 +4760,25 @@
         <v>4</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="M20" t="s">
-        <v>141</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O20" s="15">
-        <v>0</v>
+        <v>143</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="N20" t="s">
+        <v>148</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P20" s="15">
         <v>0</v>
@@ -4681,29 +4786,32 @@
       <c r="Q20" s="15">
         <v>0</v>
       </c>
-      <c r="R20" t="s">
-        <v>49</v>
+      <c r="R20" s="15">
+        <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:25">
       <c r="A21" s="18">
         <v>12005</v>
       </c>
@@ -4729,55 +4837,58 @@
         <v>3</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="K21" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="M21" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>48</v>
+      <c r="N21" t="s">
+        <v>151</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="P21" s="15">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="Q21" s="15">
         <v>0</v>
       </c>
-      <c r="R21" t="s">
-        <v>146</v>
+      <c r="R21" s="15">
+        <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="T21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V21" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:25">
       <c r="A22" s="18">
         <v>12005</v>
       </c>
@@ -4803,55 +4914,58 @@
         <v>2</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K22" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="N22" t="s">
+        <v>156</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>0</v>
+      </c>
+      <c r="R22" s="15">
+        <v>0</v>
+      </c>
+      <c r="S22" t="s">
+        <v>52</v>
+      </c>
+      <c r="T22" t="s">
+        <v>52</v>
+      </c>
+      <c r="U22" t="s">
+        <v>52</v>
+      </c>
+      <c r="V22" t="s">
         <v>53</v>
       </c>
-      <c r="L22" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="M22" t="s">
-        <v>149</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O22" s="15">
-        <v>0</v>
-      </c>
-      <c r="P22" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="15">
-        <v>0</v>
-      </c>
-      <c r="R22" t="s">
-        <v>49</v>
-      </c>
-      <c r="S22" t="s">
-        <v>49</v>
-      </c>
-      <c r="T22" t="s">
-        <v>49</v>
-      </c>
-      <c r="U22" t="s">
-        <v>50</v>
-      </c>
-      <c r="V22" t="s">
-        <v>49</v>
-      </c>
       <c r="W22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:25">
       <c r="A23" s="18">
         <v>12006</v>
       </c>
@@ -4877,25 +4991,25 @@
         <v>5</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="M23" t="s">
-        <v>153</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O23" s="15">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="N23" t="s">
+        <v>161</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P23" s="15">
         <v>0</v>
@@ -4903,29 +5017,32 @@
       <c r="Q23" s="15">
         <v>0</v>
       </c>
-      <c r="R23" t="s">
-        <v>49</v>
+      <c r="R23" s="15">
+        <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V23" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:25">
       <c r="A24" s="18">
         <v>12006</v>
       </c>
@@ -4951,55 +5068,58 @@
         <v>4</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="M24" t="s">
-        <v>156</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>48</v>
+        <v>159</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="N24" t="s">
+        <v>164</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="P24" s="15">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="Q24" s="15">
         <v>0</v>
       </c>
-      <c r="R24" t="s">
-        <v>158</v>
+      <c r="R24" s="15">
+        <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="T24" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U24" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="V24" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="W24" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:25">
       <c r="A25" s="18">
         <v>12006</v>
       </c>
@@ -5025,55 +5145,58 @@
         <v>3</v>
       </c>
       <c r="I25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="M25" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="J25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="M25" t="s">
-        <v>162</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>48</v>
+      <c r="N25" t="s">
+        <v>170</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="P25" s="15">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="Q25" s="15">
         <v>0</v>
       </c>
-      <c r="R25" t="s">
-        <v>164</v>
+      <c r="R25" s="15">
+        <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="T25" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U25" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="V25" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="W25" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:25">
       <c r="A26" s="18">
         <v>12006</v>
       </c>
@@ -5099,55 +5222,58 @@
         <v>2</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="M26" t="s">
-        <v>167</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>48</v>
+        <v>159</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="N26" t="s">
+        <v>175</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="R26" t="s">
-        <v>171</v>
+        <v>177</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="S26" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="T26" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="U26" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="V26" t="s">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="W26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:25">
       <c r="A27" s="18">
         <v>12007</v>
       </c>
@@ -5173,25 +5299,25 @@
         <v>5</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="M27" t="s">
-        <v>178</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O27" s="15">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="N27" t="s">
+        <v>187</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P27" s="15">
         <v>0</v>
@@ -5199,29 +5325,32 @@
       <c r="Q27" s="15">
         <v>0</v>
       </c>
-      <c r="R27" t="s">
-        <v>49</v>
+      <c r="R27" s="15">
+        <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T27" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V27" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W27" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:25">
       <c r="A28" s="18">
         <v>12007</v>
       </c>
@@ -5247,55 +5376,58 @@
         <v>4</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="K28" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="N28" t="s">
+        <v>190</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>0</v>
+      </c>
+      <c r="R28" s="15">
+        <v>0</v>
+      </c>
+      <c r="S28" t="s">
+        <v>52</v>
+      </c>
+      <c r="T28" t="s">
+        <v>52</v>
+      </c>
+      <c r="U28" t="s">
+        <v>52</v>
+      </c>
+      <c r="V28" t="s">
         <v>53</v>
       </c>
-      <c r="L28" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="M28" t="s">
-        <v>181</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O28" s="15">
-        <v>0</v>
-      </c>
-      <c r="P28" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="15">
-        <v>0</v>
-      </c>
-      <c r="R28" t="s">
-        <v>49</v>
-      </c>
-      <c r="S28" t="s">
-        <v>49</v>
-      </c>
-      <c r="T28" t="s">
-        <v>49</v>
-      </c>
-      <c r="U28" t="s">
-        <v>50</v>
-      </c>
-      <c r="V28" t="s">
-        <v>49</v>
-      </c>
       <c r="W28" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:25">
       <c r="A29" s="18">
         <v>12007</v>
       </c>
@@ -5321,25 +5453,25 @@
         <v>3</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="M29" t="s">
-        <v>184</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O29" s="15">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="N29" t="s">
+        <v>193</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P29" s="15">
         <v>0</v>
@@ -5347,29 +5479,32 @@
       <c r="Q29" s="15">
         <v>0</v>
       </c>
-      <c r="R29" t="s">
-        <v>49</v>
+      <c r="R29" s="15">
+        <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T29" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V29" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W29" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:25">
       <c r="A30" s="18">
         <v>12007</v>
       </c>
@@ -5395,25 +5530,25 @@
         <v>2</v>
       </c>
       <c r="I30" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="M30" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="K30" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="L30" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="M30" t="s">
-        <v>187</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O30" s="15">
-        <v>0</v>
+      <c r="N30" t="s">
+        <v>196</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P30" s="15">
         <v>0</v>
@@ -5421,29 +5556,32 @@
       <c r="Q30" s="15">
         <v>0</v>
       </c>
-      <c r="R30" t="s">
-        <v>49</v>
+      <c r="R30" s="15">
+        <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V30" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:25">
       <c r="A31" s="18">
         <v>12008</v>
       </c>
@@ -5469,55 +5607,58 @@
         <v>5</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="K31" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="N31" t="s">
+        <v>201</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P31" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="15">
+        <v>0</v>
+      </c>
+      <c r="R31" s="15">
+        <v>0</v>
+      </c>
+      <c r="S31" t="s">
+        <v>52</v>
+      </c>
+      <c r="T31" t="s">
+        <v>52</v>
+      </c>
+      <c r="U31" t="s">
+        <v>52</v>
+      </c>
+      <c r="V31" t="s">
         <v>53</v>
       </c>
-      <c r="L31" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="M31" t="s">
-        <v>191</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O31" s="15">
-        <v>0</v>
-      </c>
-      <c r="P31" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="15">
-        <v>0</v>
-      </c>
-      <c r="R31" t="s">
-        <v>49</v>
-      </c>
-      <c r="S31" t="s">
-        <v>49</v>
-      </c>
-      <c r="T31" t="s">
-        <v>49</v>
-      </c>
-      <c r="U31" t="s">
-        <v>50</v>
-      </c>
-      <c r="V31" t="s">
-        <v>49</v>
-      </c>
       <c r="W31" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:25">
       <c r="A32" s="18">
         <v>12008</v>
       </c>
@@ -5543,25 +5684,25 @@
         <v>4</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="M32" t="s">
-        <v>194</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O32" s="15">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="N32" t="s">
+        <v>204</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P32" s="15">
         <v>0</v>
@@ -5569,29 +5710,32 @@
       <c r="Q32" s="15">
         <v>0</v>
       </c>
-      <c r="R32" t="s">
-        <v>49</v>
+      <c r="R32" s="15">
+        <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T32" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V32" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W32" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:25">
       <c r="A33" s="18">
         <v>12008</v>
       </c>
@@ -5617,55 +5761,58 @@
         <v>3</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="M33" t="s">
-        <v>197</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>48</v>
+        <v>199</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="N33" t="s">
+        <v>207</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="P33" s="15">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="Q33" s="15">
         <v>0</v>
       </c>
-      <c r="R33" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="S33" t="s">
-        <v>49</v>
+      <c r="R33" s="15">
+        <v>0</v>
+      </c>
+      <c r="S33" s="23" t="s">
+        <v>209</v>
       </c>
       <c r="T33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U33" t="s">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="V33" t="s">
-        <v>49</v>
+        <v>210</v>
       </c>
       <c r="W33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:25">
       <c r="A34" s="18">
         <v>12008</v>
       </c>
@@ -5691,55 +5838,58 @@
         <v>2</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="M34" t="s">
-        <v>203</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>48</v>
+        <v>199</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="N34" t="s">
+        <v>213</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="P34" s="15">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="Q34" s="15">
         <v>0</v>
       </c>
-      <c r="R34" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="S34" t="s">
-        <v>49</v>
+      <c r="R34" s="15">
+        <v>0</v>
+      </c>
+      <c r="S34" s="23" t="s">
+        <v>215</v>
       </c>
       <c r="T34" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U34" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="V34" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="W34" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:25">
       <c r="A35" s="18">
         <v>12009</v>
       </c>
@@ -5765,55 +5915,58 @@
         <v>5</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="M35" t="s">
-        <v>209</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>48</v>
+        <v>218</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="N35" t="s">
+        <v>220</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="P35" s="15">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="Q35" s="15">
         <v>0</v>
       </c>
-      <c r="R35" t="s">
-        <v>211</v>
+      <c r="R35" s="15">
+        <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>49</v>
+        <v>222</v>
       </c>
       <c r="T35" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U35" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="V35" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="W35" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:25">
       <c r="A36" s="18">
         <v>12009</v>
       </c>
@@ -5839,55 +5992,58 @@
         <v>4</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L36" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="M36" t="s">
-        <v>214</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>48</v>
+        <v>218</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="N36" t="s">
+        <v>225</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="P36" s="15">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="Q36" s="15">
         <v>0</v>
       </c>
-      <c r="R36" t="s">
-        <v>216</v>
+      <c r="R36" s="15">
+        <v>0</v>
       </c>
       <c r="S36" t="s">
-        <v>49</v>
+        <v>227</v>
       </c>
       <c r="T36" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U36" t="s">
-        <v>217</v>
+        <v>52</v>
       </c>
       <c r="V36" t="s">
-        <v>49</v>
+        <v>228</v>
       </c>
       <c r="W36" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:25">
       <c r="A37" s="18">
         <v>12009</v>
       </c>
@@ -5913,55 +6069,58 @@
         <v>3</v>
       </c>
       <c r="I37" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L37" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="M37" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="K37" s="14" t="s">
+      <c r="N37" t="s">
+        <v>231</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>0</v>
+      </c>
+      <c r="R37" s="15">
+        <v>0</v>
+      </c>
+      <c r="S37" t="s">
+        <v>52</v>
+      </c>
+      <c r="T37" t="s">
+        <v>52</v>
+      </c>
+      <c r="U37" t="s">
+        <v>52</v>
+      </c>
+      <c r="V37" t="s">
         <v>53</v>
       </c>
-      <c r="L37" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="M37" t="s">
-        <v>220</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O37" s="15">
-        <v>0</v>
-      </c>
-      <c r="P37" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="15">
-        <v>0</v>
-      </c>
-      <c r="R37" t="s">
-        <v>49</v>
-      </c>
-      <c r="S37" t="s">
-        <v>49</v>
-      </c>
-      <c r="T37" t="s">
-        <v>49</v>
-      </c>
-      <c r="U37" t="s">
-        <v>50</v>
-      </c>
-      <c r="V37" t="s">
-        <v>49</v>
-      </c>
       <c r="W37" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:25">
       <c r="A38" s="18">
         <v>12009</v>
       </c>
@@ -5987,25 +6146,25 @@
         <v>2</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L38" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="M38" t="s">
-        <v>223</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O38" s="15">
-        <v>0</v>
+        <v>218</v>
+      </c>
+      <c r="M38" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="N38" t="s">
+        <v>234</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P38" s="15">
         <v>0</v>
@@ -6013,29 +6172,32 @@
       <c r="Q38" s="15">
         <v>0</v>
       </c>
-      <c r="R38" t="s">
-        <v>49</v>
+      <c r="R38" s="15">
+        <v>0</v>
       </c>
       <c r="S38" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T38" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V38" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W38" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:25">
       <c r="A39" s="18">
         <v>12010</v>
       </c>
@@ -6061,25 +6223,25 @@
         <v>5</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="M39" t="s">
-        <v>227</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O39" s="15">
-        <v>0</v>
+        <v>237</v>
+      </c>
+      <c r="M39" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="N39" t="s">
+        <v>239</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P39" s="15">
         <v>0</v>
@@ -6087,29 +6249,32 @@
       <c r="Q39" s="15">
         <v>0</v>
       </c>
-      <c r="R39" t="s">
-        <v>49</v>
+      <c r="R39" s="15">
+        <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T39" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V39" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W39" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:25">
       <c r="A40" s="18">
         <v>12010</v>
       </c>
@@ -6135,55 +6300,58 @@
         <v>4</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="K40" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="M40" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="N40" t="s">
+        <v>242</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P40" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="15">
+        <v>0</v>
+      </c>
+      <c r="R40" s="15">
+        <v>0</v>
+      </c>
+      <c r="S40" t="s">
+        <v>52</v>
+      </c>
+      <c r="T40" t="s">
+        <v>52</v>
+      </c>
+      <c r="U40" t="s">
+        <v>52</v>
+      </c>
+      <c r="V40" t="s">
         <v>53</v>
       </c>
-      <c r="L40" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="M40" t="s">
-        <v>230</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O40" s="15">
-        <v>0</v>
-      </c>
-      <c r="P40" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="15">
-        <v>0</v>
-      </c>
-      <c r="R40" t="s">
-        <v>49</v>
-      </c>
-      <c r="S40" t="s">
-        <v>49</v>
-      </c>
-      <c r="T40" t="s">
-        <v>49</v>
-      </c>
-      <c r="U40" t="s">
-        <v>50</v>
-      </c>
-      <c r="V40" t="s">
-        <v>49</v>
-      </c>
       <c r="W40" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:25">
       <c r="A41" s="18">
         <v>12010</v>
       </c>
@@ -6209,25 +6377,25 @@
         <v>3</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="M41" t="s">
-        <v>233</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O41" s="15">
-        <v>0</v>
+        <v>237</v>
+      </c>
+      <c r="M41" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="N41" t="s">
+        <v>245</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P41" s="15">
         <v>0</v>
@@ -6235,29 +6403,32 @@
       <c r="Q41" s="15">
         <v>0</v>
       </c>
-      <c r="R41" t="s">
-        <v>49</v>
+      <c r="R41" s="15">
+        <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T41" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V41" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W41" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:25">
       <c r="A42" s="18">
         <v>12010</v>
       </c>
@@ -6283,25 +6454,25 @@
         <v>2</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="M42" t="s">
-        <v>236</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O42" s="15">
-        <v>0</v>
+        <v>237</v>
+      </c>
+      <c r="M42" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="N42" t="s">
+        <v>248</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P42" s="15">
         <v>0</v>
@@ -6309,29 +6480,32 @@
       <c r="Q42" s="15">
         <v>0</v>
       </c>
-      <c r="R42" t="s">
-        <v>49</v>
+      <c r="R42" s="15">
+        <v>0</v>
       </c>
       <c r="S42" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T42" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U42" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V42" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W42" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:25">
       <c r="A43" s="18">
         <v>12011</v>
       </c>
@@ -6357,55 +6531,58 @@
         <v>5</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="K43" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L43" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="M43" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="N43" t="s">
+        <v>253</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P43" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="15">
+        <v>0</v>
+      </c>
+      <c r="R43" s="15">
+        <v>0</v>
+      </c>
+      <c r="S43" t="s">
+        <v>52</v>
+      </c>
+      <c r="T43" t="s">
+        <v>52</v>
+      </c>
+      <c r="U43" t="s">
+        <v>52</v>
+      </c>
+      <c r="V43" t="s">
         <v>53</v>
       </c>
-      <c r="L43" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="M43" t="s">
-        <v>240</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O43" s="15">
-        <v>0</v>
-      </c>
-      <c r="P43" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="15">
-        <v>0</v>
-      </c>
-      <c r="R43" t="s">
-        <v>49</v>
-      </c>
-      <c r="S43" t="s">
-        <v>49</v>
-      </c>
-      <c r="T43" t="s">
-        <v>49</v>
-      </c>
-      <c r="U43" t="s">
-        <v>50</v>
-      </c>
-      <c r="V43" t="s">
-        <v>49</v>
-      </c>
       <c r="W43" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:25">
       <c r="A44" s="18">
         <v>12011</v>
       </c>
@@ -6431,25 +6608,25 @@
         <v>4</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L44" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="M44" t="s">
-        <v>243</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O44" s="15">
-        <v>0</v>
+        <v>251</v>
+      </c>
+      <c r="M44" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="N44" t="s">
+        <v>256</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P44" s="15">
         <v>0</v>
@@ -6457,29 +6634,32 @@
       <c r="Q44" s="15">
         <v>0</v>
       </c>
-      <c r="R44" t="s">
-        <v>49</v>
+      <c r="R44" s="15">
+        <v>0</v>
       </c>
       <c r="S44" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T44" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V44" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W44" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:25">
       <c r="A45" s="18">
         <v>12011</v>
       </c>
@@ -6505,25 +6685,25 @@
         <v>3</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L45" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="M45" t="s">
-        <v>246</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O45" s="15">
-        <v>0</v>
+        <v>251</v>
+      </c>
+      <c r="M45" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="N45" t="s">
+        <v>259</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P45" s="15">
         <v>0</v>
@@ -6531,29 +6711,32 @@
       <c r="Q45" s="15">
         <v>0</v>
       </c>
-      <c r="R45" t="s">
-        <v>49</v>
+      <c r="R45" s="15">
+        <v>0</v>
       </c>
       <c r="S45" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T45" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U45" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V45" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W45" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:25">
       <c r="A46" s="18">
         <v>12011</v>
       </c>
@@ -6579,55 +6762,58 @@
         <v>2</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="K46" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="M46" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="N46" t="s">
+        <v>262</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P46" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="15">
+        <v>0</v>
+      </c>
+      <c r="R46" s="15">
+        <v>0</v>
+      </c>
+      <c r="S46" t="s">
+        <v>52</v>
+      </c>
+      <c r="T46" t="s">
+        <v>52</v>
+      </c>
+      <c r="U46" t="s">
+        <v>52</v>
+      </c>
+      <c r="V46" t="s">
         <v>53</v>
       </c>
-      <c r="L46" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="M46" t="s">
-        <v>249</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O46" s="15">
-        <v>0</v>
-      </c>
-      <c r="P46" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="15">
-        <v>0</v>
-      </c>
-      <c r="R46" t="s">
-        <v>49</v>
-      </c>
-      <c r="S46" t="s">
-        <v>49</v>
-      </c>
-      <c r="T46" t="s">
-        <v>49</v>
-      </c>
-      <c r="U46" t="s">
-        <v>50</v>
-      </c>
-      <c r="V46" t="s">
-        <v>49</v>
-      </c>
       <c r="W46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:25">
       <c r="A47" s="18">
         <v>12012</v>
       </c>
@@ -6653,55 +6839,58 @@
         <v>5</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="K47" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L47" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="M47" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="N47" t="s">
+        <v>267</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P47" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>0</v>
+      </c>
+      <c r="R47" s="15">
+        <v>0</v>
+      </c>
+      <c r="S47" t="s">
+        <v>52</v>
+      </c>
+      <c r="T47" t="s">
+        <v>52</v>
+      </c>
+      <c r="U47" t="s">
+        <v>52</v>
+      </c>
+      <c r="V47" t="s">
         <v>53</v>
       </c>
-      <c r="L47" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="M47" t="s">
-        <v>253</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O47" s="15">
-        <v>0</v>
-      </c>
-      <c r="P47" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="15">
-        <v>0</v>
-      </c>
-      <c r="R47" t="s">
-        <v>49</v>
-      </c>
-      <c r="S47" t="s">
-        <v>49</v>
-      </c>
-      <c r="T47" t="s">
-        <v>49</v>
-      </c>
-      <c r="U47" t="s">
-        <v>50</v>
-      </c>
-      <c r="V47" t="s">
-        <v>49</v>
-      </c>
       <c r="W47" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:25">
       <c r="A48" s="18">
         <v>12012</v>
       </c>
@@ -6727,25 +6916,25 @@
         <v>4</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L48" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="M48" t="s">
-        <v>256</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O48" s="15">
-        <v>0</v>
+        <v>265</v>
+      </c>
+      <c r="M48" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="N48" t="s">
+        <v>270</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P48" s="15">
         <v>0</v>
@@ -6753,29 +6942,32 @@
       <c r="Q48" s="15">
         <v>0</v>
       </c>
-      <c r="R48" t="s">
-        <v>49</v>
+      <c r="R48" s="15">
+        <v>0</v>
       </c>
       <c r="S48" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T48" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U48" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V48" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W48" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:25">
       <c r="A49" s="18">
         <v>12012</v>
       </c>
@@ -6801,25 +6993,25 @@
         <v>3</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L49" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="M49" t="s">
-        <v>259</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O49" s="15">
-        <v>0</v>
+        <v>265</v>
+      </c>
+      <c r="M49" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="N49" t="s">
+        <v>273</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P49" s="15">
         <v>0</v>
@@ -6827,29 +7019,32 @@
       <c r="Q49" s="15">
         <v>0</v>
       </c>
-      <c r="R49" t="s">
-        <v>49</v>
+      <c r="R49" s="15">
+        <v>0</v>
       </c>
       <c r="S49" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T49" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U49" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V49" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W49" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:25">
       <c r="A50" s="18">
         <v>12012</v>
       </c>
@@ -6875,55 +7070,58 @@
         <v>2</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="K50" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="M50" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="N50" t="s">
+        <v>276</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P50" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="15">
+        <v>0</v>
+      </c>
+      <c r="R50" s="15">
+        <v>0</v>
+      </c>
+      <c r="S50" t="s">
+        <v>52</v>
+      </c>
+      <c r="T50" t="s">
+        <v>52</v>
+      </c>
+      <c r="U50" t="s">
+        <v>52</v>
+      </c>
+      <c r="V50" t="s">
         <v>53</v>
       </c>
-      <c r="L50" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="M50" t="s">
-        <v>262</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O50" s="15">
-        <v>0</v>
-      </c>
-      <c r="P50" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="15">
-        <v>0</v>
-      </c>
-      <c r="R50" t="s">
-        <v>49</v>
-      </c>
-      <c r="S50" t="s">
-        <v>49</v>
-      </c>
-      <c r="T50" t="s">
-        <v>49</v>
-      </c>
-      <c r="U50" t="s">
-        <v>50</v>
-      </c>
-      <c r="V50" t="s">
-        <v>49</v>
-      </c>
       <c r="W50" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:25">
       <c r="A51" s="18">
         <v>12013</v>
       </c>
@@ -6949,25 +7147,25 @@
         <v>5</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L51" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="M51" t="s">
-        <v>266</v>
-      </c>
-      <c r="N51" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O51" s="15">
-        <v>0</v>
+        <v>279</v>
+      </c>
+      <c r="M51" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="N51" t="s">
+        <v>281</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P51" s="15">
         <v>0</v>
@@ -6975,29 +7173,32 @@
       <c r="Q51" s="15">
         <v>0</v>
       </c>
-      <c r="R51" t="s">
-        <v>49</v>
+      <c r="R51" s="15">
+        <v>0</v>
       </c>
       <c r="S51" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T51" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V51" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W51" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:25">
       <c r="A52" s="18">
         <v>12013</v>
       </c>
@@ -7023,25 +7224,25 @@
         <v>4</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L52" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="M52" t="s">
-        <v>269</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O52" s="15">
-        <v>0</v>
+        <v>279</v>
+      </c>
+      <c r="M52" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="N52" t="s">
+        <v>284</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P52" s="15">
         <v>0</v>
@@ -7049,29 +7250,32 @@
       <c r="Q52" s="15">
         <v>0</v>
       </c>
-      <c r="R52" t="s">
-        <v>49</v>
+      <c r="R52" s="15">
+        <v>0</v>
       </c>
       <c r="S52" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T52" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V52" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W52" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X52" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:25">
       <c r="A53" s="18">
         <v>12013</v>
       </c>
@@ -7097,55 +7301,58 @@
         <v>3</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="K53" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L53" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="M53" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="N53" t="s">
+        <v>287</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P53" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="15">
+        <v>0</v>
+      </c>
+      <c r="R53" s="15">
+        <v>0</v>
+      </c>
+      <c r="S53" t="s">
+        <v>52</v>
+      </c>
+      <c r="T53" t="s">
+        <v>52</v>
+      </c>
+      <c r="U53" t="s">
+        <v>52</v>
+      </c>
+      <c r="V53" t="s">
         <v>53</v>
       </c>
-      <c r="L53" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="M53" t="s">
-        <v>272</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O53" s="15">
-        <v>0</v>
-      </c>
-      <c r="P53" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="15">
-        <v>0</v>
-      </c>
-      <c r="R53" t="s">
-        <v>49</v>
-      </c>
-      <c r="S53" t="s">
-        <v>49</v>
-      </c>
-      <c r="T53" t="s">
-        <v>49</v>
-      </c>
-      <c r="U53" t="s">
-        <v>50</v>
-      </c>
-      <c r="V53" t="s">
-        <v>49</v>
-      </c>
       <c r="W53" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X53" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:25">
       <c r="A54" s="18">
         <v>12013</v>
       </c>
@@ -7171,55 +7378,58 @@
         <v>2</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="K54" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L54" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="M54" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="N54" t="s">
+        <v>290</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P54" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="15">
+        <v>0</v>
+      </c>
+      <c r="R54" s="15">
+        <v>0</v>
+      </c>
+      <c r="S54" t="s">
+        <v>52</v>
+      </c>
+      <c r="T54" t="s">
+        <v>52</v>
+      </c>
+      <c r="U54" t="s">
+        <v>52</v>
+      </c>
+      <c r="V54" t="s">
         <v>53</v>
       </c>
-      <c r="L54" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="M54" t="s">
-        <v>275</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O54" s="15">
-        <v>0</v>
-      </c>
-      <c r="P54" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="15">
-        <v>0</v>
-      </c>
-      <c r="R54" t="s">
-        <v>49</v>
-      </c>
-      <c r="S54" t="s">
-        <v>49</v>
-      </c>
-      <c r="T54" t="s">
-        <v>49</v>
-      </c>
-      <c r="U54" t="s">
-        <v>50</v>
-      </c>
-      <c r="V54" t="s">
-        <v>49</v>
-      </c>
       <c r="W54" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X54" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:25">
       <c r="A55" s="18">
         <v>12014</v>
       </c>
@@ -7245,25 +7455,25 @@
         <v>5</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L55" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="M55" t="s">
-        <v>279</v>
-      </c>
-      <c r="N55" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O55" s="15">
-        <v>0</v>
+        <v>293</v>
+      </c>
+      <c r="M55" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="N55" t="s">
+        <v>295</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P55" s="15">
         <v>0</v>
@@ -7271,29 +7481,32 @@
       <c r="Q55" s="15">
         <v>0</v>
       </c>
-      <c r="R55" t="s">
-        <v>49</v>
+      <c r="R55" s="15">
+        <v>0</v>
       </c>
       <c r="S55" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T55" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U55" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V55" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W55" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X55" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:25">
       <c r="A56" s="18">
         <v>12014</v>
       </c>
@@ -7319,25 +7532,25 @@
         <v>4</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L56" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="M56" t="s">
-        <v>282</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O56" s="15">
-        <v>0</v>
+        <v>293</v>
+      </c>
+      <c r="M56" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="N56" t="s">
+        <v>298</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P56" s="15">
         <v>0</v>
@@ -7345,29 +7558,32 @@
       <c r="Q56" s="15">
         <v>0</v>
       </c>
-      <c r="R56" t="s">
-        <v>49</v>
+      <c r="R56" s="15">
+        <v>0</v>
       </c>
       <c r="S56" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T56" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U56" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V56" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W56" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X56" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:25">
       <c r="A57" s="18">
         <v>12014</v>
       </c>
@@ -7393,55 +7609,58 @@
         <v>3</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L57" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="M57" t="s">
-        <v>285</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>48</v>
+        <v>293</v>
+      </c>
+      <c r="M57" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="N57" t="s">
+        <v>301</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="P57" s="15">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="Q57" s="15">
         <v>0</v>
       </c>
-      <c r="R57" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="S57" t="s">
-        <v>49</v>
+      <c r="R57" s="15">
+        <v>0</v>
+      </c>
+      <c r="S57" s="23" t="s">
+        <v>303</v>
       </c>
       <c r="T57" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U57" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="V57" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="W57" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X57" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="1:25">
       <c r="A58" s="18">
         <v>12014</v>
       </c>
@@ -7467,25 +7686,25 @@
         <v>2</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L58" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="M58" t="s">
-        <v>290</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O58" s="15">
-        <v>0</v>
+        <v>293</v>
+      </c>
+      <c r="M58" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="N58" t="s">
+        <v>306</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P58" s="15">
         <v>0</v>
@@ -7493,26 +7712,29 @@
       <c r="Q58" s="15">
         <v>0</v>
       </c>
-      <c r="R58" t="s">
-        <v>49</v>
+      <c r="R58" s="15">
+        <v>0</v>
       </c>
       <c r="S58" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T58" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U58" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V58" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W58" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X58" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="9:9">
@@ -7522,7 +7744,7 @@
       <c r="I63" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:X58">
+  <autoFilter ref="A2:Y58">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7558,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -7579,42 +7801,42 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7622,7 +7844,7 @@
         <v>22001</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -7634,19 +7856,19 @@
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="J3" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7654,7 +7876,7 @@
         <v>22001</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -7666,19 +7888,19 @@
         <v>6</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="J4" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7686,7 +7908,7 @@
         <v>22001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
@@ -7698,19 +7920,19 @@
         <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="J5" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7718,7 +7940,7 @@
         <v>22001</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="C6" s="3">
         <v>4</v>
@@ -7730,19 +7952,19 @@
         <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="J6" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7750,7 +7972,7 @@
         <v>22002</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -7762,19 +7984,19 @@
         <v>3</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="J7" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7782,7 +8004,7 @@
         <v>22002</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -7794,19 +8016,19 @@
         <v>9</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="J8" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7814,7 +8036,7 @@
         <v>22002</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
@@ -7826,19 +8048,19 @@
         <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="J9" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7846,7 +8068,7 @@
         <v>22002</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
@@ -7858,19 +8080,19 @@
         <v>25</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="J10" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7878,7 +8100,7 @@
         <v>22003</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -7890,19 +8112,19 @@
         <v>15</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="J11" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7910,7 +8132,7 @@
         <v>22003</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -7922,19 +8144,19 @@
         <v>10</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="J12" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7942,7 +8164,7 @@
         <v>22003</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -7954,19 +8176,19 @@
         <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="J13" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7974,7 +8196,7 @@
         <v>22003</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="C14" s="3">
         <v>4</v>
@@ -7986,19 +8208,19 @@
         <v>25</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="J14" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -8006,7 +8228,7 @@
         <v>22004</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -8018,19 +8240,19 @@
         <v>3</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="J15" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -8038,7 +8260,7 @@
         <v>22004</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -8050,19 +8272,19 @@
         <v>9</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I16" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="J16" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -8070,7 +8292,7 @@
         <v>22004</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
@@ -8082,19 +8304,19 @@
         <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="J17" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -8102,7 +8324,7 @@
         <v>22004</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="C18" s="3">
         <v>4</v>
@@ -8114,19 +8336,19 @@
         <v>25</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="J18" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -8134,7 +8356,7 @@
         <v>22005</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -8146,19 +8368,19 @@
         <v>6</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I19" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="J19" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -8166,7 +8388,7 @@
         <v>22005</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
@@ -8178,19 +8400,19 @@
         <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I20" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J20" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -8198,7 +8420,7 @@
         <v>22005</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
@@ -8210,19 +8432,19 @@
         <v>20</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="J21" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -8230,7 +8452,7 @@
         <v>22005</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="C22" s="3">
         <v>4</v>
@@ -8242,19 +8464,19 @@
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I22" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="J22" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -8262,7 +8484,7 @@
         <v>22006</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -8274,19 +8496,19 @@
         <v>1</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I23" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="J23" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -8294,7 +8516,7 @@
         <v>22006</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
@@ -8306,19 +8528,19 @@
         <v>8</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="J24" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -8326,7 +8548,7 @@
         <v>22006</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
@@ -8338,19 +8560,19 @@
         <v>14</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I25" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="J25" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -8358,7 +8580,7 @@
         <v>22006</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="C26" s="3">
         <v>4</v>
@@ -8370,19 +8592,19 @@
         <v>20</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I26" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="J26" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -8390,7 +8612,7 @@
         <v>22007</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -8402,19 +8624,19 @@
         <v>1</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="J27" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -8422,7 +8644,7 @@
         <v>22007</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
@@ -8434,19 +8656,19 @@
         <v>9</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I28" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="J28" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -8454,7 +8676,7 @@
         <v>22007</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="C29" s="3">
         <v>3</v>
@@ -8466,19 +8688,19 @@
         <v>15</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I29" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="J29" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -8486,7 +8708,7 @@
         <v>22007</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="C30" s="3">
         <v>4</v>
@@ -8498,19 +8720,19 @@
         <v>25</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="J30" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -8518,7 +8740,7 @@
         <v>22008</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -8530,19 +8752,19 @@
         <v>1</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I31" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="J31" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -8550,7 +8772,7 @@
         <v>22008</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
@@ -8562,19 +8784,19 @@
         <v>15</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I32" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="J32" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -8582,7 +8804,7 @@
         <v>22008</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="C33" s="3">
         <v>3</v>
@@ -8594,19 +8816,19 @@
         <v>21</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="J33" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -8614,7 +8836,7 @@
         <v>22008</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="C34" s="3">
         <v>4</v>
@@ -8626,19 +8848,19 @@
         <v>28</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I34" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="J34" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -8646,7 +8868,7 @@
         <v>22009</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
@@ -8658,19 +8880,19 @@
         <v>0</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I35" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="J35" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -8678,7 +8900,7 @@
         <v>22009</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="C36" s="3">
         <v>2</v>
@@ -8690,19 +8912,19 @@
         <v>6</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I36" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="J36" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -8710,7 +8932,7 @@
         <v>22009</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="C37" s="3">
         <v>3</v>
@@ -8722,19 +8944,19 @@
         <v>12</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="J37" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -8742,7 +8964,7 @@
         <v>22009</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="C38" s="3">
         <v>4</v>
@@ -8754,19 +8976,19 @@
         <v>24</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I38" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="J38" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -8807,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -8819,7 +9041,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>8</v>
@@ -8831,51 +9053,51 @@
         <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8883,7 +9105,7 @@
         <v>32001</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -8898,19 +9120,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="K3" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="L3" s="15">
         <v>12</v>
@@ -8921,7 +9143,7 @@
         <v>32001</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -8936,19 +9158,19 @@
         <v>0</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="K4" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="L4" s="15">
         <v>24</v>
@@ -8959,7 +9181,7 @@
         <v>32001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
@@ -8974,19 +9196,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J5" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="K5" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="L5" s="15">
         <v>40</v>
@@ -8997,7 +9219,7 @@
         <v>32001</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="C6" s="3">
         <v>4</v>
@@ -9012,19 +9234,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J6" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="K6" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="L6" s="15">
         <v>60</v>
@@ -9035,7 +9257,7 @@
         <v>32002</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -9050,19 +9272,19 @@
         <v>0</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="K7" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="L7" s="15">
         <v>2</v>
@@ -9073,7 +9295,7 @@
         <v>32002</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -9088,19 +9310,19 @@
         <v>0</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="K8" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="L8" s="15">
         <v>5</v>
@@ -9111,7 +9333,7 @@
         <v>32002</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
@@ -9126,19 +9348,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="K9" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="L9" s="15">
         <v>10</v>
@@ -9149,7 +9371,7 @@
         <v>32002</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
@@ -9164,19 +9386,19 @@
         <v>0</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="K10" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="L10" s="15">
         <v>20</v>
@@ -9187,7 +9409,7 @@
         <v>32003</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -9202,19 +9424,19 @@
         <v>2</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J11" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="K11" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="L11" s="15">
         <v>10</v>
@@ -9225,7 +9447,7 @@
         <v>32003</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -9240,19 +9462,19 @@
         <v>2</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J12" t="s">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="K12" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="L12" s="15">
         <v>15</v>
@@ -9263,7 +9485,7 @@
         <v>32003</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -9278,19 +9500,19 @@
         <v>2</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J13" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="K13" t="s">
-        <v>532</v>
+        <v>548</v>
       </c>
       <c r="L13" s="15">
         <v>30</v>
@@ -9301,7 +9523,7 @@
         <v>32003</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="C14" s="3">
         <v>4</v>
@@ -9316,19 +9538,19 @@
         <v>2</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J14" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="K14" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="L14" s="15">
         <v>50</v>
@@ -9339,7 +9561,7 @@
         <v>32004</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -9354,19 +9576,19 @@
         <v>2</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="K15" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="L15" s="15">
         <v>5</v>
@@ -9377,7 +9599,7 @@
         <v>32004</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -9392,19 +9614,19 @@
         <v>2</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J16" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="K16" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="L16" s="15">
         <v>10</v>
@@ -9415,7 +9637,7 @@
         <v>32004</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
@@ -9430,19 +9652,19 @@
         <v>2</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J17" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="K17" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="L17" s="15">
         <v>20</v>
@@ -9453,7 +9675,7 @@
         <v>32004</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="C18" s="3">
         <v>4</v>
@@ -9468,19 +9690,19 @@
         <v>2</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J18" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="K18" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="L18" s="15">
         <v>30</v>
@@ -9491,7 +9713,7 @@
         <v>32005</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -9506,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J19" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="K19" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="L19" s="15">
         <v>2</v>
@@ -9529,7 +9751,7 @@
         <v>32005</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
@@ -9544,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J20" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
       <c r="K20" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="L20" s="15">
         <v>5</v>
@@ -9567,7 +9789,7 @@
         <v>32005</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>568</v>
+        <v>584</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
@@ -9582,19 +9804,19 @@
         <v>0</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J21" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
       <c r="K21" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="L21" s="15">
         <v>10</v>
@@ -9605,7 +9827,7 @@
         <v>32005</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="C22" s="3">
         <v>4</v>
@@ -9620,19 +9842,19 @@
         <v>0</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J22" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="K22" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="L22" s="15">
         <v>20</v>
@@ -9643,7 +9865,7 @@
         <v>32006</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -9658,19 +9880,19 @@
         <v>2</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="L23" s="15">
         <v>5</v>
@@ -9681,7 +9903,7 @@
         <v>32006</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
@@ -9696,19 +9918,19 @@
         <v>2</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="L24" s="15">
         <v>10</v>
@@ -9719,7 +9941,7 @@
         <v>32006</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
@@ -9734,19 +9956,19 @@
         <v>2</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="L25" s="15">
         <v>20</v>
@@ -9757,7 +9979,7 @@
         <v>32006</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="C26" s="3">
         <v>4</v>
@@ -9772,19 +9994,19 @@
         <v>2</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="L26" s="15">
         <v>30</v>
@@ -9795,7 +10017,7 @@
         <v>32007</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -9810,19 +10032,19 @@
         <v>0</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J27" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="K27" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="L27" s="15">
         <v>5</v>
@@ -9833,7 +10055,7 @@
         <v>32007</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
@@ -9848,19 +10070,19 @@
         <v>0</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J28" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="K28" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="L28" s="15">
         <v>10</v>
@@ -9871,7 +10093,7 @@
         <v>32007</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="C29" s="3">
         <v>3</v>
@@ -9886,19 +10108,19 @@
         <v>0</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J29" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="K29" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
       <c r="L29" s="15">
         <v>20</v>
@@ -9909,7 +10131,7 @@
         <v>32007</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
       <c r="C30" s="3">
         <v>4</v>
@@ -9924,19 +10146,19 @@
         <v>0</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J30" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="K30" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
       <c r="L30" s="15">
         <v>30</v>
@@ -9947,7 +10169,7 @@
         <v>32008</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>618</v>
+        <v>634</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -9962,19 +10184,19 @@
         <v>0</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J31" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="K31" t="s">
-        <v>622</v>
+        <v>638</v>
       </c>
       <c r="L31" s="15">
         <v>5</v>
@@ -9985,7 +10207,7 @@
         <v>32008</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
@@ -10000,19 +10222,19 @@
         <v>0</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J32" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="K32" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="L32" s="15">
         <v>10</v>
@@ -10023,7 +10245,7 @@
         <v>32008</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="C33" s="3">
         <v>3</v>
@@ -10038,19 +10260,19 @@
         <v>0</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J33" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="K33" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="L33" s="15">
         <v>20</v>
@@ -10061,7 +10283,7 @@
         <v>32008</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="C34" s="3">
         <v>4</v>
@@ -10076,19 +10298,19 @@
         <v>0</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="K34" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="L34" s="15">
         <v>30</v>

--- a/project/OtherAssets/Excle/A_Default/建筑.xlsx
+++ b/project/OtherAssets/Excle/A_Default/建筑.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="16260" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Stall" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Adorn" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stall!$A$2:$X$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stall!$A$2:$Y$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Adorn!$A$2:$L$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Equip!$A$3:$J$38</definedName>
   </definedNames>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="659">
   <si>
     <t>ID</t>
   </si>
@@ -59,6 +59,9 @@
     <t>食物图标</t>
   </si>
   <si>
+    <t>标题图片</t>
+  </si>
+  <si>
     <t>图标名字</t>
   </si>
   <si>
@@ -122,6 +125,9 @@
     <t>foodIcon_s</t>
   </si>
   <si>
+    <t>title_s</t>
+  </si>
+  <si>
     <t>IconName_s</t>
   </si>
   <si>
@@ -164,6 +170,9 @@
     <t>stall_2001_food</t>
   </si>
   <si>
+    <t>披萨店</t>
+  </si>
+  <si>
     <t>shop_shtall_20011</t>
   </si>
   <si>
@@ -242,6 +251,9 @@
     <t>stall_2002_food</t>
   </si>
   <si>
+    <t>巨无霸取餐台</t>
+  </si>
+  <si>
     <t>shop_shtall_20021</t>
   </si>
   <si>
@@ -308,6 +320,9 @@
     <t>stall_2003_food</t>
   </si>
   <si>
+    <t>寿司取餐台</t>
+  </si>
+  <si>
     <t>shop_shtall_20031</t>
   </si>
   <si>
@@ -380,6 +395,9 @@
     <t>stall_2004_food</t>
   </si>
   <si>
+    <t>海鲜摊</t>
+  </si>
+  <si>
     <t>shop_shtall_20041</t>
   </si>
   <si>
@@ -437,6 +455,9 @@
     <t>stall_2005_food</t>
   </si>
   <si>
+    <t>冰淇淋自助机</t>
+  </si>
+  <si>
     <t>shop_shtall_20051</t>
   </si>
   <si>
@@ -482,6 +503,9 @@
     <t>stall_2006_food</t>
   </si>
   <si>
+    <t>咖啡自助台</t>
+  </si>
+  <si>
     <t>shop_shtall_20061</t>
   </si>
   <si>
@@ -557,6 +581,9 @@
     <t>stall_2007_food</t>
   </si>
   <si>
+    <t>吧台标题</t>
+  </si>
+  <si>
     <t>shop_shtall_20071</t>
   </si>
   <si>
@@ -596,6 +623,9 @@
     <t>stall_2008_food</t>
   </si>
   <si>
+    <t>糖果摊</t>
+  </si>
+  <si>
     <t>shop_shtall_20081</t>
   </si>
   <si>
@@ -650,6 +680,9 @@
     <t>stall_2009_food</t>
   </si>
   <si>
+    <t>巧克力摊</t>
+  </si>
+  <si>
     <t>shop_shtall_20091</t>
   </si>
   <si>
@@ -704,6 +737,9 @@
     <t>stall_2010_food</t>
   </si>
   <si>
+    <t>果汁机</t>
+  </si>
+  <si>
     <t>shop_shtall_20101</t>
   </si>
   <si>
@@ -743,6 +779,9 @@
     <t>stall_2011_food</t>
   </si>
   <si>
+    <t>甜点柜</t>
+  </si>
+  <si>
     <t>shop_shtall_20111</t>
   </si>
   <si>
@@ -782,6 +821,9 @@
     <t>stall_2012_food</t>
   </si>
   <si>
+    <t>可乐自动贩卖机</t>
+  </si>
+  <si>
     <t>shop_shtall_20121</t>
   </si>
   <si>
@@ -821,6 +863,9 @@
     <t>stall_2013_food</t>
   </si>
   <si>
+    <t>自助火锅</t>
+  </si>
+  <si>
     <t>shop_shtall_20131</t>
   </si>
   <si>
@@ -858,6 +903,9 @@
   </si>
   <si>
     <t>stall_2014_food</t>
+  </si>
+  <si>
+    <t>自助蔬菜沙拉</t>
   </si>
   <si>
     <t>shop_shtall_20141</t>
@@ -2161,8 +2209,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -2188,70 +2236,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2265,6 +2252,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -2273,17 +2268,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2305,7 +2299,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2315,6 +2309,60 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2345,13 +2393,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2363,43 +2429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2411,79 +2441,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2501,19 +2465,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2525,7 +2519,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2554,27 +2602,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2591,39 +2633,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2651,16 +2660,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2669,133 +2717,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3203,42 +3251,42 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X63"/>
+  <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C54" sqref="C54"/>
+      <selection pane="topRight" activeCell="M55" sqref="M55:M58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.5" style="17" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="3" customWidth="1"/>
-    <col min="3" max="5" width="14.6296296296296" style="3" customWidth="1"/>
+    <col min="3" max="5" width="14.6333333333333" style="3" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.6296296296296" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.3796296296296" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.6333333333333" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.3833333333333" style="3" customWidth="1"/>
     <col min="9" max="9" width="15" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.1296296296296" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.1296296296296" style="11" customWidth="1"/>
-    <col min="12" max="12" width="20.3796296296296" style="11" customWidth="1"/>
-    <col min="13" max="13" width="18.6296296296296" style="3" customWidth="1"/>
-    <col min="14" max="14" width="17.1296296296296" style="3" customWidth="1"/>
-    <col min="15" max="15" width="25.3796296296296" style="3" customWidth="1"/>
-    <col min="16" max="16" width="31.3796296296296" style="3" customWidth="1"/>
-    <col min="17" max="17" width="29.75" style="3" customWidth="1"/>
-    <col min="18" max="18" width="20.3796296296296" style="3" customWidth="1"/>
-    <col min="19" max="19" width="21.1296296296296" style="3" customWidth="1"/>
-    <col min="20" max="20" width="17.1296296296296" style="3" customWidth="1"/>
-    <col min="21" max="21" width="14" style="3" customWidth="1"/>
-    <col min="22" max="22" width="15.8796296296296" style="3" customWidth="1"/>
-    <col min="23" max="23" width="17" style="3" customWidth="1"/>
-    <col min="24" max="24" width="14" style="3" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="3"/>
+    <col min="10" max="10" width="16.1333333333333" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.1333333333333" style="11" customWidth="1"/>
+    <col min="12" max="13" width="20.3833333333333" style="11" customWidth="1"/>
+    <col min="14" max="14" width="18.6333333333333" style="3" customWidth="1"/>
+    <col min="15" max="15" width="17.1333333333333" style="3" customWidth="1"/>
+    <col min="16" max="16" width="25.3833333333333" style="3" customWidth="1"/>
+    <col min="17" max="17" width="31.3833333333333" style="3" customWidth="1"/>
+    <col min="18" max="18" width="29.75" style="3" customWidth="1"/>
+    <col min="19" max="19" width="20.3833333333333" style="3" customWidth="1"/>
+    <col min="20" max="20" width="21.1333333333333" style="3" customWidth="1"/>
+    <col min="21" max="21" width="17.1333333333333" style="3" customWidth="1"/>
+    <col min="22" max="22" width="14" style="3" customWidth="1"/>
+    <col min="23" max="23" width="15.8833333333333" style="3" customWidth="1"/>
+    <col min="24" max="24" width="17" style="3" customWidth="1"/>
+    <col min="25" max="25" width="14" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="23.25" customHeight="1" spans="1:24">
+    <row r="1" customFormat="1" ht="23.25" customHeight="1" spans="1:25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -3275,7 +3323,7 @@
       <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
@@ -3284,20 +3332,20 @@
       <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="S1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U1" t="s">
         <v>17</v>
@@ -3311,82 +3359,88 @@
       <c r="X1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:24">
+      <c r="Y1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:25">
       <c r="A2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="M2" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="N2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:24">
+        <v>43</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:25">
       <c r="A3" s="18">
         <v>12001</v>
       </c>
@@ -3412,25 +3466,25 @@
         <v>5</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="15">
-        <v>0</v>
+      <c r="M3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P3" s="15">
         <v>0</v>
@@ -3438,29 +3492,32 @@
       <c r="Q3" s="15">
         <v>0</v>
       </c>
-      <c r="R3" t="s">
-        <v>49</v>
+      <c r="R3" s="15">
+        <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:25">
       <c r="A4" s="18">
         <v>12001</v>
       </c>
@@ -3486,55 +3543,58 @@
         <v>4</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="14" t="s">
+      <c r="P4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>0</v>
+      </c>
+      <c r="R4" s="15">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="15">
-        <v>0</v>
-      </c>
-      <c r="P4" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="15">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>49</v>
-      </c>
-      <c r="S4" t="s">
-        <v>49</v>
-      </c>
-      <c r="T4" t="s">
-        <v>49</v>
-      </c>
-      <c r="U4" t="s">
-        <v>50</v>
-      </c>
-      <c r="V4" t="s">
-        <v>49</v>
-      </c>
       <c r="W4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:25">
       <c r="A5" s="18">
         <v>12001</v>
       </c>
@@ -3560,55 +3620,58 @@
         <v>3</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="P5" s="15">
-        <v>0</v>
+      <c r="M5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="Q5" s="15">
         <v>0</v>
       </c>
-      <c r="R5" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="S5" t="s">
-        <v>49</v>
+      <c r="R5" s="15">
+        <v>0</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="T5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="V5" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="W5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:25">
       <c r="A6" s="18">
         <v>12001</v>
       </c>
@@ -3634,55 +3697,58 @@
         <v>2</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N6" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="M6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
       <c r="O6" s="3" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q6" s="15">
-        <v>0</v>
-      </c>
-      <c r="R6" t="s">
-        <v>67</v>
-      </c>
-      <c r="S6" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="T6" t="s">
-        <v>49</v>
+      <c r="Q6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R6" s="15">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T6" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="U6" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="V6" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="W6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:25">
       <c r="A7" s="18">
         <v>12002</v>
       </c>
@@ -3708,55 +3774,58 @@
         <v>5</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>0</v>
+      </c>
+      <c r="R7" s="15">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>52</v>
+      </c>
+      <c r="T7" t="s">
+        <v>52</v>
+      </c>
+      <c r="U7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V7" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M7" t="s">
-        <v>73</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" s="15">
-        <v>0</v>
-      </c>
-      <c r="P7" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="15">
-        <v>0</v>
-      </c>
-      <c r="R7" t="s">
-        <v>49</v>
-      </c>
-      <c r="S7" t="s">
-        <v>49</v>
-      </c>
-      <c r="T7" t="s">
-        <v>49</v>
-      </c>
-      <c r="U7" t="s">
-        <v>50</v>
-      </c>
-      <c r="V7" t="s">
-        <v>49</v>
-      </c>
       <c r="W7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:25">
       <c r="A8" s="18">
         <v>12002</v>
       </c>
@@ -3782,25 +3851,25 @@
         <v>4</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="M8" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O8" s="15">
-        <v>0</v>
+      <c r="N8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P8" s="15">
         <v>0</v>
@@ -3808,29 +3877,32 @@
       <c r="Q8" s="15">
         <v>0</v>
       </c>
-      <c r="R8" t="s">
-        <v>49</v>
+      <c r="R8" s="15">
+        <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:25">
       <c r="A9" s="18">
         <v>12002</v>
       </c>
@@ -3856,55 +3928,58 @@
         <v>3</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M9" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>48</v>
+        <v>75</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N9" t="s">
+        <v>83</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="P9" s="15">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="Q9" s="15">
         <v>0</v>
       </c>
-      <c r="R9" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="S9" t="s">
-        <v>49</v>
+      <c r="R9" s="15">
+        <v>0</v>
+      </c>
+      <c r="S9" s="24" t="s">
+        <v>85</v>
       </c>
       <c r="T9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U9" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="V9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="W9" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="X9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:25">
       <c r="A10" s="18">
         <v>12002</v>
       </c>
@@ -3930,55 +4005,58 @@
         <v>2</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M10" t="s">
-        <v>86</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>48</v>
+        <v>75</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" t="s">
+        <v>90</v>
       </c>
       <c r="O10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R10" s="15">
+        <v>0</v>
+      </c>
+      <c r="S10" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="T10" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="U10" t="s">
+        <v>52</v>
+      </c>
+      <c r="V10" t="s">
+        <v>95</v>
+      </c>
+      <c r="W10" t="s">
         <v>87</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q10" s="15">
-        <v>0</v>
-      </c>
-      <c r="R10" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="S10" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="T10" t="s">
-        <v>49</v>
-      </c>
-      <c r="U10" t="s">
-        <v>91</v>
-      </c>
-      <c r="V10" t="s">
-        <v>83</v>
-      </c>
-      <c r="W10" t="s">
-        <v>83</v>
-      </c>
       <c r="X10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:24">
+        <v>87</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:25">
       <c r="A11" s="18">
         <v>12003</v>
       </c>
@@ -4004,25 +4082,25 @@
         <v>5</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="M11" t="s">
-        <v>95</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O11" s="15">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="N11" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P11" s="15">
         <v>0</v>
@@ -4030,29 +4108,32 @@
       <c r="Q11" s="15">
         <v>0</v>
       </c>
-      <c r="R11" t="s">
-        <v>49</v>
+      <c r="R11" s="15">
+        <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:25">
       <c r="A12" s="18">
         <v>12003</v>
       </c>
@@ -4078,55 +4159,58 @@
         <v>4</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="M12" t="s">
         <v>98</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>48</v>
+      <c r="M12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="N12" t="s">
+        <v>103</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q12" s="15">
-        <v>0</v>
-      </c>
-      <c r="R12" t="s">
-        <v>101</v>
+        <v>104</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="R12" s="15">
+        <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="T12" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="U12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V12" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="W12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:24">
+        <v>87</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:25">
       <c r="A13" s="18">
         <v>12003</v>
       </c>
@@ -4152,55 +4236,58 @@
         <v>3</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="M13" t="s">
-        <v>105</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>48</v>
+        <v>98</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13" t="s">
+        <v>110</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q13" s="15">
-        <v>0</v>
-      </c>
-      <c r="R13" t="s">
-        <v>108</v>
+        <v>111</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="R13" s="15">
+        <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="T13" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="U13" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="V13" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="W13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:24">
+        <v>87</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:25">
       <c r="A14" s="18">
         <v>12003</v>
       </c>
@@ -4226,55 +4313,58 @@
         <v>2</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="M14" t="s">
-        <v>113</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>48</v>
+        <v>98</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="N14" t="s">
+        <v>118</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="P14" s="15">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="Q14" s="15">
         <v>0</v>
       </c>
-      <c r="R14" t="s">
-        <v>115</v>
+      <c r="R14" s="15">
+        <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="T14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V14" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="W14" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:24">
+        <v>87</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:25">
       <c r="A15" s="18">
         <v>12004</v>
       </c>
@@ -4300,25 +4390,25 @@
         <v>5</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="M15" t="s">
-        <v>119</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O15" s="15">
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="N15" t="s">
+        <v>125</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P15" s="15">
         <v>0</v>
@@ -4326,29 +4416,32 @@
       <c r="Q15" s="15">
         <v>0</v>
       </c>
-      <c r="R15" t="s">
-        <v>49</v>
+      <c r="R15" s="15">
+        <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:25">
       <c r="A16" s="18">
         <v>12004</v>
       </c>
@@ -4374,55 +4467,58 @@
         <v>4</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="N16" t="s">
+        <v>128</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>0</v>
+      </c>
+      <c r="R16" s="15">
+        <v>0</v>
+      </c>
+      <c r="S16" t="s">
+        <v>52</v>
+      </c>
+      <c r="T16" t="s">
+        <v>52</v>
+      </c>
+      <c r="U16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V16" t="s">
         <v>53</v>
       </c>
-      <c r="L16" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="M16" t="s">
-        <v>122</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O16" s="15">
-        <v>0</v>
-      </c>
-      <c r="P16" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="15">
-        <v>0</v>
-      </c>
-      <c r="R16" t="s">
-        <v>49</v>
-      </c>
-      <c r="S16" t="s">
-        <v>49</v>
-      </c>
-      <c r="T16" t="s">
-        <v>49</v>
-      </c>
-      <c r="U16" t="s">
-        <v>50</v>
-      </c>
-      <c r="V16" t="s">
-        <v>49</v>
-      </c>
       <c r="W16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:25">
       <c r="A17" s="18">
         <v>12004</v>
       </c>
@@ -4448,55 +4544,58 @@
         <v>3</v>
       </c>
       <c r="I17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="K17" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="M17" t="s">
-        <v>125</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>48</v>
+      <c r="N17" t="s">
+        <v>131</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="P17" s="15">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="Q17" s="15">
         <v>0</v>
       </c>
-      <c r="R17" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="S17" t="s">
-        <v>49</v>
+      <c r="R17" s="15">
+        <v>0</v>
+      </c>
+      <c r="S17" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="T17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="W17" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="X17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:25">
       <c r="A18" s="18">
         <v>12004</v>
       </c>
@@ -4522,55 +4621,58 @@
         <v>2</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="M18" t="s">
-        <v>130</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>48</v>
+        <v>123</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="N18" t="s">
+        <v>136</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q18" s="15">
-        <v>0</v>
-      </c>
-      <c r="R18" s="23" t="s">
-        <v>133</v>
+        <v>137</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="R18" s="15">
+        <v>0</v>
       </c>
       <c r="S18" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="T18" t="s">
-        <v>49</v>
+        <v>139</v>
+      </c>
+      <c r="T18" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="U18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V18" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:25">
       <c r="A19" s="18">
         <v>12005</v>
       </c>
@@ -4596,55 +4698,58 @@
         <v>5</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="K19" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="N19" t="s">
+        <v>145</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>0</v>
+      </c>
+      <c r="R19" s="15">
+        <v>0</v>
+      </c>
+      <c r="S19" t="s">
+        <v>52</v>
+      </c>
+      <c r="T19" t="s">
+        <v>52</v>
+      </c>
+      <c r="U19" t="s">
+        <v>52</v>
+      </c>
+      <c r="V19" t="s">
         <v>53</v>
       </c>
-      <c r="L19" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="M19" t="s">
-        <v>138</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O19" s="15">
-        <v>0</v>
-      </c>
-      <c r="P19" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="15">
-        <v>0</v>
-      </c>
-      <c r="R19" t="s">
-        <v>49</v>
-      </c>
-      <c r="S19" t="s">
-        <v>49</v>
-      </c>
-      <c r="T19" t="s">
-        <v>49</v>
-      </c>
-      <c r="U19" t="s">
-        <v>50</v>
-      </c>
-      <c r="V19" t="s">
-        <v>49</v>
-      </c>
       <c r="W19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:25">
       <c r="A20" s="18">
         <v>12005</v>
       </c>
@@ -4670,25 +4775,25 @@
         <v>4</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="M20" t="s">
-        <v>141</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O20" s="15">
-        <v>0</v>
+        <v>143</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="N20" t="s">
+        <v>148</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P20" s="15">
         <v>0</v>
@@ -4696,29 +4801,32 @@
       <c r="Q20" s="15">
         <v>0</v>
       </c>
-      <c r="R20" t="s">
-        <v>49</v>
+      <c r="R20" s="15">
+        <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:25">
       <c r="A21" s="18">
         <v>12005</v>
       </c>
@@ -4744,55 +4852,58 @@
         <v>3</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="K21" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="M21" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>48</v>
+      <c r="N21" t="s">
+        <v>151</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="P21" s="15">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="Q21" s="15">
         <v>0</v>
       </c>
-      <c r="R21" t="s">
-        <v>146</v>
+      <c r="R21" s="15">
+        <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="T21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V21" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:25">
       <c r="A22" s="18">
         <v>12005</v>
       </c>
@@ -4818,55 +4929,58 @@
         <v>2</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K22" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="N22" t="s">
+        <v>156</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>0</v>
+      </c>
+      <c r="R22" s="15">
+        <v>0</v>
+      </c>
+      <c r="S22" t="s">
+        <v>52</v>
+      </c>
+      <c r="T22" t="s">
+        <v>52</v>
+      </c>
+      <c r="U22" t="s">
+        <v>52</v>
+      </c>
+      <c r="V22" t="s">
         <v>53</v>
       </c>
-      <c r="L22" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="M22" t="s">
-        <v>149</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O22" s="15">
-        <v>0</v>
-      </c>
-      <c r="P22" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="15">
-        <v>0</v>
-      </c>
-      <c r="R22" t="s">
-        <v>49</v>
-      </c>
-      <c r="S22" t="s">
-        <v>49</v>
-      </c>
-      <c r="T22" t="s">
-        <v>49</v>
-      </c>
-      <c r="U22" t="s">
-        <v>50</v>
-      </c>
-      <c r="V22" t="s">
-        <v>49</v>
-      </c>
       <c r="W22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:25">
       <c r="A23" s="18">
         <v>12006</v>
       </c>
@@ -4892,25 +5006,25 @@
         <v>5</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="M23" t="s">
-        <v>153</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O23" s="15">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="N23" t="s">
+        <v>161</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P23" s="15">
         <v>0</v>
@@ -4918,29 +5032,32 @@
       <c r="Q23" s="15">
         <v>0</v>
       </c>
-      <c r="R23" t="s">
-        <v>49</v>
+      <c r="R23" s="15">
+        <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V23" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:25">
       <c r="A24" s="18">
         <v>12006</v>
       </c>
@@ -4966,55 +5083,58 @@
         <v>4</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="M24" t="s">
-        <v>156</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>48</v>
+        <v>159</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="N24" t="s">
+        <v>164</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="P24" s="15">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="Q24" s="15">
         <v>0</v>
       </c>
-      <c r="R24" t="s">
-        <v>158</v>
+      <c r="R24" s="15">
+        <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="T24" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U24" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="V24" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="W24" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:25">
       <c r="A25" s="18">
         <v>12006</v>
       </c>
@@ -5040,55 +5160,58 @@
         <v>3</v>
       </c>
       <c r="I25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="M25" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="J25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="M25" t="s">
-        <v>162</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>48</v>
+      <c r="N25" t="s">
+        <v>170</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="P25" s="15">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="Q25" s="15">
         <v>0</v>
       </c>
-      <c r="R25" t="s">
-        <v>164</v>
+      <c r="R25" s="15">
+        <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="T25" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U25" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="V25" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="W25" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:25">
       <c r="A26" s="18">
         <v>12006</v>
       </c>
@@ -5114,55 +5237,58 @@
         <v>2</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="M26" t="s">
-        <v>167</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>48</v>
+        <v>159</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="N26" t="s">
+        <v>175</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="R26" t="s">
-        <v>171</v>
+        <v>177</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="S26" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="T26" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="U26" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="V26" t="s">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="W26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:25">
       <c r="A27" s="18">
         <v>12007</v>
       </c>
@@ -5188,25 +5314,25 @@
         <v>5</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="M27" t="s">
-        <v>178</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O27" s="15">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="N27" t="s">
+        <v>187</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P27" s="15">
         <v>0</v>
@@ -5214,29 +5340,32 @@
       <c r="Q27" s="15">
         <v>0</v>
       </c>
-      <c r="R27" t="s">
-        <v>49</v>
+      <c r="R27" s="15">
+        <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T27" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V27" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W27" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:25">
       <c r="A28" s="18">
         <v>12007</v>
       </c>
@@ -5262,55 +5391,58 @@
         <v>4</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="K28" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="N28" t="s">
+        <v>190</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>0</v>
+      </c>
+      <c r="R28" s="15">
+        <v>0</v>
+      </c>
+      <c r="S28" t="s">
+        <v>52</v>
+      </c>
+      <c r="T28" t="s">
+        <v>52</v>
+      </c>
+      <c r="U28" t="s">
+        <v>52</v>
+      </c>
+      <c r="V28" t="s">
         <v>53</v>
       </c>
-      <c r="L28" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="M28" t="s">
-        <v>181</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O28" s="15">
-        <v>0</v>
-      </c>
-      <c r="P28" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="15">
-        <v>0</v>
-      </c>
-      <c r="R28" t="s">
-        <v>49</v>
-      </c>
-      <c r="S28" t="s">
-        <v>49</v>
-      </c>
-      <c r="T28" t="s">
-        <v>49</v>
-      </c>
-      <c r="U28" t="s">
-        <v>50</v>
-      </c>
-      <c r="V28" t="s">
-        <v>49</v>
-      </c>
       <c r="W28" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:25">
       <c r="A29" s="18">
         <v>12007</v>
       </c>
@@ -5336,25 +5468,25 @@
         <v>3</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="M29" t="s">
-        <v>184</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O29" s="15">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="N29" t="s">
+        <v>193</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P29" s="15">
         <v>0</v>
@@ -5362,29 +5494,32 @@
       <c r="Q29" s="15">
         <v>0</v>
       </c>
-      <c r="R29" t="s">
-        <v>49</v>
+      <c r="R29" s="15">
+        <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T29" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V29" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W29" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:25">
       <c r="A30" s="18">
         <v>12007</v>
       </c>
@@ -5410,25 +5545,25 @@
         <v>2</v>
       </c>
       <c r="I30" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="M30" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="K30" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="L30" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="M30" t="s">
-        <v>187</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O30" s="15">
-        <v>0</v>
+      <c r="N30" t="s">
+        <v>196</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P30" s="15">
         <v>0</v>
@@ -5436,29 +5571,32 @@
       <c r="Q30" s="15">
         <v>0</v>
       </c>
-      <c r="R30" t="s">
-        <v>49</v>
+      <c r="R30" s="15">
+        <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V30" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:25">
       <c r="A31" s="18">
         <v>12008</v>
       </c>
@@ -5484,55 +5622,58 @@
         <v>5</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="K31" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="N31" t="s">
+        <v>201</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P31" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="15">
+        <v>0</v>
+      </c>
+      <c r="R31" s="15">
+        <v>0</v>
+      </c>
+      <c r="S31" t="s">
+        <v>52</v>
+      </c>
+      <c r="T31" t="s">
+        <v>52</v>
+      </c>
+      <c r="U31" t="s">
+        <v>52</v>
+      </c>
+      <c r="V31" t="s">
         <v>53</v>
       </c>
-      <c r="L31" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="M31" t="s">
-        <v>191</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O31" s="15">
-        <v>0</v>
-      </c>
-      <c r="P31" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="15">
-        <v>0</v>
-      </c>
-      <c r="R31" t="s">
-        <v>49</v>
-      </c>
-      <c r="S31" t="s">
-        <v>49</v>
-      </c>
-      <c r="T31" t="s">
-        <v>49</v>
-      </c>
-      <c r="U31" t="s">
-        <v>50</v>
-      </c>
-      <c r="V31" t="s">
-        <v>49</v>
-      </c>
       <c r="W31" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:25">
       <c r="A32" s="18">
         <v>12008</v>
       </c>
@@ -5558,25 +5699,25 @@
         <v>4</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="M32" t="s">
-        <v>194</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O32" s="15">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="N32" t="s">
+        <v>204</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P32" s="15">
         <v>0</v>
@@ -5584,29 +5725,32 @@
       <c r="Q32" s="15">
         <v>0</v>
       </c>
-      <c r="R32" t="s">
-        <v>49</v>
+      <c r="R32" s="15">
+        <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T32" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V32" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W32" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:25">
       <c r="A33" s="18">
         <v>12008</v>
       </c>
@@ -5632,55 +5776,58 @@
         <v>3</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="M33" t="s">
-        <v>197</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>48</v>
+        <v>199</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="N33" t="s">
+        <v>207</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="P33" s="15">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="Q33" s="15">
         <v>0</v>
       </c>
-      <c r="R33" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="S33" t="s">
-        <v>49</v>
+      <c r="R33" s="15">
+        <v>0</v>
+      </c>
+      <c r="S33" s="23" t="s">
+        <v>209</v>
       </c>
       <c r="T33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U33" t="s">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="V33" t="s">
-        <v>49</v>
+        <v>210</v>
       </c>
       <c r="W33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:25">
       <c r="A34" s="18">
         <v>12008</v>
       </c>
@@ -5706,55 +5853,58 @@
         <v>2</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="M34" t="s">
-        <v>203</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>48</v>
+        <v>199</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="N34" t="s">
+        <v>213</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="P34" s="15">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="Q34" s="15">
         <v>0</v>
       </c>
-      <c r="R34" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="S34" t="s">
-        <v>49</v>
+      <c r="R34" s="15">
+        <v>0</v>
+      </c>
+      <c r="S34" s="23" t="s">
+        <v>215</v>
       </c>
       <c r="T34" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U34" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="V34" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="W34" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:25">
       <c r="A35" s="18">
         <v>12009</v>
       </c>
@@ -5780,55 +5930,58 @@
         <v>5</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="M35" t="s">
-        <v>209</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>48</v>
+        <v>218</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="N35" t="s">
+        <v>220</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="P35" s="15">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="Q35" s="15">
         <v>0</v>
       </c>
-      <c r="R35" t="s">
-        <v>211</v>
+      <c r="R35" s="15">
+        <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>49</v>
+        <v>222</v>
       </c>
       <c r="T35" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U35" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="V35" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="W35" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:25">
       <c r="A36" s="18">
         <v>12009</v>
       </c>
@@ -5854,55 +6007,58 @@
         <v>4</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L36" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="M36" t="s">
-        <v>214</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>48</v>
+        <v>218</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="N36" t="s">
+        <v>225</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="P36" s="15">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="Q36" s="15">
         <v>0</v>
       </c>
-      <c r="R36" t="s">
-        <v>216</v>
+      <c r="R36" s="15">
+        <v>0</v>
       </c>
       <c r="S36" t="s">
-        <v>49</v>
+        <v>227</v>
       </c>
       <c r="T36" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U36" t="s">
-        <v>217</v>
+        <v>52</v>
       </c>
       <c r="V36" t="s">
-        <v>49</v>
+        <v>228</v>
       </c>
       <c r="W36" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:25">
       <c r="A37" s="18">
         <v>12009</v>
       </c>
@@ -5928,55 +6084,58 @@
         <v>3</v>
       </c>
       <c r="I37" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L37" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="M37" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="K37" s="14" t="s">
+      <c r="N37" t="s">
+        <v>231</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>0</v>
+      </c>
+      <c r="R37" s="15">
+        <v>0</v>
+      </c>
+      <c r="S37" t="s">
+        <v>52</v>
+      </c>
+      <c r="T37" t="s">
+        <v>52</v>
+      </c>
+      <c r="U37" t="s">
+        <v>52</v>
+      </c>
+      <c r="V37" t="s">
         <v>53</v>
       </c>
-      <c r="L37" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="M37" t="s">
-        <v>220</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O37" s="15">
-        <v>0</v>
-      </c>
-      <c r="P37" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="15">
-        <v>0</v>
-      </c>
-      <c r="R37" t="s">
-        <v>49</v>
-      </c>
-      <c r="S37" t="s">
-        <v>49</v>
-      </c>
-      <c r="T37" t="s">
-        <v>49</v>
-      </c>
-      <c r="U37" t="s">
-        <v>50</v>
-      </c>
-      <c r="V37" t="s">
-        <v>49</v>
-      </c>
       <c r="W37" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:25">
       <c r="A38" s="18">
         <v>12009</v>
       </c>
@@ -6002,25 +6161,25 @@
         <v>2</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L38" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="M38" t="s">
-        <v>223</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O38" s="15">
-        <v>0</v>
+        <v>218</v>
+      </c>
+      <c r="M38" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="N38" t="s">
+        <v>234</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P38" s="15">
         <v>0</v>
@@ -6028,29 +6187,32 @@
       <c r="Q38" s="15">
         <v>0</v>
       </c>
-      <c r="R38" t="s">
-        <v>49</v>
+      <c r="R38" s="15">
+        <v>0</v>
       </c>
       <c r="S38" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T38" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V38" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W38" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:25">
       <c r="A39" s="18">
         <v>12010</v>
       </c>
@@ -6076,25 +6238,25 @@
         <v>5</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="M39" t="s">
-        <v>227</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O39" s="15">
-        <v>0</v>
+        <v>237</v>
+      </c>
+      <c r="M39" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="N39" t="s">
+        <v>239</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P39" s="15">
         <v>0</v>
@@ -6102,29 +6264,32 @@
       <c r="Q39" s="15">
         <v>0</v>
       </c>
-      <c r="R39" t="s">
-        <v>49</v>
+      <c r="R39" s="15">
+        <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T39" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V39" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W39" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:25">
       <c r="A40" s="18">
         <v>12010</v>
       </c>
@@ -6150,55 +6315,58 @@
         <v>4</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="K40" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="M40" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="N40" t="s">
+        <v>242</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P40" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="15">
+        <v>0</v>
+      </c>
+      <c r="R40" s="15">
+        <v>0</v>
+      </c>
+      <c r="S40" t="s">
+        <v>52</v>
+      </c>
+      <c r="T40" t="s">
+        <v>52</v>
+      </c>
+      <c r="U40" t="s">
+        <v>52</v>
+      </c>
+      <c r="V40" t="s">
         <v>53</v>
       </c>
-      <c r="L40" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="M40" t="s">
-        <v>230</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O40" s="15">
-        <v>0</v>
-      </c>
-      <c r="P40" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="15">
-        <v>0</v>
-      </c>
-      <c r="R40" t="s">
-        <v>49</v>
-      </c>
-      <c r="S40" t="s">
-        <v>49</v>
-      </c>
-      <c r="T40" t="s">
-        <v>49</v>
-      </c>
-      <c r="U40" t="s">
-        <v>50</v>
-      </c>
-      <c r="V40" t="s">
-        <v>49</v>
-      </c>
       <c r="W40" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:25">
       <c r="A41" s="18">
         <v>12010</v>
       </c>
@@ -6224,25 +6392,25 @@
         <v>3</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="M41" t="s">
-        <v>233</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O41" s="15">
-        <v>0</v>
+        <v>237</v>
+      </c>
+      <c r="M41" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="N41" t="s">
+        <v>245</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P41" s="15">
         <v>0</v>
@@ -6250,29 +6418,32 @@
       <c r="Q41" s="15">
         <v>0</v>
       </c>
-      <c r="R41" t="s">
-        <v>49</v>
+      <c r="R41" s="15">
+        <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T41" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V41" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W41" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:25">
       <c r="A42" s="18">
         <v>12010</v>
       </c>
@@ -6298,25 +6469,25 @@
         <v>2</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="M42" t="s">
-        <v>236</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O42" s="15">
-        <v>0</v>
+        <v>237</v>
+      </c>
+      <c r="M42" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="N42" t="s">
+        <v>248</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P42" s="15">
         <v>0</v>
@@ -6324,29 +6495,32 @@
       <c r="Q42" s="15">
         <v>0</v>
       </c>
-      <c r="R42" t="s">
-        <v>49</v>
+      <c r="R42" s="15">
+        <v>0</v>
       </c>
       <c r="S42" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T42" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U42" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V42" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W42" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:25">
       <c r="A43" s="18">
         <v>12011</v>
       </c>
@@ -6372,55 +6546,58 @@
         <v>5</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="K43" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L43" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="M43" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="N43" t="s">
+        <v>253</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P43" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="15">
+        <v>0</v>
+      </c>
+      <c r="R43" s="15">
+        <v>0</v>
+      </c>
+      <c r="S43" t="s">
+        <v>52</v>
+      </c>
+      <c r="T43" t="s">
+        <v>52</v>
+      </c>
+      <c r="U43" t="s">
+        <v>52</v>
+      </c>
+      <c r="V43" t="s">
         <v>53</v>
       </c>
-      <c r="L43" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="M43" t="s">
-        <v>240</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O43" s="15">
-        <v>0</v>
-      </c>
-      <c r="P43" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="15">
-        <v>0</v>
-      </c>
-      <c r="R43" t="s">
-        <v>49</v>
-      </c>
-      <c r="S43" t="s">
-        <v>49</v>
-      </c>
-      <c r="T43" t="s">
-        <v>49</v>
-      </c>
-      <c r="U43" t="s">
-        <v>50</v>
-      </c>
-      <c r="V43" t="s">
-        <v>49</v>
-      </c>
       <c r="W43" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:25">
       <c r="A44" s="18">
         <v>12011</v>
       </c>
@@ -6446,25 +6623,25 @@
         <v>4</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L44" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="M44" t="s">
-        <v>243</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O44" s="15">
-        <v>0</v>
+        <v>251</v>
+      </c>
+      <c r="M44" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="N44" t="s">
+        <v>256</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P44" s="15">
         <v>0</v>
@@ -6472,29 +6649,32 @@
       <c r="Q44" s="15">
         <v>0</v>
       </c>
-      <c r="R44" t="s">
-        <v>49</v>
+      <c r="R44" s="15">
+        <v>0</v>
       </c>
       <c r="S44" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T44" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V44" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W44" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:25">
       <c r="A45" s="18">
         <v>12011</v>
       </c>
@@ -6520,25 +6700,25 @@
         <v>3</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L45" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="M45" t="s">
-        <v>246</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O45" s="15">
-        <v>0</v>
+        <v>251</v>
+      </c>
+      <c r="M45" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="N45" t="s">
+        <v>259</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P45" s="15">
         <v>0</v>
@@ -6546,29 +6726,32 @@
       <c r="Q45" s="15">
         <v>0</v>
       </c>
-      <c r="R45" t="s">
-        <v>49</v>
+      <c r="R45" s="15">
+        <v>0</v>
       </c>
       <c r="S45" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T45" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U45" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V45" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W45" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:25">
       <c r="A46" s="18">
         <v>12011</v>
       </c>
@@ -6594,55 +6777,58 @@
         <v>2</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="K46" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="M46" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="N46" t="s">
+        <v>262</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P46" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="15">
+        <v>0</v>
+      </c>
+      <c r="R46" s="15">
+        <v>0</v>
+      </c>
+      <c r="S46" t="s">
+        <v>52</v>
+      </c>
+      <c r="T46" t="s">
+        <v>52</v>
+      </c>
+      <c r="U46" t="s">
+        <v>52</v>
+      </c>
+      <c r="V46" t="s">
         <v>53</v>
       </c>
-      <c r="L46" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="M46" t="s">
-        <v>249</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O46" s="15">
-        <v>0</v>
-      </c>
-      <c r="P46" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="15">
-        <v>0</v>
-      </c>
-      <c r="R46" t="s">
-        <v>49</v>
-      </c>
-      <c r="S46" t="s">
-        <v>49</v>
-      </c>
-      <c r="T46" t="s">
-        <v>49</v>
-      </c>
-      <c r="U46" t="s">
-        <v>50</v>
-      </c>
-      <c r="V46" t="s">
-        <v>49</v>
-      </c>
       <c r="W46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:25">
       <c r="A47" s="18">
         <v>12012</v>
       </c>
@@ -6668,55 +6854,58 @@
         <v>5</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="K47" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L47" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="M47" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="N47" t="s">
+        <v>267</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P47" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>0</v>
+      </c>
+      <c r="R47" s="15">
+        <v>0</v>
+      </c>
+      <c r="S47" t="s">
+        <v>52</v>
+      </c>
+      <c r="T47" t="s">
+        <v>52</v>
+      </c>
+      <c r="U47" t="s">
+        <v>52</v>
+      </c>
+      <c r="V47" t="s">
         <v>53</v>
       </c>
-      <c r="L47" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="M47" t="s">
-        <v>253</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O47" s="15">
-        <v>0</v>
-      </c>
-      <c r="P47" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="15">
-        <v>0</v>
-      </c>
-      <c r="R47" t="s">
-        <v>49</v>
-      </c>
-      <c r="S47" t="s">
-        <v>49</v>
-      </c>
-      <c r="T47" t="s">
-        <v>49</v>
-      </c>
-      <c r="U47" t="s">
-        <v>50</v>
-      </c>
-      <c r="V47" t="s">
-        <v>49</v>
-      </c>
       <c r="W47" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:25">
       <c r="A48" s="18">
         <v>12012</v>
       </c>
@@ -6742,25 +6931,25 @@
         <v>4</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L48" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="M48" t="s">
-        <v>256</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O48" s="15">
-        <v>0</v>
+        <v>265</v>
+      </c>
+      <c r="M48" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="N48" t="s">
+        <v>270</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P48" s="15">
         <v>0</v>
@@ -6768,29 +6957,32 @@
       <c r="Q48" s="15">
         <v>0</v>
       </c>
-      <c r="R48" t="s">
-        <v>49</v>
+      <c r="R48" s="15">
+        <v>0</v>
       </c>
       <c r="S48" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T48" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U48" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V48" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W48" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:25">
       <c r="A49" s="18">
         <v>12012</v>
       </c>
@@ -6816,25 +7008,25 @@
         <v>3</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L49" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="M49" t="s">
-        <v>259</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O49" s="15">
-        <v>0</v>
+        <v>265</v>
+      </c>
+      <c r="M49" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="N49" t="s">
+        <v>273</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P49" s="15">
         <v>0</v>
@@ -6842,29 +7034,32 @@
       <c r="Q49" s="15">
         <v>0</v>
       </c>
-      <c r="R49" t="s">
-        <v>49</v>
+      <c r="R49" s="15">
+        <v>0</v>
       </c>
       <c r="S49" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T49" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U49" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V49" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W49" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:25">
       <c r="A50" s="18">
         <v>12012</v>
       </c>
@@ -6890,55 +7085,58 @@
         <v>2</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="K50" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="M50" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="N50" t="s">
+        <v>276</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P50" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="15">
+        <v>0</v>
+      </c>
+      <c r="R50" s="15">
+        <v>0</v>
+      </c>
+      <c r="S50" t="s">
+        <v>52</v>
+      </c>
+      <c r="T50" t="s">
+        <v>52</v>
+      </c>
+      <c r="U50" t="s">
+        <v>52</v>
+      </c>
+      <c r="V50" t="s">
         <v>53</v>
       </c>
-      <c r="L50" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="M50" t="s">
-        <v>262</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O50" s="15">
-        <v>0</v>
-      </c>
-      <c r="P50" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="15">
-        <v>0</v>
-      </c>
-      <c r="R50" t="s">
-        <v>49</v>
-      </c>
-      <c r="S50" t="s">
-        <v>49</v>
-      </c>
-      <c r="T50" t="s">
-        <v>49</v>
-      </c>
-      <c r="U50" t="s">
-        <v>50</v>
-      </c>
-      <c r="V50" t="s">
-        <v>49</v>
-      </c>
       <c r="W50" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:25">
       <c r="A51" s="18">
         <v>12013</v>
       </c>
@@ -6964,25 +7162,25 @@
         <v>5</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L51" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="M51" t="s">
-        <v>266</v>
-      </c>
-      <c r="N51" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O51" s="15">
-        <v>0</v>
+        <v>279</v>
+      </c>
+      <c r="M51" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="N51" t="s">
+        <v>281</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P51" s="15">
         <v>0</v>
@@ -6990,29 +7188,32 @@
       <c r="Q51" s="15">
         <v>0</v>
       </c>
-      <c r="R51" t="s">
-        <v>49</v>
+      <c r="R51" s="15">
+        <v>0</v>
       </c>
       <c r="S51" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T51" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V51" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W51" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:25">
       <c r="A52" s="18">
         <v>12013</v>
       </c>
@@ -7038,25 +7239,25 @@
         <v>4</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L52" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="M52" t="s">
-        <v>269</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O52" s="15">
-        <v>0</v>
+        <v>279</v>
+      </c>
+      <c r="M52" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="N52" t="s">
+        <v>284</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P52" s="15">
         <v>0</v>
@@ -7064,29 +7265,32 @@
       <c r="Q52" s="15">
         <v>0</v>
       </c>
-      <c r="R52" t="s">
-        <v>49</v>
+      <c r="R52" s="15">
+        <v>0</v>
       </c>
       <c r="S52" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T52" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V52" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W52" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X52" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:25">
       <c r="A53" s="18">
         <v>12013</v>
       </c>
@@ -7112,55 +7316,58 @@
         <v>3</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="K53" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L53" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="M53" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="N53" t="s">
+        <v>287</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P53" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="15">
+        <v>0</v>
+      </c>
+      <c r="R53" s="15">
+        <v>0</v>
+      </c>
+      <c r="S53" t="s">
+        <v>52</v>
+      </c>
+      <c r="T53" t="s">
+        <v>52</v>
+      </c>
+      <c r="U53" t="s">
+        <v>52</v>
+      </c>
+      <c r="V53" t="s">
         <v>53</v>
       </c>
-      <c r="L53" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="M53" t="s">
-        <v>272</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O53" s="15">
-        <v>0</v>
-      </c>
-      <c r="P53" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="15">
-        <v>0</v>
-      </c>
-      <c r="R53" t="s">
-        <v>49</v>
-      </c>
-      <c r="S53" t="s">
-        <v>49</v>
-      </c>
-      <c r="T53" t="s">
-        <v>49</v>
-      </c>
-      <c r="U53" t="s">
-        <v>50</v>
-      </c>
-      <c r="V53" t="s">
-        <v>49</v>
-      </c>
       <c r="W53" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X53" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:25">
       <c r="A54" s="18">
         <v>12013</v>
       </c>
@@ -7186,55 +7393,58 @@
         <v>2</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="K54" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L54" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="M54" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="N54" t="s">
+        <v>290</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P54" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="15">
+        <v>0</v>
+      </c>
+      <c r="R54" s="15">
+        <v>0</v>
+      </c>
+      <c r="S54" t="s">
+        <v>52</v>
+      </c>
+      <c r="T54" t="s">
+        <v>52</v>
+      </c>
+      <c r="U54" t="s">
+        <v>52</v>
+      </c>
+      <c r="V54" t="s">
         <v>53</v>
       </c>
-      <c r="L54" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="M54" t="s">
-        <v>275</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O54" s="15">
-        <v>0</v>
-      </c>
-      <c r="P54" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="15">
-        <v>0</v>
-      </c>
-      <c r="R54" t="s">
-        <v>49</v>
-      </c>
-      <c r="S54" t="s">
-        <v>49</v>
-      </c>
-      <c r="T54" t="s">
-        <v>49</v>
-      </c>
-      <c r="U54" t="s">
-        <v>50</v>
-      </c>
-      <c r="V54" t="s">
-        <v>49</v>
-      </c>
       <c r="W54" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X54" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:25">
       <c r="A55" s="18">
         <v>12014</v>
       </c>
@@ -7260,25 +7470,25 @@
         <v>5</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L55" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="M55" t="s">
-        <v>279</v>
-      </c>
-      <c r="N55" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O55" s="15">
-        <v>0</v>
+        <v>293</v>
+      </c>
+      <c r="M55" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="N55" t="s">
+        <v>295</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P55" s="15">
         <v>0</v>
@@ -7286,29 +7496,32 @@
       <c r="Q55" s="15">
         <v>0</v>
       </c>
-      <c r="R55" t="s">
-        <v>49</v>
+      <c r="R55" s="15">
+        <v>0</v>
       </c>
       <c r="S55" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T55" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U55" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V55" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W55" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X55" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:25">
       <c r="A56" s="18">
         <v>12014</v>
       </c>
@@ -7334,25 +7547,25 @@
         <v>4</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L56" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="M56" t="s">
-        <v>282</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O56" s="15">
-        <v>0</v>
+        <v>293</v>
+      </c>
+      <c r="M56" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="N56" t="s">
+        <v>298</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P56" s="15">
         <v>0</v>
@@ -7360,29 +7573,32 @@
       <c r="Q56" s="15">
         <v>0</v>
       </c>
-      <c r="R56" t="s">
-        <v>49</v>
+      <c r="R56" s="15">
+        <v>0</v>
       </c>
       <c r="S56" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T56" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U56" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V56" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W56" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X56" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:25">
       <c r="A57" s="18">
         <v>12014</v>
       </c>
@@ -7408,55 +7624,58 @@
         <v>3</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L57" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="M57" t="s">
-        <v>285</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>48</v>
+        <v>293</v>
+      </c>
+      <c r="M57" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="N57" t="s">
+        <v>301</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="P57" s="15">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="Q57" s="15">
         <v>0</v>
       </c>
-      <c r="R57" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="S57" t="s">
-        <v>49</v>
+      <c r="R57" s="15">
+        <v>0</v>
+      </c>
+      <c r="S57" s="23" t="s">
+        <v>303</v>
       </c>
       <c r="T57" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U57" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="V57" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="W57" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X57" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="1:24">
+        <v>52</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="1:25">
       <c r="A58" s="18">
         <v>12014</v>
       </c>
@@ -7482,25 +7701,25 @@
         <v>2</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L58" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="M58" t="s">
-        <v>290</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O58" s="15">
-        <v>0</v>
+        <v>293</v>
+      </c>
+      <c r="M58" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="N58" t="s">
+        <v>306</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P58" s="15">
         <v>0</v>
@@ -7508,26 +7727,29 @@
       <c r="Q58" s="15">
         <v>0</v>
       </c>
-      <c r="R58" t="s">
-        <v>49</v>
+      <c r="R58" s="15">
+        <v>0</v>
       </c>
       <c r="S58" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T58" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U58" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V58" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W58" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X58" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="9:9">
@@ -7537,7 +7759,7 @@
       <c r="I63" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:X58">
+  <autoFilter ref="A2:Y58">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7551,21 +7773,21 @@
   <sheetPr/>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="22.1296296296296" customWidth="1"/>
+    <col min="1" max="2" width="22.1333333333333" customWidth="1"/>
     <col min="4" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="18.25" customWidth="1"/>
-    <col min="7" max="7" width="19.1296296296296" customWidth="1"/>
-    <col min="8" max="8" width="16.8796296296296" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1333333333333" customWidth="1"/>
+    <col min="8" max="8" width="16.8833333333333" style="1" customWidth="1"/>
     <col min="9" max="9" width="26.75" customWidth="1"/>
     <col min="10" max="10" width="28.5" customWidth="1"/>
-    <col min="11" max="11" width="21.3796296296296" customWidth="1"/>
-    <col min="12" max="12" width="20.8796296296296" customWidth="1"/>
+    <col min="11" max="11" width="21.3833333333333" customWidth="1"/>
+    <col min="12" max="12" width="20.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -7573,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -7594,42 +7816,42 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7637,7 +7859,7 @@
         <v>22001</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -7649,19 +7871,19 @@
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="J3" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7669,7 +7891,7 @@
         <v>22001</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -7681,19 +7903,19 @@
         <v>6</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="J4" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7701,7 +7923,7 @@
         <v>22001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
@@ -7713,19 +7935,19 @@
         <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="J5" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7733,7 +7955,7 @@
         <v>22001</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="C6" s="3">
         <v>4</v>
@@ -7745,19 +7967,19 @@
         <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="J6" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7765,7 +7987,7 @@
         <v>22002</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -7777,19 +7999,19 @@
         <v>3</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="J7" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7797,7 +8019,7 @@
         <v>22002</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -7809,19 +8031,19 @@
         <v>9</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="J8" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7829,7 +8051,7 @@
         <v>22002</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
@@ -7841,19 +8063,19 @@
         <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="J9" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7861,7 +8083,7 @@
         <v>22002</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
@@ -7873,19 +8095,19 @@
         <v>25</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="J10" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7893,7 +8115,7 @@
         <v>22003</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -7905,19 +8127,19 @@
         <v>15</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="J11" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7925,7 +8147,7 @@
         <v>22003</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -7937,19 +8159,19 @@
         <v>10</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="J12" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7957,7 +8179,7 @@
         <v>22003</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -7969,19 +8191,19 @@
         <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="J13" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7989,7 +8211,7 @@
         <v>22003</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="C14" s="3">
         <v>4</v>
@@ -8001,19 +8223,19 @@
         <v>25</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="J14" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -8021,7 +8243,7 @@
         <v>22004</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -8033,19 +8255,19 @@
         <v>3</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="J15" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -8053,7 +8275,7 @@
         <v>22004</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -8065,19 +8287,19 @@
         <v>9</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I16" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="J16" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -8085,7 +8307,7 @@
         <v>22004</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
@@ -8097,19 +8319,19 @@
         <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="J17" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -8117,7 +8339,7 @@
         <v>22004</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="C18" s="3">
         <v>4</v>
@@ -8129,19 +8351,19 @@
         <v>25</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="J18" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -8149,7 +8371,7 @@
         <v>22005</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -8161,19 +8383,19 @@
         <v>6</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I19" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="J19" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -8181,7 +8403,7 @@
         <v>22005</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
@@ -8193,19 +8415,19 @@
         <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I20" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J20" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -8213,7 +8435,7 @@
         <v>22005</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
@@ -8225,19 +8447,19 @@
         <v>20</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="J21" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -8245,7 +8467,7 @@
         <v>22005</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="C22" s="3">
         <v>4</v>
@@ -8257,19 +8479,19 @@
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I22" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="J22" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -8277,7 +8499,7 @@
         <v>22006</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -8289,19 +8511,19 @@
         <v>1</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I23" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="J23" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -8309,7 +8531,7 @@
         <v>22006</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
@@ -8321,19 +8543,19 @@
         <v>8</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="J24" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -8341,7 +8563,7 @@
         <v>22006</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
@@ -8353,19 +8575,19 @@
         <v>14</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I25" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="J25" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -8373,7 +8595,7 @@
         <v>22006</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="C26" s="3">
         <v>4</v>
@@ -8385,19 +8607,19 @@
         <v>20</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I26" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="J26" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -8405,7 +8627,7 @@
         <v>22007</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -8417,19 +8639,19 @@
         <v>1</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="J27" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -8437,7 +8659,7 @@
         <v>22007</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
@@ -8449,19 +8671,19 @@
         <v>9</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I28" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="J28" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -8469,7 +8691,7 @@
         <v>22007</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="C29" s="3">
         <v>3</v>
@@ -8481,19 +8703,19 @@
         <v>15</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I29" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="J29" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -8501,7 +8723,7 @@
         <v>22007</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="C30" s="3">
         <v>4</v>
@@ -8513,19 +8735,19 @@
         <v>25</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="J30" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -8533,7 +8755,7 @@
         <v>22008</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -8545,19 +8767,19 @@
         <v>1</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I31" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="J31" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -8565,7 +8787,7 @@
         <v>22008</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
@@ -8577,19 +8799,19 @@
         <v>15</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I32" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="J32" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -8597,7 +8819,7 @@
         <v>22008</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="C33" s="3">
         <v>3</v>
@@ -8609,19 +8831,19 @@
         <v>21</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="J33" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -8629,7 +8851,7 @@
         <v>22008</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="C34" s="3">
         <v>4</v>
@@ -8641,19 +8863,19 @@
         <v>28</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I34" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="J34" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -8661,7 +8883,7 @@
         <v>22009</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
@@ -8673,19 +8895,19 @@
         <v>0</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I35" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="J35" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -8693,7 +8915,7 @@
         <v>22009</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="C36" s="3">
         <v>2</v>
@@ -8705,19 +8927,19 @@
         <v>6</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I36" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="J36" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -8725,7 +8947,7 @@
         <v>22009</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="C37" s="3">
         <v>3</v>
@@ -8737,19 +8959,19 @@
         <v>12</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="J37" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -8757,7 +8979,7 @@
         <v>22009</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="C38" s="3">
         <v>4</v>
@@ -8769,19 +8991,19 @@
         <v>24</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I38" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="J38" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -8789,7 +9011,7 @@
         <v>22010</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
@@ -8801,19 +9023,19 @@
         <v>0</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I39">
         <v>-1</v>
       </c>
       <c r="J39" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -8821,7 +9043,7 @@
         <v>22010</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="C40" s="3">
         <v>2</v>
@@ -8833,19 +9055,19 @@
         <v>6</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I40">
         <v>-1</v>
       </c>
       <c r="J40" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -8853,7 +9075,7 @@
         <v>22010</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="C41" s="3">
         <v>3</v>
@@ -8865,19 +9087,19 @@
         <v>12</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I41">
         <v>-1</v>
       </c>
       <c r="J41" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -8885,7 +9107,7 @@
         <v>22010</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="C42" s="3">
         <v>4</v>
@@ -8897,19 +9119,19 @@
         <v>24</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I42">
         <v>-1</v>
       </c>
       <c r="J42" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:10">
@@ -8917,7 +9139,7 @@
         <v>22011</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
@@ -8929,19 +9151,19 @@
         <v>0</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I43">
         <v>-1</v>
       </c>
       <c r="J43" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:10">
@@ -8949,7 +9171,7 @@
         <v>22011</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="C44" s="3">
         <v>2</v>
@@ -8961,19 +9183,19 @@
         <v>6</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I44">
         <v>-1</v>
       </c>
       <c r="J44" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:10">
@@ -8981,7 +9203,7 @@
         <v>22011</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="C45" s="3">
         <v>3</v>
@@ -8993,19 +9215,19 @@
         <v>12</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I45">
         <v>-1</v>
       </c>
       <c r="J45" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:10">
@@ -9013,7 +9235,7 @@
         <v>22011</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="C46" s="3">
         <v>4</v>
@@ -9025,19 +9247,19 @@
         <v>24</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I46">
         <v>-1</v>
       </c>
       <c r="J46" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:10">
@@ -9045,7 +9267,7 @@
         <v>22012</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
@@ -9057,19 +9279,19 @@
         <v>0</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I47">
         <v>-1</v>
       </c>
       <c r="J47" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:10">
@@ -9077,7 +9299,7 @@
         <v>22012</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="C48" s="3">
         <v>2</v>
@@ -9089,19 +9311,19 @@
         <v>6</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I48">
         <v>-1</v>
       </c>
       <c r="J48" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:10">
@@ -9109,7 +9331,7 @@
         <v>22012</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="C49" s="3">
         <v>3</v>
@@ -9121,19 +9343,19 @@
         <v>12</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I49">
         <v>-1</v>
       </c>
       <c r="J49" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:10">
@@ -9141,7 +9363,7 @@
         <v>22012</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="C50" s="3">
         <v>4</v>
@@ -9153,19 +9375,19 @@
         <v>24</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I50">
         <v>-1</v>
       </c>
       <c r="J50" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:10">
@@ -9173,7 +9395,7 @@
         <v>22013</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
@@ -9185,19 +9407,19 @@
         <v>0</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I51">
         <v>-1</v>
       </c>
       <c r="J51" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:10">
@@ -9205,7 +9427,7 @@
         <v>22013</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="C52" s="3">
         <v>2</v>
@@ -9217,19 +9439,19 @@
         <v>6</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I52">
         <v>-1</v>
       </c>
       <c r="J52" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="53" customFormat="1" spans="1:10">
@@ -9237,7 +9459,7 @@
         <v>22013</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="C53" s="3">
         <v>3</v>
@@ -9249,19 +9471,19 @@
         <v>12</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I53">
         <v>-1</v>
       </c>
       <c r="J53" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="1:10">
@@ -9269,7 +9491,7 @@
         <v>22013</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="C54" s="3">
         <v>4</v>
@@ -9281,19 +9503,19 @@
         <v>24</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I54">
         <v>-1</v>
       </c>
       <c r="J54" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:10">
@@ -9301,7 +9523,7 @@
         <v>22014</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
@@ -9313,19 +9535,19 @@
         <v>0</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I55">
         <v>-1</v>
       </c>
       <c r="J55" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:10">
@@ -9333,7 +9555,7 @@
         <v>22014</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="C56" s="3">
         <v>2</v>
@@ -9345,19 +9567,19 @@
         <v>6</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I56">
         <v>-1</v>
       </c>
       <c r="J56" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="1:10">
@@ -9365,7 +9587,7 @@
         <v>22014</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="C57" s="3">
         <v>3</v>
@@ -9377,19 +9599,19 @@
         <v>12</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I57">
         <v>-1</v>
       </c>
       <c r="J57" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
     </row>
     <row r="58" customFormat="1" spans="1:10">
@@ -9397,7 +9619,7 @@
         <v>22014</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="C58" s="3">
         <v>4</v>
@@ -9409,19 +9631,19 @@
         <v>24</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I58">
         <v>-1</v>
       </c>
       <c r="J58" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -9443,14 +9665,14 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.1296296296296" customWidth="1"/>
-    <col min="5" max="5" width="19.6296296296296" customWidth="1"/>
-    <col min="6" max="6" width="17.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="18.1333333333333" customWidth="1"/>
+    <col min="5" max="5" width="19.6333333333333" customWidth="1"/>
+    <col min="6" max="6" width="17.8833333333333" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="16.8796296296296" customWidth="1"/>
+    <col min="8" max="8" width="16.8833333333333" customWidth="1"/>
     <col min="9" max="9" width="10.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="22.75" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -9462,7 +9684,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -9474,7 +9696,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>8</v>
@@ -9486,51 +9708,51 @@
         <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -9538,7 +9760,7 @@
         <v>32001</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -9553,19 +9775,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="K3" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="L3" s="15">
         <v>12</v>
@@ -9576,7 +9798,7 @@
         <v>32001</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -9591,19 +9813,19 @@
         <v>0</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="K4" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="L4" s="15">
         <v>24</v>
@@ -9614,7 +9836,7 @@
         <v>32001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
@@ -9629,19 +9851,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J5" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="K5" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="L5" s="15">
         <v>40</v>
@@ -9652,7 +9874,7 @@
         <v>32001</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="C6" s="3">
         <v>4</v>
@@ -9667,19 +9889,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J6" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="K6" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="L6" s="15">
         <v>60</v>
@@ -9690,7 +9912,7 @@
         <v>32002</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -9705,19 +9927,19 @@
         <v>0</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="K7" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="L7" s="15">
         <v>2</v>
@@ -9728,7 +9950,7 @@
         <v>32002</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -9743,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="K8" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="L8" s="15">
         <v>5</v>
@@ -9766,7 +9988,7 @@
         <v>32002</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
@@ -9781,19 +10003,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="K9" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="L9" s="15">
         <v>10</v>
@@ -9804,7 +10026,7 @@
         <v>32002</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
@@ -9819,19 +10041,19 @@
         <v>0</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="K10" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="L10" s="15">
         <v>20</v>
@@ -9842,7 +10064,7 @@
         <v>32003</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -9857,19 +10079,19 @@
         <v>2</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J11" t="s">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="K11" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="L11" s="15">
         <v>10</v>
@@ -9880,7 +10102,7 @@
         <v>32003</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -9895,19 +10117,19 @@
         <v>2</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J12" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="K12" t="s">
-        <v>532</v>
+        <v>548</v>
       </c>
       <c r="L12" s="15">
         <v>15</v>
@@ -9918,7 +10140,7 @@
         <v>32003</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -9933,19 +10155,19 @@
         <v>2</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J13" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="K13" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="L13" s="15">
         <v>30</v>
@@ -9956,7 +10178,7 @@
         <v>32003</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="C14" s="3">
         <v>4</v>
@@ -9971,19 +10193,19 @@
         <v>2</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J14" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="K14" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="L14" s="15">
         <v>50</v>
@@ -9994,7 +10216,7 @@
         <v>32004</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -10009,19 +10231,19 @@
         <v>2</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="K15" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="L15" s="15">
         <v>5</v>
@@ -10032,7 +10254,7 @@
         <v>32004</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -10047,19 +10269,19 @@
         <v>2</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J16" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="K16" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="L16" s="15">
         <v>10</v>
@@ -10070,7 +10292,7 @@
         <v>32004</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
@@ -10085,19 +10307,19 @@
         <v>2</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J17" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="K17" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="L17" s="15">
         <v>20</v>
@@ -10108,7 +10330,7 @@
         <v>32004</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="C18" s="3">
         <v>4</v>
@@ -10123,19 +10345,19 @@
         <v>2</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J18" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="K18" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="L18" s="15">
         <v>30</v>
@@ -10146,7 +10368,7 @@
         <v>32005</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -10161,19 +10383,19 @@
         <v>0</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J19" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
       <c r="K19" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="L19" s="15">
         <v>2</v>
@@ -10184,7 +10406,7 @@
         <v>32005</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>568</v>
+        <v>584</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
@@ -10199,19 +10421,19 @@
         <v>0</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J20" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
       <c r="K20" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="L20" s="15">
         <v>5</v>
@@ -10222,7 +10444,7 @@
         <v>32005</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
@@ -10237,19 +10459,19 @@
         <v>0</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J21" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="K21" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="L21" s="15">
         <v>10</v>
@@ -10260,7 +10482,7 @@
         <v>32005</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="C22" s="3">
         <v>4</v>
@@ -10275,19 +10497,19 @@
         <v>0</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J22" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
       <c r="K22" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="L22" s="15">
         <v>20</v>
@@ -10298,7 +10520,7 @@
         <v>32006</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -10313,19 +10535,19 @@
         <v>2</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="L23" s="15">
         <v>5</v>
@@ -10336,7 +10558,7 @@
         <v>32006</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
@@ -10351,19 +10573,19 @@
         <v>2</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="L24" s="15">
         <v>10</v>
@@ -10374,7 +10596,7 @@
         <v>32006</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
@@ -10389,19 +10611,19 @@
         <v>2</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="L25" s="15">
         <v>20</v>
@@ -10412,7 +10634,7 @@
         <v>32006</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
       <c r="C26" s="3">
         <v>4</v>
@@ -10427,19 +10649,19 @@
         <v>2</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="L26" s="15">
         <v>30</v>
@@ -10450,7 +10672,7 @@
         <v>32007</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -10465,19 +10687,19 @@
         <v>0</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J27" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="K27" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="L27" s="15">
         <v>5</v>
@@ -10488,7 +10710,7 @@
         <v>32007</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
@@ -10503,19 +10725,19 @@
         <v>0</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J28" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="K28" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
       <c r="L28" s="15">
         <v>10</v>
@@ -10526,7 +10748,7 @@
         <v>32007</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
       <c r="C29" s="3">
         <v>3</v>
@@ -10541,19 +10763,19 @@
         <v>0</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J29" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="K29" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
       <c r="L29" s="15">
         <v>20</v>
@@ -10564,7 +10786,7 @@
         <v>32007</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>618</v>
+        <v>634</v>
       </c>
       <c r="C30" s="3">
         <v>4</v>
@@ -10579,19 +10801,19 @@
         <v>0</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J30" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="K30" t="s">
-        <v>622</v>
+        <v>638</v>
       </c>
       <c r="L30" s="15">
         <v>30</v>
@@ -10602,7 +10824,7 @@
         <v>32008</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -10617,19 +10839,19 @@
         <v>0</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J31" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="K31" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="L31" s="15">
         <v>5</v>
@@ -10640,7 +10862,7 @@
         <v>32008</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
@@ -10655,19 +10877,19 @@
         <v>0</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J32" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="K32" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="L32" s="15">
         <v>10</v>
@@ -10678,7 +10900,7 @@
         <v>32008</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="C33" s="3">
         <v>3</v>
@@ -10693,19 +10915,19 @@
         <v>0</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J33" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="K33" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="L33" s="15">
         <v>20</v>
@@ -10716,7 +10938,7 @@
         <v>32008</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="C34" s="3">
         <v>4</v>
@@ -10731,19 +10953,19 @@
         <v>0</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="K34" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
       <c r="L34" s="15">
         <v>30</v>

--- a/project/OtherAssets/Excle/A_Default/建筑.xlsx
+++ b/project/OtherAssets/Excle/A_Default/建筑.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16260" windowHeight="11310"/>
+    <workbookView windowWidth="18468" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stall" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="675">
   <si>
     <t>ID</t>
   </si>
@@ -1509,6 +1509,54 @@
   </si>
   <si>
     <t>灶台</t>
+  </si>
+  <si>
+    <t>cesuomen1</t>
+  </si>
+  <si>
+    <t>cesuomen2</t>
+  </si>
+  <si>
+    <t>cesuomen3</t>
+  </si>
+  <si>
+    <t>cesuomen4</t>
+  </si>
+  <si>
+    <t>jingzi1</t>
+  </si>
+  <si>
+    <t>jingzi2</t>
+  </si>
+  <si>
+    <t>jingzi3</t>
+  </si>
+  <si>
+    <t>jingzi4</t>
+  </si>
+  <si>
+    <t>xishoupeng1</t>
+  </si>
+  <si>
+    <t>xishoupeng2</t>
+  </si>
+  <si>
+    <t>xishoupeng3</t>
+  </si>
+  <si>
+    <t>xishoupeng4</t>
+  </si>
+  <si>
+    <t>diban1</t>
+  </si>
+  <si>
+    <t>diban2</t>
+  </si>
+  <si>
+    <t>diban3</t>
+  </si>
+  <si>
+    <t>diban4</t>
   </si>
   <si>
     <t>装饰容纳人数</t>
@@ -2208,10 +2256,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2223,14 +2271,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2238,38 +2294,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2290,30 +2337,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2337,32 +2401,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2393,6 +2441,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2405,25 +2555,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2435,13 +2573,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2453,127 +2615,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2602,22 +2650,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2646,32 +2704,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2693,9 +2739,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2705,10 +2753,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2717,19 +2765,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2738,112 +2786,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3253,34 +3301,34 @@
   <sheetPr/>
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="M55" sqref="M55:M58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.5" style="17" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="3" customWidth="1"/>
-    <col min="3" max="5" width="14.6333333333333" style="3" customWidth="1"/>
+    <col min="3" max="5" width="14.6296296296296" style="3" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.6333333333333" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.3833333333333" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.6296296296296" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.3796296296296" style="3" customWidth="1"/>
     <col min="9" max="9" width="15" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.1333333333333" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.1333333333333" style="11" customWidth="1"/>
-    <col min="12" max="13" width="20.3833333333333" style="11" customWidth="1"/>
-    <col min="14" max="14" width="18.6333333333333" style="3" customWidth="1"/>
-    <col min="15" max="15" width="17.1333333333333" style="3" customWidth="1"/>
-    <col min="16" max="16" width="25.3833333333333" style="3" customWidth="1"/>
-    <col min="17" max="17" width="31.3833333333333" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.1296296296296" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.1296296296296" style="11" customWidth="1"/>
+    <col min="12" max="13" width="20.3796296296296" style="11" customWidth="1"/>
+    <col min="14" max="14" width="18.6296296296296" style="3" customWidth="1"/>
+    <col min="15" max="15" width="17.1296296296296" style="3" customWidth="1"/>
+    <col min="16" max="16" width="25.3796296296296" style="3" customWidth="1"/>
+    <col min="17" max="17" width="31.3796296296296" style="3" customWidth="1"/>
     <col min="18" max="18" width="29.75" style="3" customWidth="1"/>
-    <col min="19" max="19" width="20.3833333333333" style="3" customWidth="1"/>
-    <col min="20" max="20" width="21.1333333333333" style="3" customWidth="1"/>
-    <col min="21" max="21" width="17.1333333333333" style="3" customWidth="1"/>
+    <col min="19" max="19" width="20.3796296296296" style="3" customWidth="1"/>
+    <col min="20" max="20" width="21.1296296296296" style="3" customWidth="1"/>
+    <col min="21" max="21" width="17.1296296296296" style="3" customWidth="1"/>
     <col min="22" max="22" width="14" style="3" customWidth="1"/>
-    <col min="23" max="23" width="15.8833333333333" style="3" customWidth="1"/>
+    <col min="23" max="23" width="15.8796296296296" style="3" customWidth="1"/>
     <col min="24" max="24" width="17" style="3" customWidth="1"/>
     <col min="25" max="25" width="14" style="3" customWidth="1"/>
     <col min="26" max="16384" width="9" style="3"/>
@@ -7771,23 +7819,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="22.1333333333333" customWidth="1"/>
+    <col min="1" max="2" width="22.1296296296296" customWidth="1"/>
     <col min="4" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="18.25" customWidth="1"/>
-    <col min="7" max="7" width="19.1333333333333" customWidth="1"/>
-    <col min="8" max="8" width="16.8833333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1296296296296" customWidth="1"/>
+    <col min="8" max="8" width="16.8796296296296" style="1" customWidth="1"/>
     <col min="9" max="9" width="26.75" customWidth="1"/>
     <col min="10" max="10" width="28.5" customWidth="1"/>
-    <col min="11" max="11" width="21.3833333333333" customWidth="1"/>
-    <col min="12" max="12" width="20.8833333333333" customWidth="1"/>
+    <col min="11" max="11" width="21.3796296296296" customWidth="1"/>
+    <col min="12" max="12" width="20.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -9643,6 +9691,518 @@
         <v>-1</v>
       </c>
       <c r="J58" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="16">
+        <v>22015</v>
+      </c>
+      <c r="B59" t="s">
+        <v>496</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1</v>
+      </c>
+      <c r="D59" s="6">
+        <v>200</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I59">
+        <v>-1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="16">
+        <v>22015</v>
+      </c>
+      <c r="B60" t="s">
+        <v>497</v>
+      </c>
+      <c r="C60" s="3">
+        <v>2</v>
+      </c>
+      <c r="D60" s="6">
+        <v>56000</v>
+      </c>
+      <c r="E60" s="6">
+        <v>6</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I60">
+        <v>-1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="16">
+        <v>22015</v>
+      </c>
+      <c r="B61" t="s">
+        <v>498</v>
+      </c>
+      <c r="C61" s="3">
+        <v>3</v>
+      </c>
+      <c r="D61" s="6">
+        <v>180000</v>
+      </c>
+      <c r="E61" s="6">
+        <v>12</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I61">
+        <v>-1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="16">
+        <v>22015</v>
+      </c>
+      <c r="B62" t="s">
+        <v>499</v>
+      </c>
+      <c r="C62" s="3">
+        <v>4</v>
+      </c>
+      <c r="D62" s="6">
+        <v>630000</v>
+      </c>
+      <c r="E62" s="6">
+        <v>24</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I62">
+        <v>-1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="1:10">
+      <c r="A63" s="16">
+        <v>22016</v>
+      </c>
+      <c r="B63" t="s">
+        <v>500</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1</v>
+      </c>
+      <c r="D63" s="6">
+        <v>200</v>
+      </c>
+      <c r="E63" s="6">
+        <v>0</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I63">
+        <v>-1</v>
+      </c>
+      <c r="J63" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:10">
+      <c r="A64" s="16">
+        <v>22016</v>
+      </c>
+      <c r="B64" t="s">
+        <v>501</v>
+      </c>
+      <c r="C64" s="3">
+        <v>2</v>
+      </c>
+      <c r="D64" s="6">
+        <v>56000</v>
+      </c>
+      <c r="E64" s="6">
+        <v>6</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I64">
+        <v>-1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="1:10">
+      <c r="A65" s="16">
+        <v>22016</v>
+      </c>
+      <c r="B65" t="s">
+        <v>502</v>
+      </c>
+      <c r="C65" s="3">
+        <v>3</v>
+      </c>
+      <c r="D65" s="6">
+        <v>180000</v>
+      </c>
+      <c r="E65" s="6">
+        <v>12</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I65">
+        <v>-1</v>
+      </c>
+      <c r="J65" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="1:10">
+      <c r="A66" s="16">
+        <v>22016</v>
+      </c>
+      <c r="B66" t="s">
+        <v>503</v>
+      </c>
+      <c r="C66" s="3">
+        <v>4</v>
+      </c>
+      <c r="D66" s="6">
+        <v>630000</v>
+      </c>
+      <c r="E66" s="6">
+        <v>24</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I66">
+        <v>-1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="1:10">
+      <c r="A67" s="16">
+        <v>22017</v>
+      </c>
+      <c r="B67" t="s">
+        <v>504</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1</v>
+      </c>
+      <c r="D67" s="6">
+        <v>200</v>
+      </c>
+      <c r="E67" s="6">
+        <v>0</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I67">
+        <v>-1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:10">
+      <c r="A68" s="16">
+        <v>22017</v>
+      </c>
+      <c r="B68" t="s">
+        <v>505</v>
+      </c>
+      <c r="C68" s="3">
+        <v>2</v>
+      </c>
+      <c r="D68" s="6">
+        <v>56000</v>
+      </c>
+      <c r="E68" s="6">
+        <v>6</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I68">
+        <v>-1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:10">
+      <c r="A69" s="16">
+        <v>22017</v>
+      </c>
+      <c r="B69" t="s">
+        <v>506</v>
+      </c>
+      <c r="C69" s="3">
+        <v>3</v>
+      </c>
+      <c r="D69" s="6">
+        <v>180000</v>
+      </c>
+      <c r="E69" s="6">
+        <v>12</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I69">
+        <v>-1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="1:10">
+      <c r="A70" s="16">
+        <v>22017</v>
+      </c>
+      <c r="B70" t="s">
+        <v>507</v>
+      </c>
+      <c r="C70" s="3">
+        <v>4</v>
+      </c>
+      <c r="D70" s="6">
+        <v>630000</v>
+      </c>
+      <c r="E70" s="6">
+        <v>24</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I70">
+        <v>-1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="1:10">
+      <c r="A71" s="16">
+        <v>22018</v>
+      </c>
+      <c r="B71" t="s">
+        <v>508</v>
+      </c>
+      <c r="C71" s="3">
+        <v>1</v>
+      </c>
+      <c r="D71" s="6">
+        <v>200</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I71">
+        <v>-1</v>
+      </c>
+      <c r="J71" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="1:10">
+      <c r="A72" s="16">
+        <v>22018</v>
+      </c>
+      <c r="B72" t="s">
+        <v>509</v>
+      </c>
+      <c r="C72" s="3">
+        <v>2</v>
+      </c>
+      <c r="D72" s="6">
+        <v>56000</v>
+      </c>
+      <c r="E72" s="6">
+        <v>6</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I72">
+        <v>-1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="1:10">
+      <c r="A73" s="16">
+        <v>22018</v>
+      </c>
+      <c r="B73" t="s">
+        <v>510</v>
+      </c>
+      <c r="C73" s="3">
+        <v>3</v>
+      </c>
+      <c r="D73" s="6">
+        <v>180000</v>
+      </c>
+      <c r="E73" s="6">
+        <v>12</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I73">
+        <v>-1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="1:10">
+      <c r="A74" s="16">
+        <v>22018</v>
+      </c>
+      <c r="B74" t="s">
+        <v>511</v>
+      </c>
+      <c r="C74" s="3">
+        <v>4</v>
+      </c>
+      <c r="D74" s="6">
+        <v>630000</v>
+      </c>
+      <c r="E74" s="6">
+        <v>24</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I74">
+        <v>-1</v>
+      </c>
+      <c r="J74" t="s">
         <v>490</v>
       </c>
     </row>
@@ -9665,14 +10225,14 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.1333333333333" customWidth="1"/>
-    <col min="5" max="5" width="19.6333333333333" customWidth="1"/>
-    <col min="6" max="6" width="17.8833333333333" customWidth="1"/>
+    <col min="4" max="4" width="18.1296296296296" customWidth="1"/>
+    <col min="5" max="5" width="19.6296296296296" customWidth="1"/>
+    <col min="6" max="6" width="17.8796296296296" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="16.8833333333333" customWidth="1"/>
+    <col min="8" max="8" width="16.8796296296296" customWidth="1"/>
     <col min="9" max="9" width="10.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="22.75" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -9696,7 +10256,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>8</v>
@@ -9714,7 +10274,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -9752,7 +10312,7 @@
         <v>35</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -9760,7 +10320,7 @@
         <v>32001</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -9775,19 +10335,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="K3" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="L3" s="15">
         <v>12</v>
@@ -9798,7 +10358,7 @@
         <v>32001</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -9813,19 +10373,19 @@
         <v>0</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="K4" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="L4" s="15">
         <v>24</v>
@@ -9836,7 +10396,7 @@
         <v>32001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
@@ -9851,19 +10411,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J5" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="K5" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="L5" s="15">
         <v>40</v>
@@ -9874,7 +10434,7 @@
         <v>32001</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="C6" s="3">
         <v>4</v>
@@ -9889,19 +10449,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J6" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="K6" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="L6" s="15">
         <v>60</v>
@@ -9912,7 +10472,7 @@
         <v>32002</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -9927,19 +10487,19 @@
         <v>0</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="K7" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="L7" s="15">
         <v>2</v>
@@ -9950,7 +10510,7 @@
         <v>32002</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -9965,19 +10525,19 @@
         <v>0</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="K8" t="s">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="L8" s="15">
         <v>5</v>
@@ -9988,7 +10548,7 @@
         <v>32002</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
@@ -10003,19 +10563,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>532</v>
+        <v>548</v>
       </c>
       <c r="K9" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="L9" s="15">
         <v>10</v>
@@ -10026,7 +10586,7 @@
         <v>32002</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
@@ -10041,19 +10601,19 @@
         <v>0</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="K10" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="L10" s="15">
         <v>20</v>
@@ -10064,7 +10624,7 @@
         <v>32003</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -10079,19 +10639,19 @@
         <v>2</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J11" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="K11" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="L11" s="15">
         <v>10</v>
@@ -10102,7 +10662,7 @@
         <v>32003</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -10117,19 +10677,19 @@
         <v>2</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J12" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="K12" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="L12" s="15">
         <v>15</v>
@@ -10140,7 +10700,7 @@
         <v>32003</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -10155,19 +10715,19 @@
         <v>2</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J13" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="K13" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="L13" s="15">
         <v>30</v>
@@ -10178,7 +10738,7 @@
         <v>32003</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="C14" s="3">
         <v>4</v>
@@ -10193,19 +10753,19 @@
         <v>2</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J14" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="K14" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="L14" s="15">
         <v>50</v>
@@ -10216,7 +10776,7 @@
         <v>32004</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -10231,19 +10791,19 @@
         <v>2</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J15" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="K15" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="L15" s="15">
         <v>5</v>
@@ -10254,7 +10814,7 @@
         <v>32004</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -10269,19 +10829,19 @@
         <v>2</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J16" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="K16" t="s">
-        <v>568</v>
+        <v>584</v>
       </c>
       <c r="L16" s="15">
         <v>10</v>
@@ -10292,7 +10852,7 @@
         <v>32004</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
@@ -10307,19 +10867,19 @@
         <v>2</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J17" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="K17" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="L17" s="15">
         <v>20</v>
@@ -10330,7 +10890,7 @@
         <v>32004</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="C18" s="3">
         <v>4</v>
@@ -10345,19 +10905,19 @@
         <v>2</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J18" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="K18" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="L18" s="15">
         <v>30</v>
@@ -10368,7 +10928,7 @@
         <v>32005</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -10383,19 +10943,19 @@
         <v>0</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
       <c r="I19" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J19" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="K19" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="L19" s="15">
         <v>2</v>
@@ -10406,7 +10966,7 @@
         <v>32005</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
@@ -10421,19 +10981,19 @@
         <v>0</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J20" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="K20" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="L20" s="15">
         <v>5</v>
@@ -10444,7 +11004,7 @@
         <v>32005</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
@@ -10459,19 +11019,19 @@
         <v>0</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="I21" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J21" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="K21" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="L21" s="15">
         <v>10</v>
@@ -10482,7 +11042,7 @@
         <v>32005</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="C22" s="3">
         <v>4</v>
@@ -10497,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
       <c r="I22" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J22" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="K22" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
       <c r="L22" s="15">
         <v>20</v>
@@ -10520,7 +11080,7 @@
         <v>32006</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -10535,19 +11095,19 @@
         <v>2</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="L23" s="15">
         <v>5</v>
@@ -10558,7 +11118,7 @@
         <v>32006</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
@@ -10573,19 +11133,19 @@
         <v>2</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="L24" s="15">
         <v>10</v>
@@ -10596,7 +11156,7 @@
         <v>32006</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
@@ -10611,19 +11171,19 @@
         <v>2</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
       <c r="L25" s="15">
         <v>20</v>
@@ -10634,7 +11194,7 @@
         <v>32006</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="C26" s="3">
         <v>4</v>
@@ -10649,19 +11209,19 @@
         <v>2</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="I26" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>618</v>
+        <v>634</v>
       </c>
       <c r="L26" s="15">
         <v>30</v>
@@ -10672,7 +11232,7 @@
         <v>32007</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -10687,19 +11247,19 @@
         <v>0</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J27" t="s">
-        <v>622</v>
+        <v>638</v>
       </c>
       <c r="K27" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
       <c r="L27" s="15">
         <v>5</v>
@@ -10710,7 +11270,7 @@
         <v>32007</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
@@ -10725,19 +11285,19 @@
         <v>0</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J28" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="K28" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="L28" s="15">
         <v>10</v>
@@ -10748,7 +11308,7 @@
         <v>32007</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="C29" s="3">
         <v>3</v>
@@ -10763,19 +11323,19 @@
         <v>0</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="I29" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J29" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="K29" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="L29" s="15">
         <v>20</v>
@@ -10786,7 +11346,7 @@
         <v>32007</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="C30" s="3">
         <v>4</v>
@@ -10801,19 +11361,19 @@
         <v>0</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J30" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="K30" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="L30" s="15">
         <v>30</v>
@@ -10824,7 +11384,7 @@
         <v>32008</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -10839,19 +11399,19 @@
         <v>0</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="I31" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J31" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
       <c r="K31" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="L31" s="15">
         <v>5</v>
@@ -10862,7 +11422,7 @@
         <v>32008</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
@@ -10877,19 +11437,19 @@
         <v>0</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="I32" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J32" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="K32" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="L32" s="15">
         <v>10</v>
@@ -10900,7 +11460,7 @@
         <v>32008</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="C33" s="3">
         <v>3</v>
@@ -10915,19 +11475,19 @@
         <v>0</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="I33" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J33" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="K33" t="s">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="L33" s="15">
         <v>20</v>
@@ -10938,7 +11498,7 @@
         <v>32008</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="C34" s="3">
         <v>4</v>
@@ -10953,19 +11513,19 @@
         <v>0</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="I34" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J34" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="K34" t="s">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="L34" s="15">
         <v>30</v>

--- a/project/OtherAssets/Excle/A_Default/建筑.xlsx
+++ b/project/OtherAssets/Excle/A_Default/建筑.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="18468" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Stall" sheetId="1" r:id="rId1"/>
@@ -13,15 +13,15 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stall!$A$2:$Y$58</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Adorn!$A$2:$L$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Equip!$A$3:$J$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Adorn!$A$2:$K$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Equip!$A$3:$I$38</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="605">
   <si>
     <t>ID</t>
   </si>
@@ -170,7 +170,7 @@
     <t>stall_2001_food</t>
   </si>
   <si>
-    <t>披萨店</t>
+    <t>Pizza</t>
   </si>
   <si>
     <t>shop_shtall_20011</t>
@@ -251,7 +251,7 @@
     <t>stall_2002_food</t>
   </si>
   <si>
-    <t>巨无霸取餐台</t>
+    <t>BigMac</t>
   </si>
   <si>
     <t>shop_shtall_20021</t>
@@ -320,7 +320,7 @@
     <t>stall_2003_food</t>
   </si>
   <si>
-    <t>寿司取餐台</t>
+    <t>Sushi</t>
   </si>
   <si>
     <t>shop_shtall_20031</t>
@@ -395,7 +395,7 @@
     <t>stall_2004_food</t>
   </si>
   <si>
-    <t>海鲜摊</t>
+    <t>Seafood</t>
   </si>
   <si>
     <t>shop_shtall_20041</t>
@@ -455,7 +455,7 @@
     <t>stall_2005_food</t>
   </si>
   <si>
-    <t>冰淇淋自助机</t>
+    <t>IceCream</t>
   </si>
   <si>
     <t>shop_shtall_20051</t>
@@ -503,7 +503,7 @@
     <t>stall_2006_food</t>
   </si>
   <si>
-    <t>咖啡自助台</t>
+    <t>Coffee</t>
   </si>
   <si>
     <t>shop_shtall_20061</t>
@@ -581,7 +581,7 @@
     <t>stall_2007_food</t>
   </si>
   <si>
-    <t>吧台标题</t>
+    <t>BarCounter</t>
   </si>
   <si>
     <t>shop_shtall_20071</t>
@@ -623,7 +623,7 @@
     <t>stall_2008_food</t>
   </si>
   <si>
-    <t>糖果摊</t>
+    <t>Candy</t>
   </si>
   <si>
     <t>shop_shtall_20081</t>
@@ -680,7 +680,7 @@
     <t>stall_2009_food</t>
   </si>
   <si>
-    <t>巧克力摊</t>
+    <t>Chocolate</t>
   </si>
   <si>
     <t>shop_shtall_20091</t>
@@ -737,7 +737,7 @@
     <t>stall_2010_food</t>
   </si>
   <si>
-    <t>果汁机</t>
+    <t>Juice</t>
   </si>
   <si>
     <t>shop_shtall_20101</t>
@@ -779,7 +779,7 @@
     <t>stall_2011_food</t>
   </si>
   <si>
-    <t>甜点柜</t>
+    <t>Dessert</t>
   </si>
   <si>
     <t>shop_shtall_20111</t>
@@ -821,7 +821,7 @@
     <t>stall_2012_food</t>
   </si>
   <si>
-    <t>可乐自动贩卖机</t>
+    <t>Cola</t>
   </si>
   <si>
     <t>shop_shtall_20121</t>
@@ -863,7 +863,7 @@
     <t>stall_2013_food</t>
   </si>
   <si>
-    <t>自助火锅</t>
+    <t>HotPot</t>
   </si>
   <si>
     <t>shop_shtall_20131</t>
@@ -905,7 +905,7 @@
     <t>stall_2014_food</t>
   </si>
   <si>
-    <t>自助蔬菜沙拉</t>
+    <t>Salad</t>
   </si>
   <si>
     <t>shop_shtall_20141</t>
@@ -947,15 +947,9 @@
     <t>备注</t>
   </si>
   <si>
-    <t>资源链接</t>
-  </si>
-  <si>
     <t>bz_s</t>
   </si>
   <si>
-    <t>Path_s</t>
-  </si>
-  <si>
     <t>素雅方桌</t>
   </si>
   <si>
@@ -965,9 +959,6 @@
     <t>8_2</t>
   </si>
   <si>
-    <t>facility_20011</t>
-  </si>
-  <si>
     <t>shop_facility_20011</t>
   </si>
   <si>
@@ -980,9 +971,6 @@
     <t>8_3</t>
   </si>
   <si>
-    <t>facility_20012</t>
-  </si>
-  <si>
     <t>shop_facility_20012</t>
   </si>
   <si>
@@ -995,9 +983,6 @@
     <t>8_4</t>
   </si>
   <si>
-    <t>facility_20013</t>
-  </si>
-  <si>
     <t>shop_facility_20013</t>
   </si>
   <si>
@@ -1010,9 +995,6 @@
     <t>8_5</t>
   </si>
   <si>
-    <t>facility_20014</t>
-  </si>
-  <si>
     <t>shop_facility_20014</t>
   </si>
   <si>
@@ -1025,9 +1007,6 @@
     <t>8_7</t>
   </si>
   <si>
-    <t>facility_20021</t>
-  </si>
-  <si>
     <t>shop_facility_20021</t>
   </si>
   <si>
@@ -1040,9 +1019,6 @@
     <t>8_8</t>
   </si>
   <si>
-    <t>facility_20022</t>
-  </si>
-  <si>
     <t>shop_facility_20022</t>
   </si>
   <si>
@@ -1055,9 +1031,6 @@
     <t>8_9</t>
   </si>
   <si>
-    <t>facility_20023</t>
-  </si>
-  <si>
     <t>shop_facility_20023</t>
   </si>
   <si>
@@ -1070,9 +1043,6 @@
     <t>8_10</t>
   </si>
   <si>
-    <t>facility_20024</t>
-  </si>
-  <si>
     <t>shop_facility_20024</t>
   </si>
   <si>
@@ -1085,9 +1055,6 @@
     <t>8_12</t>
   </si>
   <si>
-    <t>facility_20031</t>
-  </si>
-  <si>
     <t>shop_facility_20031</t>
   </si>
   <si>
@@ -1100,9 +1067,6 @@
     <t>8_13</t>
   </si>
   <si>
-    <t>facility_20032</t>
-  </si>
-  <si>
     <t>shop_facility_20032</t>
   </si>
   <si>
@@ -1115,9 +1079,6 @@
     <t>8_14</t>
   </si>
   <si>
-    <t>facility_20033</t>
-  </si>
-  <si>
     <t>shop_facility_20033</t>
   </si>
   <si>
@@ -1130,9 +1091,6 @@
     <t>8_15</t>
   </si>
   <si>
-    <t>facility_20034</t>
-  </si>
-  <si>
     <t>shop_facility_20034</t>
   </si>
   <si>
@@ -1145,9 +1103,6 @@
     <t>8_17</t>
   </si>
   <si>
-    <t>facility_20051</t>
-  </si>
-  <si>
     <t>shop_facility_20041</t>
   </si>
   <si>
@@ -1160,9 +1115,6 @@
     <t>8_18</t>
   </si>
   <si>
-    <t>facility_20052</t>
-  </si>
-  <si>
     <t>shop_facility_20042</t>
   </si>
   <si>
@@ -1175,9 +1127,6 @@
     <t>8_19</t>
   </si>
   <si>
-    <t>facility_20053</t>
-  </si>
-  <si>
     <t>shop_facility_20043</t>
   </si>
   <si>
@@ -1190,9 +1139,6 @@
     <t>8_20</t>
   </si>
   <si>
-    <t>facility_20054</t>
-  </si>
-  <si>
     <t>shop_facility_20044</t>
   </si>
   <si>
@@ -1205,9 +1151,6 @@
     <t>8_22</t>
   </si>
   <si>
-    <t>facility_20061</t>
-  </si>
-  <si>
     <t>shop_facility_20051</t>
   </si>
   <si>
@@ -1220,9 +1163,6 @@
     <t>8_23</t>
   </si>
   <si>
-    <t>facility_20062</t>
-  </si>
-  <si>
     <t>shop_facility_20052</t>
   </si>
   <si>
@@ -1235,9 +1175,6 @@
     <t>8_24</t>
   </si>
   <si>
-    <t>facility_20063</t>
-  </si>
-  <si>
     <t>shop_facility_20053</t>
   </si>
   <si>
@@ -1250,9 +1187,6 @@
     <t>8_25</t>
   </si>
   <si>
-    <t>facility_20064</t>
-  </si>
-  <si>
     <t>shop_facility_20054</t>
   </si>
   <si>
@@ -1265,9 +1199,6 @@
     <t>8_27</t>
   </si>
   <si>
-    <t>facility_20071</t>
-  </si>
-  <si>
     <t>shop_facility_20061</t>
   </si>
   <si>
@@ -1280,9 +1211,6 @@
     <t>8_28</t>
   </si>
   <si>
-    <t>facility_20072</t>
-  </si>
-  <si>
     <t>shop_facility_20062</t>
   </si>
   <si>
@@ -1295,9 +1223,6 @@
     <t>8_29</t>
   </si>
   <si>
-    <t>facility_20073</t>
-  </si>
-  <si>
     <t>shop_facility_20063</t>
   </si>
   <si>
@@ -1310,9 +1235,6 @@
     <t>8_30</t>
   </si>
   <si>
-    <t>facility_20074</t>
-  </si>
-  <si>
     <t>shop_facility_20064</t>
   </si>
   <si>
@@ -1325,9 +1247,6 @@
     <t>8_32</t>
   </si>
   <si>
-    <t>facility_20081</t>
-  </si>
-  <si>
     <t>shop_facility_20071</t>
   </si>
   <si>
@@ -1340,9 +1259,6 @@
     <t>8_33</t>
   </si>
   <si>
-    <t>facility_20082</t>
-  </si>
-  <si>
     <t>shop_facility_20072</t>
   </si>
   <si>
@@ -1355,9 +1271,6 @@
     <t>8_34</t>
   </si>
   <si>
-    <t>facility_20083</t>
-  </si>
-  <si>
     <t>shop_facility_20073</t>
   </si>
   <si>
@@ -1370,9 +1283,6 @@
     <t>8_35</t>
   </si>
   <si>
-    <t>facility_20084</t>
-  </si>
-  <si>
     <t>shop_facility_20074</t>
   </si>
   <si>
@@ -1385,9 +1295,6 @@
     <t>8_37</t>
   </si>
   <si>
-    <t>facility_20091</t>
-  </si>
-  <si>
     <t>shop_facility_20081</t>
   </si>
   <si>
@@ -1400,9 +1307,6 @@
     <t>8_38</t>
   </si>
   <si>
-    <t>facility_20092</t>
-  </si>
-  <si>
     <t>shop_facility_20082</t>
   </si>
   <si>
@@ -1415,9 +1319,6 @@
     <t>8_39</t>
   </si>
   <si>
-    <t>facility_20093</t>
-  </si>
-  <si>
     <t>shop_facility_20083</t>
   </si>
   <si>
@@ -1430,9 +1331,6 @@
     <t>8_40</t>
   </si>
   <si>
-    <t>facility_20094</t>
-  </si>
-  <si>
     <t>shop_facility_20084</t>
   </si>
   <si>
@@ -1445,9 +1343,6 @@
     <t>8_42</t>
   </si>
   <si>
-    <t>facility_20000011</t>
-  </si>
-  <si>
     <t>shop_facility_20091</t>
   </si>
   <si>
@@ -1460,9 +1355,6 @@
     <t>8_43</t>
   </si>
   <si>
-    <t>facility_20000012</t>
-  </si>
-  <si>
     <t>shop_facility_20092</t>
   </si>
   <si>
@@ -1475,9 +1367,6 @@
     <t>8_44</t>
   </si>
   <si>
-    <t>facility_20000013</t>
-  </si>
-  <si>
     <t>shop_facility_20093</t>
   </si>
   <si>
@@ -1490,9 +1379,6 @@
     <t>8_45</t>
   </si>
   <si>
-    <t>facility_20000014</t>
-  </si>
-  <si>
     <t>shop_facility_20094</t>
   </si>
   <si>
@@ -1577,9 +1463,6 @@
     <t>9_2</t>
   </si>
   <si>
-    <t>decoration_20021</t>
-  </si>
-  <si>
     <t>shop_decoration_20011</t>
   </si>
   <si>
@@ -1592,9 +1475,6 @@
     <t>9_3</t>
   </si>
   <si>
-    <t>decoration_20022</t>
-  </si>
-  <si>
     <t>shop_decoration_20012</t>
   </si>
   <si>
@@ -1607,9 +1487,6 @@
     <t>9_4</t>
   </si>
   <si>
-    <t>decoration_20023</t>
-  </si>
-  <si>
     <t>shop_decoration_20013</t>
   </si>
   <si>
@@ -1622,9 +1499,6 @@
     <t>9_5</t>
   </si>
   <si>
-    <t>decoration_20024</t>
-  </si>
-  <si>
     <t>shop_decoration_20014</t>
   </si>
   <si>
@@ -1637,9 +1511,6 @@
     <t>9_7</t>
   </si>
   <si>
-    <t>decoration_20051</t>
-  </si>
-  <si>
     <t>shop_decoration_20021</t>
   </si>
   <si>
@@ -1652,9 +1523,6 @@
     <t>9_8</t>
   </si>
   <si>
-    <t>decoration_20052</t>
-  </si>
-  <si>
     <t>shop_decoration_20022</t>
   </si>
   <si>
@@ -1667,9 +1535,6 @@
     <t>9_9</t>
   </si>
   <si>
-    <t>decoration_20053</t>
-  </si>
-  <si>
     <t>shop_decoration_20023</t>
   </si>
   <si>
@@ -1682,9 +1547,6 @@
     <t>9_10</t>
   </si>
   <si>
-    <t>decoration_20054</t>
-  </si>
-  <si>
     <t>shop_decoration_20024</t>
   </si>
   <si>
@@ -1697,9 +1559,6 @@
     <t>9_12</t>
   </si>
   <si>
-    <t>decoration_20071</t>
-  </si>
-  <si>
     <t>shop_decoration_20031</t>
   </si>
   <si>
@@ -1712,9 +1571,6 @@
     <t>9_13</t>
   </si>
   <si>
-    <t>decoration_20072</t>
-  </si>
-  <si>
     <t>shop_decoration_20032</t>
   </si>
   <si>
@@ -1727,9 +1583,6 @@
     <t>9_14</t>
   </si>
   <si>
-    <t>decoration_20073</t>
-  </si>
-  <si>
     <t>shop_decoration_20033</t>
   </si>
   <si>
@@ -1742,9 +1595,6 @@
     <t>9_15</t>
   </si>
   <si>
-    <t>decoration_20074</t>
-  </si>
-  <si>
     <t>shop_decoration_20034</t>
   </si>
   <si>
@@ -1757,9 +1607,6 @@
     <t>9_17</t>
   </si>
   <si>
-    <t>decoration_20081</t>
-  </si>
-  <si>
     <t>shop_decoration_20041</t>
   </si>
   <si>
@@ -1772,9 +1619,6 @@
     <t>9_18</t>
   </si>
   <si>
-    <t>decoration_20082</t>
-  </si>
-  <si>
     <t>shop_decoration_20042</t>
   </si>
   <si>
@@ -1787,9 +1631,6 @@
     <t>9_19</t>
   </si>
   <si>
-    <t>decoration_20083</t>
-  </si>
-  <si>
     <t>shop_decoration_20043</t>
   </si>
   <si>
@@ -1802,9 +1643,6 @@
     <t>9_20</t>
   </si>
   <si>
-    <t>decoration_20084</t>
-  </si>
-  <si>
     <t>shop_decoration_20044</t>
   </si>
   <si>
@@ -1817,9 +1655,6 @@
     <t>9_22</t>
   </si>
   <si>
-    <t>decoration_20091</t>
-  </si>
-  <si>
     <t>shop_decoration_20051</t>
   </si>
   <si>
@@ -1832,9 +1667,6 @@
     <t>9_23</t>
   </si>
   <si>
-    <t>decoration_20092</t>
-  </si>
-  <si>
     <t>shop_decoration_20052</t>
   </si>
   <si>
@@ -1847,9 +1679,6 @@
     <t>9_24</t>
   </si>
   <si>
-    <t>decoration_20093</t>
-  </si>
-  <si>
     <t>shop_decoration_20053</t>
   </si>
   <si>
@@ -1862,9 +1691,6 @@
     <t>9_25</t>
   </si>
   <si>
-    <t>decoration_20094</t>
-  </si>
-  <si>
     <t>shop_decoration_20054</t>
   </si>
   <si>
@@ -1875,38 +1701,6 @@
   </si>
   <si>
     <t>9_27</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>decoration_200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1958,38 +1752,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>decoration_200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>shop_decoration_200</t>
     </r>
     <r>
@@ -2021,9 +1783,6 @@
   </si>
   <si>
     <t>9_29</t>
-  </si>
-  <si>
-    <t>decoration_20063</t>
   </si>
   <si>
     <r>
@@ -2075,38 +1834,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>decoration_200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>shop_decoration_200</t>
     </r>
     <r>
@@ -2140,9 +1867,6 @@
     <t>9_32</t>
   </si>
   <si>
-    <t>decoration_200101</t>
-  </si>
-  <si>
     <t>shop_decoration_20071</t>
   </si>
   <si>
@@ -2155,9 +1879,6 @@
     <t>9_33</t>
   </si>
   <si>
-    <t>decoration_200102</t>
-  </si>
-  <si>
     <t>shop_decoration_20072</t>
   </si>
   <si>
@@ -2170,9 +1891,6 @@
     <t>9_34</t>
   </si>
   <si>
-    <t>decoration_200103</t>
-  </si>
-  <si>
     <t>shop_decoration_20073</t>
   </si>
   <si>
@@ -2185,9 +1903,6 @@
     <t>9_35</t>
   </si>
   <si>
-    <t>decoration_200104</t>
-  </si>
-  <si>
     <t>shop_decoration_20074</t>
   </si>
   <si>
@@ -2200,9 +1915,6 @@
     <t>9_37</t>
   </si>
   <si>
-    <t>decoration_200111</t>
-  </si>
-  <si>
     <t>shop_decoration_20081</t>
   </si>
   <si>
@@ -2215,9 +1927,6 @@
     <t>9_38</t>
   </si>
   <si>
-    <t>decoration_200112</t>
-  </si>
-  <si>
     <t>shop_decoration_20082</t>
   </si>
   <si>
@@ -2230,9 +1939,6 @@
     <t>9_39</t>
   </si>
   <si>
-    <t>decoration_200113</t>
-  </si>
-  <si>
     <t>shop_decoration_20083</t>
   </si>
   <si>
@@ -2243,9 +1949,6 @@
   </si>
   <si>
     <t>9_40</t>
-  </si>
-  <si>
-    <t>decoration_200114</t>
   </si>
   <si>
     <t>shop_decoration_20084</t>
@@ -2256,10 +1959,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2267,43 +1970,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2322,6 +1988,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2330,46 +2017,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2384,6 +2033,60 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2393,7 +2096,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2401,7 +2104,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2441,13 +2144,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2459,13 +2168,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2477,85 +2234,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2573,13 +2264,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2591,19 +2300,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2665,21 +2368,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2698,17 +2386,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2718,6 +2412,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2736,27 +2450,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2765,133 +2468,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3301,10 +3004,10 @@
   <sheetPr/>
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M55" sqref="M55:M58"/>
+      <selection pane="topRight" activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7819,10 +7522,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7832,13 +7535,12 @@
     <col min="6" max="6" width="18.25" customWidth="1"/>
     <col min="7" max="7" width="19.1296296296296" customWidth="1"/>
     <col min="8" max="8" width="16.8796296296296" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.75" customWidth="1"/>
-    <col min="10" max="10" width="28.5" customWidth="1"/>
-    <col min="11" max="11" width="21.3796296296296" customWidth="1"/>
-    <col min="12" max="12" width="20.8796296296296" customWidth="1"/>
+    <col min="9" max="9" width="28.5" customWidth="1"/>
+    <col min="10" max="10" width="21.3796296296296" customWidth="1"/>
+    <col min="11" max="11" width="20.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7863,19 +7565,16 @@
       <c r="H1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
-        <v>308</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
@@ -7895,19 +7594,16 @@
       <c r="H2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
-        <v>310</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>22001</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -7919,27 +7615,24 @@
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>314</v>
-      </c>
-      <c r="J3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="16">
         <v>22001</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -7951,27 +7644,24 @@
         <v>6</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>319</v>
-      </c>
-      <c r="J4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="16">
         <v>22001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
@@ -7983,27 +7673,24 @@
         <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>324</v>
-      </c>
-      <c r="J5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="16">
         <v>22001</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C6" s="3">
         <v>4</v>
@@ -8015,27 +7702,24 @@
         <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>329</v>
-      </c>
-      <c r="J6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="16">
         <v>22002</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -8047,27 +7731,24 @@
         <v>3</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>334</v>
-      </c>
-      <c r="J7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="16">
         <v>22002</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -8079,27 +7760,24 @@
         <v>9</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>339</v>
-      </c>
-      <c r="J8" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="16">
         <v>22002</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
@@ -8111,27 +7789,24 @@
         <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>344</v>
-      </c>
-      <c r="J9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="16">
         <v>22002</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
@@ -8143,27 +7818,24 @@
         <v>25</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>349</v>
-      </c>
-      <c r="J10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="16">
         <v>22003</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -8175,27 +7847,24 @@
         <v>15</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>354</v>
-      </c>
-      <c r="J11" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="16">
         <v>22003</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -8207,27 +7876,24 @@
         <v>10</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>359</v>
-      </c>
-      <c r="J12" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="16">
         <v>22003</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -8239,27 +7905,24 @@
         <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>364</v>
-      </c>
-      <c r="J13" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="16">
         <v>22003</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="C14" s="3">
         <v>4</v>
@@ -8271,27 +7934,24 @@
         <v>25</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>369</v>
-      </c>
-      <c r="J14" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="16">
         <v>22004</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -8303,27 +7963,24 @@
         <v>3</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>374</v>
-      </c>
-      <c r="J15" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="16">
         <v>22004</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -8335,27 +7992,24 @@
         <v>9</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>56</v>
       </c>
       <c r="I16" t="s">
-        <v>379</v>
-      </c>
-      <c r="J16" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="16">
         <v>22004</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
@@ -8367,27 +8021,24 @@
         <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>384</v>
-      </c>
-      <c r="J17" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="16">
         <v>22004</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="C18" s="3">
         <v>4</v>
@@ -8399,27 +8050,24 @@
         <v>25</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>389</v>
-      </c>
-      <c r="J18" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="16">
         <v>22005</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -8431,27 +8079,24 @@
         <v>6</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>56</v>
       </c>
       <c r="I19" t="s">
-        <v>394</v>
-      </c>
-      <c r="J19" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="16">
         <v>22005</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
@@ -8463,27 +8108,24 @@
         <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I20" t="s">
-        <v>399</v>
-      </c>
-      <c r="J20" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="16">
         <v>22005</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
@@ -8495,27 +8137,24 @@
         <v>20</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>404</v>
-      </c>
-      <c r="J21" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="16">
         <v>22005</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="C22" s="3">
         <v>4</v>
@@ -8527,27 +8166,24 @@
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>56</v>
       </c>
       <c r="I22" t="s">
-        <v>409</v>
-      </c>
-      <c r="J22" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="16">
         <v>22006</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -8559,27 +8195,24 @@
         <v>1</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I23" t="s">
-        <v>414</v>
-      </c>
-      <c r="J23" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="16">
         <v>22006</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
@@ -8591,27 +8224,24 @@
         <v>8</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="H24" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>419</v>
-      </c>
-      <c r="J24" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="16">
         <v>22006</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
@@ -8623,27 +8253,24 @@
         <v>14</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>56</v>
       </c>
       <c r="I25" t="s">
-        <v>424</v>
-      </c>
-      <c r="J25" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="16">
         <v>22006</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="C26" s="3">
         <v>4</v>
@@ -8655,27 +8282,24 @@
         <v>20</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I26" t="s">
-        <v>429</v>
-      </c>
-      <c r="J26" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="16">
         <v>22007</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -8687,27 +8311,24 @@
         <v>1</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>434</v>
-      </c>
-      <c r="J27" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="16">
         <v>22007</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
@@ -8719,27 +8340,24 @@
         <v>9</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>56</v>
       </c>
       <c r="I28" t="s">
-        <v>439</v>
-      </c>
-      <c r="J28" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="16">
         <v>22007</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="C29" s="3">
         <v>3</v>
@@ -8751,27 +8369,24 @@
         <v>15</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="H29" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I29" t="s">
-        <v>444</v>
-      </c>
-      <c r="J29" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="16">
         <v>22007</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="C30" s="3">
         <v>4</v>
@@ -8783,27 +8398,24 @@
         <v>25</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>449</v>
-      </c>
-      <c r="J30" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="16">
         <v>22008</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -8815,27 +8427,24 @@
         <v>1</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="H31" s="14" t="s">
         <v>56</v>
       </c>
       <c r="I31" t="s">
-        <v>454</v>
-      </c>
-      <c r="J31" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="16">
         <v>22008</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
@@ -8847,27 +8456,24 @@
         <v>15</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="H32" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I32" t="s">
-        <v>459</v>
-      </c>
-      <c r="J32" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="16">
         <v>22008</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="C33" s="3">
         <v>3</v>
@@ -8879,27 +8485,24 @@
         <v>21</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>462</v>
+        <v>430</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>463</v>
+        <v>431</v>
       </c>
       <c r="H33" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>464</v>
-      </c>
-      <c r="J33" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="16">
         <v>22008</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="C34" s="3">
         <v>4</v>
@@ -8911,27 +8514,24 @@
         <v>28</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="H34" s="14" t="s">
         <v>56</v>
       </c>
       <c r="I34" t="s">
-        <v>469</v>
-      </c>
-      <c r="J34" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="16">
         <v>22009</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>471</v>
+        <v>437</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
@@ -8943,27 +8543,24 @@
         <v>0</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="H35" s="14" t="s">
         <v>56</v>
       </c>
       <c r="I35" t="s">
-        <v>474</v>
-      </c>
-      <c r="J35" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="16">
         <v>22009</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>476</v>
+        <v>441</v>
       </c>
       <c r="C36" s="3">
         <v>2</v>
@@ -8975,27 +8572,24 @@
         <v>6</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="H36" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I36" t="s">
-        <v>479</v>
-      </c>
-      <c r="J36" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="16">
         <v>22009</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>481</v>
+        <v>445</v>
       </c>
       <c r="C37" s="3">
         <v>3</v>
@@ -9007,27 +8601,24 @@
         <v>12</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="H37" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>484</v>
-      </c>
-      <c r="J37" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="16">
         <v>22009</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>486</v>
+        <v>449</v>
       </c>
       <c r="C38" s="3">
         <v>4</v>
@@ -9039,27 +8630,24 @@
         <v>24</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="H38" s="14" t="s">
         <v>56</v>
       </c>
       <c r="I38" t="s">
-        <v>489</v>
-      </c>
-      <c r="J38" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="16">
         <v>22010</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>491</v>
+        <v>453</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
@@ -9071,27 +8659,24 @@
         <v>0</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="H39" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I39">
-        <v>-1</v>
-      </c>
-      <c r="J39" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="I39" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="16">
         <v>22010</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>491</v>
+        <v>453</v>
       </c>
       <c r="C40" s="3">
         <v>2</v>
@@ -9103,27 +8688,24 @@
         <v>6</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="H40" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I40">
-        <v>-1</v>
-      </c>
-      <c r="J40" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="I40" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="16">
         <v>22010</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>491</v>
+        <v>453</v>
       </c>
       <c r="C41" s="3">
         <v>3</v>
@@ -9135,27 +8717,24 @@
         <v>12</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I41">
-        <v>-1</v>
-      </c>
-      <c r="J41" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="I41" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="16">
         <v>22010</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>491</v>
+        <v>453</v>
       </c>
       <c r="C42" s="3">
         <v>4</v>
@@ -9167,27 +8746,24 @@
         <v>24</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="H42" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I42">
-        <v>-1</v>
-      </c>
-      <c r="J42" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:10">
+      <c r="I42" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:9">
       <c r="A43" s="16">
         <v>22011</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>492</v>
+        <v>454</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
@@ -9199,27 +8775,24 @@
         <v>0</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="H43" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I43">
-        <v>-1</v>
-      </c>
-      <c r="J43" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:10">
+      <c r="I43" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:9">
       <c r="A44" s="16">
         <v>22011</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>492</v>
+        <v>454</v>
       </c>
       <c r="C44" s="3">
         <v>2</v>
@@ -9231,27 +8804,24 @@
         <v>6</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="H44" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I44">
-        <v>-1</v>
-      </c>
-      <c r="J44" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:10">
+      <c r="I44" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:9">
       <c r="A45" s="16">
         <v>22011</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>492</v>
+        <v>454</v>
       </c>
       <c r="C45" s="3">
         <v>3</v>
@@ -9263,27 +8833,24 @@
         <v>12</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="H45" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I45">
-        <v>-1</v>
-      </c>
-      <c r="J45" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:10">
+      <c r="I45" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:9">
       <c r="A46" s="16">
         <v>22011</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>492</v>
+        <v>454</v>
       </c>
       <c r="C46" s="3">
         <v>4</v>
@@ -9295,27 +8862,24 @@
         <v>24</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="H46" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I46">
-        <v>-1</v>
-      </c>
-      <c r="J46" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="1:10">
+      <c r="I46" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:9">
       <c r="A47" s="16">
         <v>22012</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
@@ -9327,27 +8891,24 @@
         <v>0</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="H47" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I47">
-        <v>-1</v>
-      </c>
-      <c r="J47" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="1:10">
+      <c r="I47" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:9">
       <c r="A48" s="16">
         <v>22012</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="C48" s="3">
         <v>2</v>
@@ -9359,27 +8920,24 @@
         <v>6</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I48">
-        <v>-1</v>
-      </c>
-      <c r="J48" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" spans="1:10">
+      <c r="I48" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:9">
       <c r="A49" s="16">
         <v>22012</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="C49" s="3">
         <v>3</v>
@@ -9391,27 +8949,24 @@
         <v>12</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="H49" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I49">
-        <v>-1</v>
-      </c>
-      <c r="J49" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" spans="1:10">
+      <c r="I49" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:9">
       <c r="A50" s="16">
         <v>22012</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="C50" s="3">
         <v>4</v>
@@ -9423,27 +8978,24 @@
         <v>24</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="H50" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I50">
-        <v>-1</v>
-      </c>
-      <c r="J50" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="1:10">
+      <c r="I50" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:9">
       <c r="A51" s="16">
         <v>22013</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>494</v>
+        <v>456</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
@@ -9455,27 +9007,24 @@
         <v>0</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="H51" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I51">
-        <v>-1</v>
-      </c>
-      <c r="J51" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="1:10">
+      <c r="I51" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:9">
       <c r="A52" s="16">
         <v>22013</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>494</v>
+        <v>456</v>
       </c>
       <c r="C52" s="3">
         <v>2</v>
@@ -9487,27 +9036,24 @@
         <v>6</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="H52" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I52">
-        <v>-1</v>
-      </c>
-      <c r="J52" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="1:10">
+      <c r="I52" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:9">
       <c r="A53" s="16">
         <v>22013</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>494</v>
+        <v>456</v>
       </c>
       <c r="C53" s="3">
         <v>3</v>
@@ -9519,27 +9065,24 @@
         <v>12</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="H53" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I53">
-        <v>-1</v>
-      </c>
-      <c r="J53" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" spans="1:10">
+      <c r="I53" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:9">
       <c r="A54" s="16">
         <v>22013</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>494</v>
+        <v>456</v>
       </c>
       <c r="C54" s="3">
         <v>4</v>
@@ -9551,27 +9094,24 @@
         <v>24</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I54">
-        <v>-1</v>
-      </c>
-      <c r="J54" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" spans="1:10">
+      <c r="I54" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:9">
       <c r="A55" s="16">
         <v>22014</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
@@ -9583,27 +9123,24 @@
         <v>0</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="H55" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I55">
-        <v>-1</v>
-      </c>
-      <c r="J55" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" spans="1:10">
+      <c r="I55" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:9">
       <c r="A56" s="16">
         <v>22014</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="C56" s="3">
         <v>2</v>
@@ -9615,27 +9152,24 @@
         <v>6</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="H56" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I56">
-        <v>-1</v>
-      </c>
-      <c r="J56" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" spans="1:10">
+      <c r="I56" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:9">
       <c r="A57" s="16">
         <v>22014</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="C57" s="3">
         <v>3</v>
@@ -9647,27 +9181,24 @@
         <v>12</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="H57" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I57">
-        <v>-1</v>
-      </c>
-      <c r="J57" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="1:10">
+      <c r="I57" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="1:9">
       <c r="A58" s="16">
         <v>22014</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="C58" s="3">
         <v>4</v>
@@ -9679,27 +9210,24 @@
         <v>24</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="H58" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I58">
-        <v>-1</v>
-      </c>
-      <c r="J58" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="I58" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="16">
         <v>22015</v>
       </c>
       <c r="B59" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
@@ -9711,27 +9239,24 @@
         <v>0</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="H59" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I59">
-        <v>-1</v>
-      </c>
-      <c r="J59" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="I59" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="16">
         <v>22015</v>
       </c>
       <c r="B60" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="C60" s="3">
         <v>2</v>
@@ -9743,27 +9268,24 @@
         <v>6</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="H60" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I60">
-        <v>-1</v>
-      </c>
-      <c r="J60" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="I60" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="16">
         <v>22015</v>
       </c>
       <c r="B61" t="s">
-        <v>498</v>
+        <v>460</v>
       </c>
       <c r="C61" s="3">
         <v>3</v>
@@ -9775,27 +9297,24 @@
         <v>12</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="H61" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I61">
-        <v>-1</v>
-      </c>
-      <c r="J61" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="I61" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="16">
         <v>22015</v>
       </c>
       <c r="B62" t="s">
-        <v>499</v>
+        <v>461</v>
       </c>
       <c r="C62" s="3">
         <v>4</v>
@@ -9807,27 +9326,24 @@
         <v>24</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="H62" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I62">
-        <v>-1</v>
-      </c>
-      <c r="J62" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="63" customFormat="1" spans="1:10">
+      <c r="I62" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="1:9">
       <c r="A63" s="16">
         <v>22016</v>
       </c>
       <c r="B63" t="s">
-        <v>500</v>
+        <v>462</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
@@ -9839,27 +9355,24 @@
         <v>0</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="H63" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I63">
-        <v>-1</v>
-      </c>
-      <c r="J63" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" spans="1:10">
+      <c r="I63" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:9">
       <c r="A64" s="16">
         <v>22016</v>
       </c>
       <c r="B64" t="s">
-        <v>501</v>
+        <v>463</v>
       </c>
       <c r="C64" s="3">
         <v>2</v>
@@ -9871,27 +9384,24 @@
         <v>6</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="H64" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I64">
-        <v>-1</v>
-      </c>
-      <c r="J64" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" spans="1:10">
+      <c r="I64" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="1:9">
       <c r="A65" s="16">
         <v>22016</v>
       </c>
       <c r="B65" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
       <c r="C65" s="3">
         <v>3</v>
@@ -9903,27 +9413,24 @@
         <v>12</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="H65" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I65">
-        <v>-1</v>
-      </c>
-      <c r="J65" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" spans="1:10">
+      <c r="I65" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="1:9">
       <c r="A66" s="16">
         <v>22016</v>
       </c>
       <c r="B66" t="s">
-        <v>503</v>
+        <v>465</v>
       </c>
       <c r="C66" s="3">
         <v>4</v>
@@ -9935,27 +9442,24 @@
         <v>24</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="H66" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I66">
-        <v>-1</v>
-      </c>
-      <c r="J66" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" spans="1:10">
+      <c r="I66" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="1:9">
       <c r="A67" s="16">
         <v>22017</v>
       </c>
       <c r="B67" t="s">
-        <v>504</v>
+        <v>466</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
@@ -9967,27 +9471,24 @@
         <v>0</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="H67" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I67">
-        <v>-1</v>
-      </c>
-      <c r="J67" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" spans="1:10">
+      <c r="I67" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:9">
       <c r="A68" s="16">
         <v>22017</v>
       </c>
       <c r="B68" t="s">
-        <v>505</v>
+        <v>467</v>
       </c>
       <c r="C68" s="3">
         <v>2</v>
@@ -9999,27 +9500,24 @@
         <v>6</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="H68" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I68">
-        <v>-1</v>
-      </c>
-      <c r="J68" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" spans="1:10">
+      <c r="I68" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:9">
       <c r="A69" s="16">
         <v>22017</v>
       </c>
       <c r="B69" t="s">
-        <v>506</v>
+        <v>468</v>
       </c>
       <c r="C69" s="3">
         <v>3</v>
@@ -10031,27 +9529,24 @@
         <v>12</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="H69" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I69">
-        <v>-1</v>
-      </c>
-      <c r="J69" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" spans="1:10">
+      <c r="I69" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="1:9">
       <c r="A70" s="16">
         <v>22017</v>
       </c>
       <c r="B70" t="s">
-        <v>507</v>
+        <v>469</v>
       </c>
       <c r="C70" s="3">
         <v>4</v>
@@ -10063,27 +9558,24 @@
         <v>24</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="H70" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I70">
-        <v>-1</v>
-      </c>
-      <c r="J70" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" spans="1:10">
+      <c r="I70" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="1:9">
       <c r="A71" s="16">
         <v>22018</v>
       </c>
       <c r="B71" t="s">
-        <v>508</v>
+        <v>470</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
@@ -10095,27 +9587,24 @@
         <v>0</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="H71" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I71">
-        <v>-1</v>
-      </c>
-      <c r="J71" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" spans="1:10">
+      <c r="I71" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="1:9">
       <c r="A72" s="16">
         <v>22018</v>
       </c>
       <c r="B72" t="s">
-        <v>509</v>
+        <v>471</v>
       </c>
       <c r="C72" s="3">
         <v>2</v>
@@ -10127,27 +9616,24 @@
         <v>6</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="H72" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I72">
-        <v>-1</v>
-      </c>
-      <c r="J72" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="73" customFormat="1" spans="1:10">
+      <c r="I72" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="1:9">
       <c r="A73" s="16">
         <v>22018</v>
       </c>
       <c r="B73" t="s">
-        <v>510</v>
+        <v>472</v>
       </c>
       <c r="C73" s="3">
         <v>3</v>
@@ -10159,27 +9645,24 @@
         <v>12</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="H73" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I73">
-        <v>-1</v>
-      </c>
-      <c r="J73" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" spans="1:10">
+      <c r="I73" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="1:9">
       <c r="A74" s="16">
         <v>22018</v>
       </c>
       <c r="B74" t="s">
-        <v>511</v>
+        <v>473</v>
       </c>
       <c r="C74" s="3">
         <v>4</v>
@@ -10191,19 +9674,16 @@
         <v>24</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="H74" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I74">
-        <v>-1</v>
-      </c>
-      <c r="J74" t="s">
-        <v>490</v>
+      <c r="I74" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -10219,10 +9699,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -10234,12 +9714,11 @@
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="16.8796296296296" customWidth="1"/>
     <col min="9" max="9" width="10.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.75" customWidth="1"/>
-    <col min="11" max="11" width="26" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
+    <col min="11" max="11" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10256,7 +9735,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>8</v>
@@ -10267,22 +9746,19 @@
       <c r="I1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="K1" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
@@ -10305,22 +9781,19 @@
       <c r="I2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J2" t="s">
-        <v>310</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="K2" s="13" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="4">
         <v>32001</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>515</v>
+        <v>477</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -10335,30 +9808,27 @@
         <v>0</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>516</v>
+        <v>478</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>517</v>
+        <v>479</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>518</v>
-      </c>
-      <c r="K3" t="s">
-        <v>519</v>
-      </c>
-      <c r="L3" s="15">
+        <v>480</v>
+      </c>
+      <c r="K3" s="15">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:11">
       <c r="A4" s="4">
         <v>32001</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>520</v>
+        <v>481</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -10373,30 +9843,27 @@
         <v>0</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>523</v>
-      </c>
-      <c r="K4" t="s">
-        <v>524</v>
-      </c>
-      <c r="L4" s="15">
+        <v>484</v>
+      </c>
+      <c r="K4" s="15">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:11">
       <c r="A5" s="4">
         <v>32001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
@@ -10411,30 +9878,27 @@
         <v>0</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J5" t="s">
-        <v>528</v>
-      </c>
-      <c r="K5" t="s">
-        <v>529</v>
-      </c>
-      <c r="L5" s="15">
+        <v>488</v>
+      </c>
+      <c r="K5" s="15">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:11">
       <c r="A6" s="4">
         <v>32001</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>530</v>
+        <v>489</v>
       </c>
       <c r="C6" s="3">
         <v>4</v>
@@ -10449,30 +9913,27 @@
         <v>0</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>531</v>
+        <v>490</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>532</v>
+        <v>491</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J6" t="s">
-        <v>533</v>
-      </c>
-      <c r="K6" t="s">
-        <v>534</v>
-      </c>
-      <c r="L6" s="15">
+        <v>492</v>
+      </c>
+      <c r="K6" s="15">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:11">
       <c r="A7" s="4">
         <v>32002</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>535</v>
+        <v>493</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -10487,30 +9948,27 @@
         <v>0</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>536</v>
+        <v>494</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>538</v>
-      </c>
-      <c r="K7" t="s">
-        <v>539</v>
-      </c>
-      <c r="L7" s="15">
+        <v>496</v>
+      </c>
+      <c r="K7" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:11">
       <c r="A8" s="4">
         <v>32002</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>540</v>
+        <v>497</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -10525,30 +9983,27 @@
         <v>0</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>541</v>
+        <v>498</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>542</v>
+        <v>499</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>543</v>
-      </c>
-      <c r="K8" t="s">
-        <v>544</v>
-      </c>
-      <c r="L8" s="15">
+        <v>500</v>
+      </c>
+      <c r="K8" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:11">
       <c r="A9" s="4">
         <v>32002</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>545</v>
+        <v>501</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
@@ -10563,30 +10018,27 @@
         <v>0</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>546</v>
+        <v>502</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>547</v>
+        <v>503</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>548</v>
-      </c>
-      <c r="K9" t="s">
-        <v>549</v>
-      </c>
-      <c r="L9" s="15">
+        <v>504</v>
+      </c>
+      <c r="K9" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:11">
       <c r="A10" s="4">
         <v>32002</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>550</v>
+        <v>505</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
@@ -10601,30 +10053,27 @@
         <v>0</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>551</v>
+        <v>506</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>552</v>
+        <v>507</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>553</v>
-      </c>
-      <c r="K10" t="s">
-        <v>554</v>
-      </c>
-      <c r="L10" s="15">
+        <v>508</v>
+      </c>
+      <c r="K10" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:11">
       <c r="A11" s="4">
         <v>32003</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>555</v>
+        <v>509</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -10639,30 +10088,27 @@
         <v>2</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>556</v>
+        <v>510</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>557</v>
+        <v>511</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J11" t="s">
-        <v>558</v>
-      </c>
-      <c r="K11" t="s">
-        <v>559</v>
-      </c>
-      <c r="L11" s="15">
+        <v>512</v>
+      </c>
+      <c r="K11" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:11">
       <c r="A12" s="4">
         <v>32003</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>560</v>
+        <v>513</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -10677,30 +10123,27 @@
         <v>2</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>561</v>
+        <v>514</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>562</v>
+        <v>515</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J12" t="s">
-        <v>563</v>
-      </c>
-      <c r="K12" t="s">
-        <v>564</v>
-      </c>
-      <c r="L12" s="15">
+        <v>516</v>
+      </c>
+      <c r="K12" s="15">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:11">
       <c r="A13" s="4">
         <v>32003</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>565</v>
+        <v>517</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -10715,30 +10158,27 @@
         <v>2</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>566</v>
+        <v>518</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>567</v>
+        <v>519</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J13" t="s">
-        <v>568</v>
-      </c>
-      <c r="K13" t="s">
-        <v>569</v>
-      </c>
-      <c r="L13" s="15">
+        <v>520</v>
+      </c>
+      <c r="K13" s="15">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:11">
       <c r="A14" s="4">
         <v>32003</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>570</v>
+        <v>521</v>
       </c>
       <c r="C14" s="3">
         <v>4</v>
@@ -10753,30 +10193,27 @@
         <v>2</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>571</v>
+        <v>522</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>572</v>
+        <v>523</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J14" t="s">
-        <v>573</v>
-      </c>
-      <c r="K14" t="s">
-        <v>574</v>
-      </c>
-      <c r="L14" s="15">
+        <v>524</v>
+      </c>
+      <c r="K14" s="15">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:11">
       <c r="A15" s="4">
         <v>32004</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -10791,30 +10228,27 @@
         <v>2</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>576</v>
+        <v>526</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>577</v>
+        <v>527</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J15" t="s">
-        <v>578</v>
-      </c>
-      <c r="K15" t="s">
-        <v>579</v>
-      </c>
-      <c r="L15" s="15">
+        <v>528</v>
+      </c>
+      <c r="K15" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:11">
       <c r="A16" s="4">
         <v>32004</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>580</v>
+        <v>529</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -10829,30 +10263,27 @@
         <v>2</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>581</v>
+        <v>530</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>582</v>
+        <v>531</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J16" t="s">
-        <v>583</v>
-      </c>
-      <c r="K16" t="s">
-        <v>584</v>
-      </c>
-      <c r="L16" s="15">
+        <v>532</v>
+      </c>
+      <c r="K16" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:11">
       <c r="A17" s="4">
         <v>32004</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>585</v>
+        <v>533</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
@@ -10867,30 +10298,27 @@
         <v>2</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>586</v>
+        <v>534</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>587</v>
+        <v>535</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J17" t="s">
-        <v>588</v>
-      </c>
-      <c r="K17" t="s">
-        <v>589</v>
-      </c>
-      <c r="L17" s="15">
+        <v>536</v>
+      </c>
+      <c r="K17" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:11">
       <c r="A18" s="4">
         <v>32004</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>590</v>
+        <v>537</v>
       </c>
       <c r="C18" s="3">
         <v>4</v>
@@ -10905,30 +10333,27 @@
         <v>2</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>591</v>
+        <v>538</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>592</v>
+        <v>539</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J18" t="s">
-        <v>593</v>
-      </c>
-      <c r="K18" t="s">
-        <v>594</v>
-      </c>
-      <c r="L18" s="15">
+        <v>540</v>
+      </c>
+      <c r="K18" s="15">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:11">
       <c r="A19" s="4">
         <v>32005</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>595</v>
+        <v>541</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -10943,30 +10368,27 @@
         <v>0</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>596</v>
+        <v>542</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>597</v>
+        <v>543</v>
       </c>
       <c r="I19" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J19" t="s">
-        <v>598</v>
-      </c>
-      <c r="K19" t="s">
-        <v>599</v>
-      </c>
-      <c r="L19" s="15">
+        <v>544</v>
+      </c>
+      <c r="K19" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:11">
       <c r="A20" s="4">
         <v>32005</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>600</v>
+        <v>545</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
@@ -10981,30 +10403,27 @@
         <v>0</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>601</v>
+        <v>546</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>602</v>
+        <v>547</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J20" t="s">
-        <v>603</v>
-      </c>
-      <c r="K20" t="s">
-        <v>604</v>
-      </c>
-      <c r="L20" s="15">
+        <v>548</v>
+      </c>
+      <c r="K20" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:11">
       <c r="A21" s="4">
         <v>32005</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>605</v>
+        <v>549</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
@@ -11019,30 +10438,27 @@
         <v>0</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>606</v>
+        <v>550</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>607</v>
+        <v>551</v>
       </c>
       <c r="I21" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J21" t="s">
-        <v>608</v>
-      </c>
-      <c r="K21" t="s">
-        <v>609</v>
-      </c>
-      <c r="L21" s="15">
+        <v>552</v>
+      </c>
+      <c r="K21" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:11">
       <c r="A22" s="4">
         <v>32005</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>610</v>
+        <v>553</v>
       </c>
       <c r="C22" s="3">
         <v>4</v>
@@ -11057,30 +10473,27 @@
         <v>0</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>611</v>
+        <v>554</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>612</v>
+        <v>555</v>
       </c>
       <c r="I22" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J22" t="s">
-        <v>613</v>
-      </c>
-      <c r="K22" t="s">
-        <v>614</v>
-      </c>
-      <c r="L22" s="15">
+        <v>556</v>
+      </c>
+      <c r="K22" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:11">
       <c r="A23" s="4">
         <v>32006</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>615</v>
+        <v>557</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -11095,30 +10508,27 @@
         <v>2</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>616</v>
+        <v>558</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>617</v>
+        <v>559</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="L23" s="15">
+        <v>560</v>
+      </c>
+      <c r="K23" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:11">
       <c r="A24" s="4">
         <v>32006</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>620</v>
+        <v>561</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
@@ -11133,30 +10543,27 @@
         <v>2</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>621</v>
+        <v>562</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>622</v>
+        <v>563</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="L24" s="15">
+        <v>564</v>
+      </c>
+      <c r="K24" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:11">
       <c r="A25" s="4">
         <v>32006</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>625</v>
+        <v>565</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
@@ -11171,30 +10578,27 @@
         <v>2</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>626</v>
+        <v>566</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>627</v>
+        <v>567</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="L25" s="15">
+        <v>568</v>
+      </c>
+      <c r="K25" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:11">
       <c r="A26" s="4">
         <v>32006</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
       <c r="C26" s="3">
         <v>4</v>
@@ -11209,30 +10613,27 @@
         <v>2</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>631</v>
+        <v>570</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>632</v>
+        <v>571</v>
       </c>
       <c r="I26" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="L26" s="15">
+        <v>572</v>
+      </c>
+      <c r="K26" s="15">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:11">
       <c r="A27" s="4">
         <v>32007</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -11247,30 +10648,27 @@
         <v>0</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>636</v>
+        <v>574</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>637</v>
+        <v>575</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J27" t="s">
-        <v>638</v>
-      </c>
-      <c r="K27" t="s">
-        <v>639</v>
-      </c>
-      <c r="L27" s="15">
+        <v>576</v>
+      </c>
+      <c r="K27" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:11">
       <c r="A28" s="4">
         <v>32007</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>640</v>
+        <v>577</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
@@ -11285,30 +10683,27 @@
         <v>0</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>641</v>
+        <v>578</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>642</v>
+        <v>579</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J28" t="s">
-        <v>643</v>
-      </c>
-      <c r="K28" t="s">
-        <v>644</v>
-      </c>
-      <c r="L28" s="15">
+        <v>580</v>
+      </c>
+      <c r="K28" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:11">
       <c r="A29" s="4">
         <v>32007</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>645</v>
+        <v>581</v>
       </c>
       <c r="C29" s="3">
         <v>3</v>
@@ -11323,30 +10718,27 @@
         <v>0</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>646</v>
+        <v>582</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>647</v>
+        <v>583</v>
       </c>
       <c r="I29" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J29" t="s">
-        <v>648</v>
-      </c>
-      <c r="K29" t="s">
-        <v>649</v>
-      </c>
-      <c r="L29" s="15">
+        <v>584</v>
+      </c>
+      <c r="K29" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:11">
       <c r="A30" s="4">
         <v>32007</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>650</v>
+        <v>585</v>
       </c>
       <c r="C30" s="3">
         <v>4</v>
@@ -11361,30 +10753,27 @@
         <v>0</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>651</v>
+        <v>586</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>652</v>
+        <v>587</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J30" t="s">
-        <v>653</v>
-      </c>
-      <c r="K30" t="s">
-        <v>654</v>
-      </c>
-      <c r="L30" s="15">
+        <v>588</v>
+      </c>
+      <c r="K30" s="15">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:11">
       <c r="A31" s="4">
         <v>32008</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>655</v>
+        <v>589</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -11399,30 +10788,27 @@
         <v>0</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>656</v>
+        <v>590</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>657</v>
+        <v>591</v>
       </c>
       <c r="I31" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J31" t="s">
-        <v>658</v>
-      </c>
-      <c r="K31" t="s">
-        <v>659</v>
-      </c>
-      <c r="L31" s="15">
+        <v>592</v>
+      </c>
+      <c r="K31" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:11">
       <c r="A32" s="4">
         <v>32008</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>660</v>
+        <v>593</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
@@ -11437,30 +10823,27 @@
         <v>0</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>661</v>
+        <v>594</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>662</v>
+        <v>595</v>
       </c>
       <c r="I32" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J32" t="s">
-        <v>663</v>
-      </c>
-      <c r="K32" t="s">
-        <v>664</v>
-      </c>
-      <c r="L32" s="15">
+        <v>596</v>
+      </c>
+      <c r="K32" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:11">
       <c r="A33" s="4">
         <v>32008</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>665</v>
+        <v>597</v>
       </c>
       <c r="C33" s="3">
         <v>3</v>
@@ -11475,30 +10858,27 @@
         <v>0</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>666</v>
+        <v>598</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>667</v>
+        <v>599</v>
       </c>
       <c r="I33" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J33" t="s">
-        <v>668</v>
-      </c>
-      <c r="K33" t="s">
-        <v>669</v>
-      </c>
-      <c r="L33" s="15">
+        <v>600</v>
+      </c>
+      <c r="K33" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:11">
       <c r="A34" s="4">
         <v>32008</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>670</v>
+        <v>601</v>
       </c>
       <c r="C34" s="3">
         <v>4</v>
@@ -11513,46 +10893,303 @@
         <v>0</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>671</v>
+        <v>602</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>672</v>
+        <v>603</v>
       </c>
       <c r="I34" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J34" t="s">
-        <v>673</v>
-      </c>
-      <c r="K34" t="s">
-        <v>674</v>
-      </c>
-      <c r="L34" s="15">
+        <v>604</v>
+      </c>
+      <c r="K34" s="15">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="7:8">
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="7:8">
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="7:8">
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="7:8">
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="7:8">
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+    <row r="35" spans="1:11">
+      <c r="A35" s="4">
+        <v>32009</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="6">
+        <v>5</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J35" t="s">
+        <v>592</v>
+      </c>
+      <c r="K35" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="4">
+        <v>32009</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2</v>
+      </c>
+      <c r="D36" s="6">
+        <v>22000</v>
+      </c>
+      <c r="E36" s="6">
+        <v>10</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J36" t="s">
+        <v>596</v>
+      </c>
+      <c r="K36" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="4">
+        <v>32009</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3</v>
+      </c>
+      <c r="D37" s="6">
+        <v>50000</v>
+      </c>
+      <c r="E37" s="6">
+        <v>15</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37" t="s">
+        <v>600</v>
+      </c>
+      <c r="K37" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="4">
+        <v>32009</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="C38" s="3">
+        <v>4</v>
+      </c>
+      <c r="D38" s="6">
+        <v>260000</v>
+      </c>
+      <c r="E38" s="6">
+        <v>20</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38" t="s">
+        <v>604</v>
+      </c>
+      <c r="K38" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="4">
+        <v>32010</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1500</v>
+      </c>
+      <c r="E39" s="6">
+        <v>5</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39" t="s">
+        <v>592</v>
+      </c>
+      <c r="K39" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="4">
+        <v>32010</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2</v>
+      </c>
+      <c r="D40" s="6">
+        <v>22000</v>
+      </c>
+      <c r="E40" s="6">
+        <v>10</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J40" t="s">
+        <v>596</v>
+      </c>
+      <c r="K40" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="4">
+        <v>32010</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="C41" s="3">
+        <v>3</v>
+      </c>
+      <c r="D41" s="6">
+        <v>50000</v>
+      </c>
+      <c r="E41" s="6">
+        <v>15</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J41" t="s">
+        <v>600</v>
+      </c>
+      <c r="K41" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="4">
+        <v>32010</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="C42" s="3">
+        <v>4</v>
+      </c>
+      <c r="D42" s="6">
+        <v>260000</v>
+      </c>
+      <c r="E42" s="6">
+        <v>20</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" t="s">
+        <v>604</v>
+      </c>
+      <c r="K42" s="15">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L34">
+  <autoFilter ref="A2:K42">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/project/OtherAssets/Excle/A_Default/建筑.xlsx
+++ b/project/OtherAssets/Excle/A_Default/建筑.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Stall" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
     <t>stall_2001_food</t>
   </si>
   <si>
-    <t>披萨店</t>
+    <t>Pizza</t>
   </si>
   <si>
     <t>shop_shtall_20011</t>
@@ -251,7 +251,7 @@
     <t>stall_2002_food</t>
   </si>
   <si>
-    <t>巨无霸取餐台</t>
+    <t>BigMac</t>
   </si>
   <si>
     <t>shop_shtall_20021</t>
@@ -320,7 +320,7 @@
     <t>stall_2003_food</t>
   </si>
   <si>
-    <t>寿司取餐台</t>
+    <t>Sushi</t>
   </si>
   <si>
     <t>shop_shtall_20031</t>
@@ -395,7 +395,7 @@
     <t>stall_2004_food</t>
   </si>
   <si>
-    <t>海鲜摊</t>
+    <t>Seafood</t>
   </si>
   <si>
     <t>shop_shtall_20041</t>
@@ -455,7 +455,7 @@
     <t>stall_2005_food</t>
   </si>
   <si>
-    <t>冰淇淋自助机</t>
+    <t>IceCream</t>
   </si>
   <si>
     <t>shop_shtall_20051</t>
@@ -503,7 +503,7 @@
     <t>stall_2006_food</t>
   </si>
   <si>
-    <t>咖啡自助台</t>
+    <t>Coffee</t>
   </si>
   <si>
     <t>shop_shtall_20061</t>
@@ -581,7 +581,7 @@
     <t>stall_2007_food</t>
   </si>
   <si>
-    <t>吧台标题</t>
+    <t>BarCounter</t>
   </si>
   <si>
     <t>shop_shtall_20071</t>
@@ -623,7 +623,7 @@
     <t>stall_2008_food</t>
   </si>
   <si>
-    <t>糖果摊</t>
+    <t>Candy</t>
   </si>
   <si>
     <t>shop_shtall_20081</t>
@@ -680,7 +680,7 @@
     <t>stall_2009_food</t>
   </si>
   <si>
-    <t>巧克力摊</t>
+    <t>Chocolate</t>
   </si>
   <si>
     <t>shop_shtall_20091</t>
@@ -737,7 +737,7 @@
     <t>stall_2010_food</t>
   </si>
   <si>
-    <t>果汁机</t>
+    <t>Juice</t>
   </si>
   <si>
     <t>shop_shtall_20101</t>
@@ -779,7 +779,7 @@
     <t>stall_2011_food</t>
   </si>
   <si>
-    <t>甜点柜</t>
+    <t>Dessert</t>
   </si>
   <si>
     <t>shop_shtall_20111</t>
@@ -821,7 +821,7 @@
     <t>stall_2012_food</t>
   </si>
   <si>
-    <t>可乐自动贩卖机</t>
+    <t>Cola</t>
   </si>
   <si>
     <t>shop_shtall_20121</t>
@@ -863,7 +863,7 @@
     <t>stall_2013_food</t>
   </si>
   <si>
-    <t>自助火锅</t>
+    <t>HotPot</t>
   </si>
   <si>
     <t>shop_shtall_20131</t>
@@ -905,7 +905,7 @@
     <t>stall_2014_food</t>
   </si>
   <si>
-    <t>自助蔬菜沙拉</t>
+    <t>Salad</t>
   </si>
   <si>
     <t>shop_shtall_20141</t>
@@ -2256,9 +2256,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -2285,25 +2285,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2314,9 +2300,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2331,7 +2324,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2345,10 +2368,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2361,29 +2392,13 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2393,22 +2408,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2441,109 +2441,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2561,7 +2465,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2573,55 +2573,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2650,21 +2650,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2676,6 +2661,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2698,26 +2692,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2739,6 +2730,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2753,10 +2753,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2765,133 +2765,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3301,34 +3301,34 @@
   <sheetPr/>
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M55" sqref="M55:M58"/>
+      <selection pane="topRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.5" style="17" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="3" customWidth="1"/>
-    <col min="3" max="5" width="14.6296296296296" style="3" customWidth="1"/>
+    <col min="3" max="5" width="14.6333333333333" style="3" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.6296296296296" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.3796296296296" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.6333333333333" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.3833333333333" style="3" customWidth="1"/>
     <col min="9" max="9" width="15" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.1296296296296" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.1296296296296" style="11" customWidth="1"/>
-    <col min="12" max="13" width="20.3796296296296" style="11" customWidth="1"/>
-    <col min="14" max="14" width="18.6296296296296" style="3" customWidth="1"/>
-    <col min="15" max="15" width="17.1296296296296" style="3" customWidth="1"/>
-    <col min="16" max="16" width="25.3796296296296" style="3" customWidth="1"/>
-    <col min="17" max="17" width="31.3796296296296" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.1333333333333" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.1333333333333" style="11" customWidth="1"/>
+    <col min="12" max="13" width="20.3833333333333" style="11" customWidth="1"/>
+    <col min="14" max="14" width="18.6333333333333" style="3" customWidth="1"/>
+    <col min="15" max="15" width="17.1333333333333" style="3" customWidth="1"/>
+    <col min="16" max="16" width="25.3833333333333" style="3" customWidth="1"/>
+    <col min="17" max="17" width="31.3833333333333" style="3" customWidth="1"/>
     <col min="18" max="18" width="29.75" style="3" customWidth="1"/>
-    <col min="19" max="19" width="20.3796296296296" style="3" customWidth="1"/>
-    <col min="20" max="20" width="21.1296296296296" style="3" customWidth="1"/>
-    <col min="21" max="21" width="17.1296296296296" style="3" customWidth="1"/>
+    <col min="19" max="19" width="20.3833333333333" style="3" customWidth="1"/>
+    <col min="20" max="20" width="21.1333333333333" style="3" customWidth="1"/>
+    <col min="21" max="21" width="17.1333333333333" style="3" customWidth="1"/>
     <col min="22" max="22" width="14" style="3" customWidth="1"/>
-    <col min="23" max="23" width="15.8796296296296" style="3" customWidth="1"/>
+    <col min="23" max="23" width="15.8833333333333" style="3" customWidth="1"/>
     <col min="24" max="24" width="17" style="3" customWidth="1"/>
     <col min="25" max="25" width="14" style="3" customWidth="1"/>
     <col min="26" max="16384" width="9" style="3"/>
@@ -7821,21 +7821,21 @@
   <sheetPr/>
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="22.1296296296296" customWidth="1"/>
+    <col min="1" max="2" width="22.1333333333333" customWidth="1"/>
     <col min="4" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="18.25" customWidth="1"/>
-    <col min="7" max="7" width="19.1296296296296" customWidth="1"/>
-    <col min="8" max="8" width="16.8796296296296" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1333333333333" customWidth="1"/>
+    <col min="8" max="8" width="16.8833333333333" style="1" customWidth="1"/>
     <col min="9" max="9" width="26.75" customWidth="1"/>
     <col min="10" max="10" width="28.5" customWidth="1"/>
-    <col min="11" max="11" width="21.3796296296296" customWidth="1"/>
-    <col min="12" max="12" width="20.8796296296296" customWidth="1"/>
+    <col min="11" max="11" width="21.3833333333333" customWidth="1"/>
+    <col min="12" max="12" width="20.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -10225,14 +10225,14 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.1296296296296" customWidth="1"/>
-    <col min="5" max="5" width="19.6296296296296" customWidth="1"/>
-    <col min="6" max="6" width="17.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="18.1333333333333" customWidth="1"/>
+    <col min="5" max="5" width="19.6333333333333" customWidth="1"/>
+    <col min="6" max="6" width="17.8833333333333" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="16.8796296296296" customWidth="1"/>
+    <col min="8" max="8" width="16.8833333333333" customWidth="1"/>
     <col min="9" max="9" width="10.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="22.75" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>

--- a/project/OtherAssets/Excle/A_Default/建筑.xlsx
+++ b/project/OtherAssets/Excle/A_Default/建筑.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="18468" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stall" sheetId="1" r:id="rId1"/>
@@ -13,15 +13,15 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stall!$A$2:$Y$58</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Adorn!$A$2:$L$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Equip!$A$3:$J$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Adorn!$A$2:$K$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Equip!$A$3:$I$38</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="605">
   <si>
     <t>ID</t>
   </si>
@@ -170,7 +170,7 @@
     <t>stall_2001_food</t>
   </si>
   <si>
-    <t>Pizza</t>
+    <t>披萨店</t>
   </si>
   <si>
     <t>shop_shtall_20011</t>
@@ -251,7 +251,7 @@
     <t>stall_2002_food</t>
   </si>
   <si>
-    <t>BigMac</t>
+    <t>巨无霸取餐台</t>
   </si>
   <si>
     <t>shop_shtall_20021</t>
@@ -320,7 +320,7 @@
     <t>stall_2003_food</t>
   </si>
   <si>
-    <t>Sushi</t>
+    <t>寿司取餐台</t>
   </si>
   <si>
     <t>shop_shtall_20031</t>
@@ -395,7 +395,7 @@
     <t>stall_2004_food</t>
   </si>
   <si>
-    <t>Seafood</t>
+    <t>海鲜摊</t>
   </si>
   <si>
     <t>shop_shtall_20041</t>
@@ -455,7 +455,7 @@
     <t>stall_2005_food</t>
   </si>
   <si>
-    <t>IceCream</t>
+    <t>冰淇淋自助机</t>
   </si>
   <si>
     <t>shop_shtall_20051</t>
@@ -503,7 +503,7 @@
     <t>stall_2006_food</t>
   </si>
   <si>
-    <t>Coffee</t>
+    <t>咖啡自助台</t>
   </si>
   <si>
     <t>shop_shtall_20061</t>
@@ -581,7 +581,7 @@
     <t>stall_2007_food</t>
   </si>
   <si>
-    <t>BarCounter</t>
+    <t>吧台标题</t>
   </si>
   <si>
     <t>shop_shtall_20071</t>
@@ -623,7 +623,7 @@
     <t>stall_2008_food</t>
   </si>
   <si>
-    <t>Candy</t>
+    <t>糖果摊</t>
   </si>
   <si>
     <t>shop_shtall_20081</t>
@@ -680,7 +680,7 @@
     <t>stall_2009_food</t>
   </si>
   <si>
-    <t>Chocolate</t>
+    <t>巧克力摊</t>
   </si>
   <si>
     <t>shop_shtall_20091</t>
@@ -737,7 +737,7 @@
     <t>stall_2010_food</t>
   </si>
   <si>
-    <t>Juice</t>
+    <t>果汁机</t>
   </si>
   <si>
     <t>shop_shtall_20101</t>
@@ -779,7 +779,7 @@
     <t>stall_2011_food</t>
   </si>
   <si>
-    <t>Dessert</t>
+    <t>甜点柜</t>
   </si>
   <si>
     <t>shop_shtall_20111</t>
@@ -821,7 +821,7 @@
     <t>stall_2012_food</t>
   </si>
   <si>
-    <t>Cola</t>
+    <t>可乐自动贩卖机</t>
   </si>
   <si>
     <t>shop_shtall_20121</t>
@@ -863,7 +863,7 @@
     <t>stall_2013_food</t>
   </si>
   <si>
-    <t>HotPot</t>
+    <t>自助火锅</t>
   </si>
   <si>
     <t>shop_shtall_20131</t>
@@ -905,7 +905,7 @@
     <t>stall_2014_food</t>
   </si>
   <si>
-    <t>Salad</t>
+    <t>自助蔬菜沙拉</t>
   </si>
   <si>
     <t>shop_shtall_20141</t>
@@ -947,15 +947,9 @@
     <t>备注</t>
   </si>
   <si>
-    <t>资源链接</t>
-  </si>
-  <si>
     <t>bz_s</t>
   </si>
   <si>
-    <t>Path_s</t>
-  </si>
-  <si>
     <t>素雅方桌</t>
   </si>
   <si>
@@ -965,9 +959,6 @@
     <t>8_2</t>
   </si>
   <si>
-    <t>facility_20011</t>
-  </si>
-  <si>
     <t>shop_facility_20011</t>
   </si>
   <si>
@@ -980,9 +971,6 @@
     <t>8_3</t>
   </si>
   <si>
-    <t>facility_20012</t>
-  </si>
-  <si>
     <t>shop_facility_20012</t>
   </si>
   <si>
@@ -995,9 +983,6 @@
     <t>8_4</t>
   </si>
   <si>
-    <t>facility_20013</t>
-  </si>
-  <si>
     <t>shop_facility_20013</t>
   </si>
   <si>
@@ -1010,9 +995,6 @@
     <t>8_5</t>
   </si>
   <si>
-    <t>facility_20014</t>
-  </si>
-  <si>
     <t>shop_facility_20014</t>
   </si>
   <si>
@@ -1025,9 +1007,6 @@
     <t>8_7</t>
   </si>
   <si>
-    <t>facility_20021</t>
-  </si>
-  <si>
     <t>shop_facility_20021</t>
   </si>
   <si>
@@ -1040,9 +1019,6 @@
     <t>8_8</t>
   </si>
   <si>
-    <t>facility_20022</t>
-  </si>
-  <si>
     <t>shop_facility_20022</t>
   </si>
   <si>
@@ -1055,9 +1031,6 @@
     <t>8_9</t>
   </si>
   <si>
-    <t>facility_20023</t>
-  </si>
-  <si>
     <t>shop_facility_20023</t>
   </si>
   <si>
@@ -1070,9 +1043,6 @@
     <t>8_10</t>
   </si>
   <si>
-    <t>facility_20024</t>
-  </si>
-  <si>
     <t>shop_facility_20024</t>
   </si>
   <si>
@@ -1085,9 +1055,6 @@
     <t>8_12</t>
   </si>
   <si>
-    <t>facility_20031</t>
-  </si>
-  <si>
     <t>shop_facility_20031</t>
   </si>
   <si>
@@ -1100,9 +1067,6 @@
     <t>8_13</t>
   </si>
   <si>
-    <t>facility_20032</t>
-  </si>
-  <si>
     <t>shop_facility_20032</t>
   </si>
   <si>
@@ -1115,9 +1079,6 @@
     <t>8_14</t>
   </si>
   <si>
-    <t>facility_20033</t>
-  </si>
-  <si>
     <t>shop_facility_20033</t>
   </si>
   <si>
@@ -1130,9 +1091,6 @@
     <t>8_15</t>
   </si>
   <si>
-    <t>facility_20034</t>
-  </si>
-  <si>
     <t>shop_facility_20034</t>
   </si>
   <si>
@@ -1145,9 +1103,6 @@
     <t>8_17</t>
   </si>
   <si>
-    <t>facility_20051</t>
-  </si>
-  <si>
     <t>shop_facility_20041</t>
   </si>
   <si>
@@ -1160,9 +1115,6 @@
     <t>8_18</t>
   </si>
   <si>
-    <t>facility_20052</t>
-  </si>
-  <si>
     <t>shop_facility_20042</t>
   </si>
   <si>
@@ -1175,9 +1127,6 @@
     <t>8_19</t>
   </si>
   <si>
-    <t>facility_20053</t>
-  </si>
-  <si>
     <t>shop_facility_20043</t>
   </si>
   <si>
@@ -1190,9 +1139,6 @@
     <t>8_20</t>
   </si>
   <si>
-    <t>facility_20054</t>
-  </si>
-  <si>
     <t>shop_facility_20044</t>
   </si>
   <si>
@@ -1205,9 +1151,6 @@
     <t>8_22</t>
   </si>
   <si>
-    <t>facility_20061</t>
-  </si>
-  <si>
     <t>shop_facility_20051</t>
   </si>
   <si>
@@ -1220,9 +1163,6 @@
     <t>8_23</t>
   </si>
   <si>
-    <t>facility_20062</t>
-  </si>
-  <si>
     <t>shop_facility_20052</t>
   </si>
   <si>
@@ -1235,9 +1175,6 @@
     <t>8_24</t>
   </si>
   <si>
-    <t>facility_20063</t>
-  </si>
-  <si>
     <t>shop_facility_20053</t>
   </si>
   <si>
@@ -1250,9 +1187,6 @@
     <t>8_25</t>
   </si>
   <si>
-    <t>facility_20064</t>
-  </si>
-  <si>
     <t>shop_facility_20054</t>
   </si>
   <si>
@@ -1265,9 +1199,6 @@
     <t>8_27</t>
   </si>
   <si>
-    <t>facility_20071</t>
-  </si>
-  <si>
     <t>shop_facility_20061</t>
   </si>
   <si>
@@ -1280,9 +1211,6 @@
     <t>8_28</t>
   </si>
   <si>
-    <t>facility_20072</t>
-  </si>
-  <si>
     <t>shop_facility_20062</t>
   </si>
   <si>
@@ -1295,9 +1223,6 @@
     <t>8_29</t>
   </si>
   <si>
-    <t>facility_20073</t>
-  </si>
-  <si>
     <t>shop_facility_20063</t>
   </si>
   <si>
@@ -1310,9 +1235,6 @@
     <t>8_30</t>
   </si>
   <si>
-    <t>facility_20074</t>
-  </si>
-  <si>
     <t>shop_facility_20064</t>
   </si>
   <si>
@@ -1325,9 +1247,6 @@
     <t>8_32</t>
   </si>
   <si>
-    <t>facility_20081</t>
-  </si>
-  <si>
     <t>shop_facility_20071</t>
   </si>
   <si>
@@ -1340,9 +1259,6 @@
     <t>8_33</t>
   </si>
   <si>
-    <t>facility_20082</t>
-  </si>
-  <si>
     <t>shop_facility_20072</t>
   </si>
   <si>
@@ -1355,9 +1271,6 @@
     <t>8_34</t>
   </si>
   <si>
-    <t>facility_20083</t>
-  </si>
-  <si>
     <t>shop_facility_20073</t>
   </si>
   <si>
@@ -1370,9 +1283,6 @@
     <t>8_35</t>
   </si>
   <si>
-    <t>facility_20084</t>
-  </si>
-  <si>
     <t>shop_facility_20074</t>
   </si>
   <si>
@@ -1385,9 +1295,6 @@
     <t>8_37</t>
   </si>
   <si>
-    <t>facility_20091</t>
-  </si>
-  <si>
     <t>shop_facility_20081</t>
   </si>
   <si>
@@ -1400,9 +1307,6 @@
     <t>8_38</t>
   </si>
   <si>
-    <t>facility_20092</t>
-  </si>
-  <si>
     <t>shop_facility_20082</t>
   </si>
   <si>
@@ -1415,9 +1319,6 @@
     <t>8_39</t>
   </si>
   <si>
-    <t>facility_20093</t>
-  </si>
-  <si>
     <t>shop_facility_20083</t>
   </si>
   <si>
@@ -1430,9 +1331,6 @@
     <t>8_40</t>
   </si>
   <si>
-    <t>facility_20094</t>
-  </si>
-  <si>
     <t>shop_facility_20084</t>
   </si>
   <si>
@@ -1445,9 +1343,6 @@
     <t>8_42</t>
   </si>
   <si>
-    <t>facility_20000011</t>
-  </si>
-  <si>
     <t>shop_facility_20091</t>
   </si>
   <si>
@@ -1460,9 +1355,6 @@
     <t>8_43</t>
   </si>
   <si>
-    <t>facility_20000012</t>
-  </si>
-  <si>
     <t>shop_facility_20092</t>
   </si>
   <si>
@@ -1475,9 +1367,6 @@
     <t>8_44</t>
   </si>
   <si>
-    <t>facility_20000013</t>
-  </si>
-  <si>
     <t>shop_facility_20093</t>
   </si>
   <si>
@@ -1490,9 +1379,6 @@
     <t>8_45</t>
   </si>
   <si>
-    <t>facility_20000014</t>
-  </si>
-  <si>
     <t>shop_facility_20094</t>
   </si>
   <si>
@@ -1577,9 +1463,6 @@
     <t>9_2</t>
   </si>
   <si>
-    <t>decoration_20021</t>
-  </si>
-  <si>
     <t>shop_decoration_20011</t>
   </si>
   <si>
@@ -1592,9 +1475,6 @@
     <t>9_3</t>
   </si>
   <si>
-    <t>decoration_20022</t>
-  </si>
-  <si>
     <t>shop_decoration_20012</t>
   </si>
   <si>
@@ -1607,9 +1487,6 @@
     <t>9_4</t>
   </si>
   <si>
-    <t>decoration_20023</t>
-  </si>
-  <si>
     <t>shop_decoration_20013</t>
   </si>
   <si>
@@ -1622,9 +1499,6 @@
     <t>9_5</t>
   </si>
   <si>
-    <t>decoration_20024</t>
-  </si>
-  <si>
     <t>shop_decoration_20014</t>
   </si>
   <si>
@@ -1637,9 +1511,6 @@
     <t>9_7</t>
   </si>
   <si>
-    <t>decoration_20051</t>
-  </si>
-  <si>
     <t>shop_decoration_20021</t>
   </si>
   <si>
@@ -1652,9 +1523,6 @@
     <t>9_8</t>
   </si>
   <si>
-    <t>decoration_20052</t>
-  </si>
-  <si>
     <t>shop_decoration_20022</t>
   </si>
   <si>
@@ -1667,9 +1535,6 @@
     <t>9_9</t>
   </si>
   <si>
-    <t>decoration_20053</t>
-  </si>
-  <si>
     <t>shop_decoration_20023</t>
   </si>
   <si>
@@ -1682,9 +1547,6 @@
     <t>9_10</t>
   </si>
   <si>
-    <t>decoration_20054</t>
-  </si>
-  <si>
     <t>shop_decoration_20024</t>
   </si>
   <si>
@@ -1697,9 +1559,6 @@
     <t>9_12</t>
   </si>
   <si>
-    <t>decoration_20071</t>
-  </si>
-  <si>
     <t>shop_decoration_20031</t>
   </si>
   <si>
@@ -1712,9 +1571,6 @@
     <t>9_13</t>
   </si>
   <si>
-    <t>decoration_20072</t>
-  </si>
-  <si>
     <t>shop_decoration_20032</t>
   </si>
   <si>
@@ -1727,9 +1583,6 @@
     <t>9_14</t>
   </si>
   <si>
-    <t>decoration_20073</t>
-  </si>
-  <si>
     <t>shop_decoration_20033</t>
   </si>
   <si>
@@ -1742,9 +1595,6 @@
     <t>9_15</t>
   </si>
   <si>
-    <t>decoration_20074</t>
-  </si>
-  <si>
     <t>shop_decoration_20034</t>
   </si>
   <si>
@@ -1757,9 +1607,6 @@
     <t>9_17</t>
   </si>
   <si>
-    <t>decoration_20081</t>
-  </si>
-  <si>
     <t>shop_decoration_20041</t>
   </si>
   <si>
@@ -1772,9 +1619,6 @@
     <t>9_18</t>
   </si>
   <si>
-    <t>decoration_20082</t>
-  </si>
-  <si>
     <t>shop_decoration_20042</t>
   </si>
   <si>
@@ -1787,9 +1631,6 @@
     <t>9_19</t>
   </si>
   <si>
-    <t>decoration_20083</t>
-  </si>
-  <si>
     <t>shop_decoration_20043</t>
   </si>
   <si>
@@ -1802,9 +1643,6 @@
     <t>9_20</t>
   </si>
   <si>
-    <t>decoration_20084</t>
-  </si>
-  <si>
     <t>shop_decoration_20044</t>
   </si>
   <si>
@@ -1817,9 +1655,6 @@
     <t>9_22</t>
   </si>
   <si>
-    <t>decoration_20091</t>
-  </si>
-  <si>
     <t>shop_decoration_20051</t>
   </si>
   <si>
@@ -1832,9 +1667,6 @@
     <t>9_23</t>
   </si>
   <si>
-    <t>decoration_20092</t>
-  </si>
-  <si>
     <t>shop_decoration_20052</t>
   </si>
   <si>
@@ -1847,9 +1679,6 @@
     <t>9_24</t>
   </si>
   <si>
-    <t>decoration_20093</t>
-  </si>
-  <si>
     <t>shop_decoration_20053</t>
   </si>
   <si>
@@ -1862,9 +1691,6 @@
     <t>9_25</t>
   </si>
   <si>
-    <t>decoration_20094</t>
-  </si>
-  <si>
     <t>shop_decoration_20054</t>
   </si>
   <si>
@@ -1875,38 +1701,6 @@
   </si>
   <si>
     <t>9_27</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>decoration_200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1958,38 +1752,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>decoration_200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>shop_decoration_200</t>
     </r>
     <r>
@@ -2021,9 +1783,6 @@
   </si>
   <si>
     <t>9_29</t>
-  </si>
-  <si>
-    <t>decoration_20063</t>
   </si>
   <si>
     <r>
@@ -2075,38 +1834,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>decoration_200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>shop_decoration_200</t>
     </r>
     <r>
@@ -2140,9 +1867,6 @@
     <t>9_32</t>
   </si>
   <si>
-    <t>decoration_200101</t>
-  </si>
-  <si>
     <t>shop_decoration_20071</t>
   </si>
   <si>
@@ -2155,9 +1879,6 @@
     <t>9_33</t>
   </si>
   <si>
-    <t>decoration_200102</t>
-  </si>
-  <si>
     <t>shop_decoration_20072</t>
   </si>
   <si>
@@ -2170,9 +1891,6 @@
     <t>9_34</t>
   </si>
   <si>
-    <t>decoration_200103</t>
-  </si>
-  <si>
     <t>shop_decoration_20073</t>
   </si>
   <si>
@@ -2185,9 +1903,6 @@
     <t>9_35</t>
   </si>
   <si>
-    <t>decoration_200104</t>
-  </si>
-  <si>
     <t>shop_decoration_20074</t>
   </si>
   <si>
@@ -2200,9 +1915,6 @@
     <t>9_37</t>
   </si>
   <si>
-    <t>decoration_200111</t>
-  </si>
-  <si>
     <t>shop_decoration_20081</t>
   </si>
   <si>
@@ -2215,9 +1927,6 @@
     <t>9_38</t>
   </si>
   <si>
-    <t>decoration_200112</t>
-  </si>
-  <si>
     <t>shop_decoration_20082</t>
   </si>
   <si>
@@ -2230,9 +1939,6 @@
     <t>9_39</t>
   </si>
   <si>
-    <t>decoration_200113</t>
-  </si>
-  <si>
     <t>shop_decoration_20083</t>
   </si>
   <si>
@@ -2243,9 +1949,6 @@
   </si>
   <si>
     <t>9_40</t>
-  </si>
-  <si>
-    <t>decoration_200114</t>
   </si>
   <si>
     <t>shop_decoration_20084</t>
@@ -2256,10 +1959,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2277,31 +1980,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2315,6 +1995,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2323,8 +2048,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2345,23 +2071,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2377,30 +2103,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2408,7 +2111,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2441,73 +2144,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2525,7 +2180,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2537,7 +2210,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2549,31 +2312,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2585,43 +2324,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2665,11 +2368,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2698,17 +2407,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2727,36 +2450,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2765,133 +2468,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3301,34 +3004,34 @@
   <sheetPr/>
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M3" sqref="M3"/>
+      <selection pane="topRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.5" style="17" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="3" customWidth="1"/>
-    <col min="3" max="5" width="14.6333333333333" style="3" customWidth="1"/>
+    <col min="3" max="5" width="14.6296296296296" style="3" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.6333333333333" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.3833333333333" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.6296296296296" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.3796296296296" style="3" customWidth="1"/>
     <col min="9" max="9" width="15" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.1333333333333" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.1333333333333" style="11" customWidth="1"/>
-    <col min="12" max="13" width="20.3833333333333" style="11" customWidth="1"/>
-    <col min="14" max="14" width="18.6333333333333" style="3" customWidth="1"/>
-    <col min="15" max="15" width="17.1333333333333" style="3" customWidth="1"/>
-    <col min="16" max="16" width="25.3833333333333" style="3" customWidth="1"/>
-    <col min="17" max="17" width="31.3833333333333" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.1296296296296" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.1296296296296" style="11" customWidth="1"/>
+    <col min="12" max="13" width="20.3796296296296" style="11" customWidth="1"/>
+    <col min="14" max="14" width="18.6296296296296" style="3" customWidth="1"/>
+    <col min="15" max="15" width="17.1296296296296" style="3" customWidth="1"/>
+    <col min="16" max="16" width="25.3796296296296" style="3" customWidth="1"/>
+    <col min="17" max="17" width="31.3796296296296" style="3" customWidth="1"/>
     <col min="18" max="18" width="29.75" style="3" customWidth="1"/>
-    <col min="19" max="19" width="20.3833333333333" style="3" customWidth="1"/>
-    <col min="20" max="20" width="21.1333333333333" style="3" customWidth="1"/>
-    <col min="21" max="21" width="17.1333333333333" style="3" customWidth="1"/>
+    <col min="19" max="19" width="20.3796296296296" style="3" customWidth="1"/>
+    <col min="20" max="20" width="21.1296296296296" style="3" customWidth="1"/>
+    <col min="21" max="21" width="17.1296296296296" style="3" customWidth="1"/>
     <col min="22" max="22" width="14" style="3" customWidth="1"/>
-    <col min="23" max="23" width="15.8833333333333" style="3" customWidth="1"/>
+    <col min="23" max="23" width="15.8796296296296" style="3" customWidth="1"/>
     <col min="24" max="24" width="17" style="3" customWidth="1"/>
     <col min="25" max="25" width="14" style="3" customWidth="1"/>
     <col min="26" max="16384" width="9" style="3"/>
@@ -7819,26 +7522,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="22.1333333333333" customWidth="1"/>
+    <col min="1" max="2" width="22.1296296296296" customWidth="1"/>
     <col min="4" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="18.25" customWidth="1"/>
-    <col min="7" max="7" width="19.1333333333333" customWidth="1"/>
-    <col min="8" max="8" width="16.8833333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.75" customWidth="1"/>
-    <col min="10" max="10" width="28.5" customWidth="1"/>
-    <col min="11" max="11" width="21.3833333333333" customWidth="1"/>
-    <col min="12" max="12" width="20.8833333333333" customWidth="1"/>
+    <col min="7" max="7" width="19.1296296296296" customWidth="1"/>
+    <col min="8" max="8" width="16.8796296296296" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5" customWidth="1"/>
+    <col min="10" max="10" width="21.3796296296296" customWidth="1"/>
+    <col min="11" max="11" width="20.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7863,19 +7565,16 @@
       <c r="H1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
-        <v>308</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
@@ -7895,19 +7594,16 @@
       <c r="H2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
-        <v>310</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>22001</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -7919,27 +7615,24 @@
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>314</v>
-      </c>
-      <c r="J3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="16">
         <v>22001</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -7951,27 +7644,24 @@
         <v>6</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>319</v>
-      </c>
-      <c r="J4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="16">
         <v>22001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
@@ -7983,27 +7673,24 @@
         <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>324</v>
-      </c>
-      <c r="J5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="16">
         <v>22001</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C6" s="3">
         <v>4</v>
@@ -8015,27 +7702,24 @@
         <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>329</v>
-      </c>
-      <c r="J6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="16">
         <v>22002</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -8047,27 +7731,24 @@
         <v>3</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>334</v>
-      </c>
-      <c r="J7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="16">
         <v>22002</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -8079,27 +7760,24 @@
         <v>9</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>339</v>
-      </c>
-      <c r="J8" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="16">
         <v>22002</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
@@ -8111,27 +7789,24 @@
         <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>344</v>
-      </c>
-      <c r="J9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="16">
         <v>22002</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
@@ -8143,27 +7818,24 @@
         <v>25</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>349</v>
-      </c>
-      <c r="J10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="16">
         <v>22003</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -8175,27 +7847,24 @@
         <v>15</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>354</v>
-      </c>
-      <c r="J11" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="16">
         <v>22003</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -8207,27 +7876,24 @@
         <v>10</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>359</v>
-      </c>
-      <c r="J12" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="16">
         <v>22003</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -8239,27 +7905,24 @@
         <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>364</v>
-      </c>
-      <c r="J13" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="16">
         <v>22003</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="C14" s="3">
         <v>4</v>
@@ -8271,27 +7934,24 @@
         <v>25</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>369</v>
-      </c>
-      <c r="J14" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="16">
         <v>22004</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -8303,27 +7963,24 @@
         <v>3</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>374</v>
-      </c>
-      <c r="J15" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="16">
         <v>22004</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -8335,27 +7992,24 @@
         <v>9</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>56</v>
       </c>
       <c r="I16" t="s">
-        <v>379</v>
-      </c>
-      <c r="J16" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="16">
         <v>22004</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
@@ -8367,27 +8021,24 @@
         <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>384</v>
-      </c>
-      <c r="J17" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="16">
         <v>22004</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="C18" s="3">
         <v>4</v>
@@ -8399,27 +8050,24 @@
         <v>25</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>389</v>
-      </c>
-      <c r="J18" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="16">
         <v>22005</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -8431,27 +8079,24 @@
         <v>6</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>56</v>
       </c>
       <c r="I19" t="s">
-        <v>394</v>
-      </c>
-      <c r="J19" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="16">
         <v>22005</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
@@ -8463,27 +8108,24 @@
         <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I20" t="s">
-        <v>399</v>
-      </c>
-      <c r="J20" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="16">
         <v>22005</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
@@ -8495,27 +8137,24 @@
         <v>20</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>404</v>
-      </c>
-      <c r="J21" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="16">
         <v>22005</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="C22" s="3">
         <v>4</v>
@@ -8527,27 +8166,24 @@
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>56</v>
       </c>
       <c r="I22" t="s">
-        <v>409</v>
-      </c>
-      <c r="J22" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="16">
         <v>22006</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -8559,27 +8195,24 @@
         <v>1</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I23" t="s">
-        <v>414</v>
-      </c>
-      <c r="J23" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="16">
         <v>22006</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
@@ -8591,27 +8224,24 @@
         <v>8</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="H24" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>419</v>
-      </c>
-      <c r="J24" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="16">
         <v>22006</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
@@ -8623,27 +8253,24 @@
         <v>14</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>56</v>
       </c>
       <c r="I25" t="s">
-        <v>424</v>
-      </c>
-      <c r="J25" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="16">
         <v>22006</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="C26" s="3">
         <v>4</v>
@@ -8655,27 +8282,24 @@
         <v>20</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I26" t="s">
-        <v>429</v>
-      </c>
-      <c r="J26" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="16">
         <v>22007</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -8687,27 +8311,24 @@
         <v>1</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>434</v>
-      </c>
-      <c r="J27" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="16">
         <v>22007</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
@@ -8719,27 +8340,24 @@
         <v>9</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>56</v>
       </c>
       <c r="I28" t="s">
-        <v>439</v>
-      </c>
-      <c r="J28" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="16">
         <v>22007</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="C29" s="3">
         <v>3</v>
@@ -8751,27 +8369,24 @@
         <v>15</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="H29" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I29" t="s">
-        <v>444</v>
-      </c>
-      <c r="J29" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="16">
         <v>22007</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="C30" s="3">
         <v>4</v>
@@ -8783,27 +8398,24 @@
         <v>25</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>449</v>
-      </c>
-      <c r="J30" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="16">
         <v>22008</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -8815,27 +8427,24 @@
         <v>1</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="H31" s="14" t="s">
         <v>56</v>
       </c>
       <c r="I31" t="s">
-        <v>454</v>
-      </c>
-      <c r="J31" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="16">
         <v>22008</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
@@ -8847,27 +8456,24 @@
         <v>15</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="H32" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I32" t="s">
-        <v>459</v>
-      </c>
-      <c r="J32" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="16">
         <v>22008</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="C33" s="3">
         <v>3</v>
@@ -8879,27 +8485,24 @@
         <v>21</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>462</v>
+        <v>430</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>463</v>
+        <v>431</v>
       </c>
       <c r="H33" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>464</v>
-      </c>
-      <c r="J33" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="16">
         <v>22008</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="C34" s="3">
         <v>4</v>
@@ -8911,27 +8514,24 @@
         <v>28</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="H34" s="14" t="s">
         <v>56</v>
       </c>
       <c r="I34" t="s">
-        <v>469</v>
-      </c>
-      <c r="J34" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="16">
         <v>22009</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>471</v>
+        <v>437</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
@@ -8943,27 +8543,24 @@
         <v>0</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="H35" s="14" t="s">
         <v>56</v>
       </c>
       <c r="I35" t="s">
-        <v>474</v>
-      </c>
-      <c r="J35" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="16">
         <v>22009</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>476</v>
+        <v>441</v>
       </c>
       <c r="C36" s="3">
         <v>2</v>
@@ -8975,27 +8572,24 @@
         <v>6</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="H36" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I36" t="s">
-        <v>479</v>
-      </c>
-      <c r="J36" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="16">
         <v>22009</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>481</v>
+        <v>445</v>
       </c>
       <c r="C37" s="3">
         <v>3</v>
@@ -9007,27 +8601,24 @@
         <v>12</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="H37" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>484</v>
-      </c>
-      <c r="J37" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="16">
         <v>22009</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>486</v>
+        <v>449</v>
       </c>
       <c r="C38" s="3">
         <v>4</v>
@@ -9039,27 +8630,24 @@
         <v>24</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="H38" s="14" t="s">
         <v>56</v>
       </c>
       <c r="I38" t="s">
-        <v>489</v>
-      </c>
-      <c r="J38" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="16">
         <v>22010</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>491</v>
+        <v>453</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
@@ -9071,27 +8659,24 @@
         <v>0</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="H39" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I39">
-        <v>-1</v>
-      </c>
-      <c r="J39" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="I39" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="16">
         <v>22010</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>491</v>
+        <v>453</v>
       </c>
       <c r="C40" s="3">
         <v>2</v>
@@ -9103,27 +8688,24 @@
         <v>6</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="H40" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I40">
-        <v>-1</v>
-      </c>
-      <c r="J40" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="I40" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="16">
         <v>22010</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>491</v>
+        <v>453</v>
       </c>
       <c r="C41" s="3">
         <v>3</v>
@@ -9135,27 +8717,24 @@
         <v>12</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I41">
-        <v>-1</v>
-      </c>
-      <c r="J41" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="I41" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="16">
         <v>22010</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>491</v>
+        <v>453</v>
       </c>
       <c r="C42" s="3">
         <v>4</v>
@@ -9167,27 +8746,24 @@
         <v>24</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="H42" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I42">
-        <v>-1</v>
-      </c>
-      <c r="J42" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:10">
+      <c r="I42" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:9">
       <c r="A43" s="16">
         <v>22011</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>492</v>
+        <v>454</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
@@ -9199,27 +8775,24 @@
         <v>0</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="H43" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I43">
-        <v>-1</v>
-      </c>
-      <c r="J43" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:10">
+      <c r="I43" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:9">
       <c r="A44" s="16">
         <v>22011</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>492</v>
+        <v>454</v>
       </c>
       <c r="C44" s="3">
         <v>2</v>
@@ -9231,27 +8804,24 @@
         <v>6</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="H44" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I44">
-        <v>-1</v>
-      </c>
-      <c r="J44" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:10">
+      <c r="I44" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:9">
       <c r="A45" s="16">
         <v>22011</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>492</v>
+        <v>454</v>
       </c>
       <c r="C45" s="3">
         <v>3</v>
@@ -9263,27 +8833,24 @@
         <v>12</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="H45" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I45">
-        <v>-1</v>
-      </c>
-      <c r="J45" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:10">
+      <c r="I45" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:9">
       <c r="A46" s="16">
         <v>22011</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>492</v>
+        <v>454</v>
       </c>
       <c r="C46" s="3">
         <v>4</v>
@@ -9295,27 +8862,24 @@
         <v>24</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="H46" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I46">
-        <v>-1</v>
-      </c>
-      <c r="J46" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="1:10">
+      <c r="I46" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:9">
       <c r="A47" s="16">
         <v>22012</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
@@ -9327,27 +8891,24 @@
         <v>0</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="H47" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I47">
-        <v>-1</v>
-      </c>
-      <c r="J47" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="1:10">
+      <c r="I47" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:9">
       <c r="A48" s="16">
         <v>22012</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="C48" s="3">
         <v>2</v>
@@ -9359,27 +8920,24 @@
         <v>6</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I48">
-        <v>-1</v>
-      </c>
-      <c r="J48" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" spans="1:10">
+      <c r="I48" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:9">
       <c r="A49" s="16">
         <v>22012</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="C49" s="3">
         <v>3</v>
@@ -9391,27 +8949,24 @@
         <v>12</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="H49" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I49">
-        <v>-1</v>
-      </c>
-      <c r="J49" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" spans="1:10">
+      <c r="I49" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:9">
       <c r="A50" s="16">
         <v>22012</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="C50" s="3">
         <v>4</v>
@@ -9423,27 +8978,24 @@
         <v>24</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="H50" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I50">
-        <v>-1</v>
-      </c>
-      <c r="J50" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="1:10">
+      <c r="I50" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:9">
       <c r="A51" s="16">
         <v>22013</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>494</v>
+        <v>456</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
@@ -9455,27 +9007,24 @@
         <v>0</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="H51" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I51">
-        <v>-1</v>
-      </c>
-      <c r="J51" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="1:10">
+      <c r="I51" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:9">
       <c r="A52" s="16">
         <v>22013</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>494</v>
+        <v>456</v>
       </c>
       <c r="C52" s="3">
         <v>2</v>
@@ -9487,27 +9036,24 @@
         <v>6</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="H52" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I52">
-        <v>-1</v>
-      </c>
-      <c r="J52" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="1:10">
+      <c r="I52" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:9">
       <c r="A53" s="16">
         <v>22013</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>494</v>
+        <v>456</v>
       </c>
       <c r="C53" s="3">
         <v>3</v>
@@ -9519,27 +9065,24 @@
         <v>12</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="H53" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I53">
-        <v>-1</v>
-      </c>
-      <c r="J53" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" spans="1:10">
+      <c r="I53" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:9">
       <c r="A54" s="16">
         <v>22013</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>494</v>
+        <v>456</v>
       </c>
       <c r="C54" s="3">
         <v>4</v>
@@ -9551,27 +9094,24 @@
         <v>24</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I54">
-        <v>-1</v>
-      </c>
-      <c r="J54" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" spans="1:10">
+      <c r="I54" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:9">
       <c r="A55" s="16">
         <v>22014</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
@@ -9583,27 +9123,24 @@
         <v>0</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="H55" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I55">
-        <v>-1</v>
-      </c>
-      <c r="J55" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" spans="1:10">
+      <c r="I55" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:9">
       <c r="A56" s="16">
         <v>22014</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="C56" s="3">
         <v>2</v>
@@ -9615,27 +9152,24 @@
         <v>6</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="H56" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I56">
-        <v>-1</v>
-      </c>
-      <c r="J56" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" spans="1:10">
+      <c r="I56" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:9">
       <c r="A57" s="16">
         <v>22014</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="C57" s="3">
         <v>3</v>
@@ -9647,27 +9181,24 @@
         <v>12</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="H57" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I57">
-        <v>-1</v>
-      </c>
-      <c r="J57" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="1:10">
+      <c r="I57" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="1:9">
       <c r="A58" s="16">
         <v>22014</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="C58" s="3">
         <v>4</v>
@@ -9679,27 +9210,24 @@
         <v>24</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="H58" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I58">
-        <v>-1</v>
-      </c>
-      <c r="J58" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="I58" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="16">
         <v>22015</v>
       </c>
       <c r="B59" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
@@ -9711,27 +9239,24 @@
         <v>0</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="H59" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I59">
-        <v>-1</v>
-      </c>
-      <c r="J59" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="I59" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="16">
         <v>22015</v>
       </c>
       <c r="B60" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="C60" s="3">
         <v>2</v>
@@ -9743,27 +9268,24 @@
         <v>6</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="H60" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I60">
-        <v>-1</v>
-      </c>
-      <c r="J60" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="I60" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="16">
         <v>22015</v>
       </c>
       <c r="B61" t="s">
-        <v>498</v>
+        <v>460</v>
       </c>
       <c r="C61" s="3">
         <v>3</v>
@@ -9775,27 +9297,24 @@
         <v>12</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="H61" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I61">
-        <v>-1</v>
-      </c>
-      <c r="J61" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="I61" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="16">
         <v>22015</v>
       </c>
       <c r="B62" t="s">
-        <v>499</v>
+        <v>461</v>
       </c>
       <c r="C62" s="3">
         <v>4</v>
@@ -9807,27 +9326,24 @@
         <v>24</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="H62" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I62">
-        <v>-1</v>
-      </c>
-      <c r="J62" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="63" customFormat="1" spans="1:10">
+      <c r="I62" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="1:9">
       <c r="A63" s="16">
         <v>22016</v>
       </c>
       <c r="B63" t="s">
-        <v>500</v>
+        <v>462</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
@@ -9839,27 +9355,24 @@
         <v>0</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="H63" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I63">
-        <v>-1</v>
-      </c>
-      <c r="J63" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" spans="1:10">
+      <c r="I63" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:9">
       <c r="A64" s="16">
         <v>22016</v>
       </c>
       <c r="B64" t="s">
-        <v>501</v>
+        <v>463</v>
       </c>
       <c r="C64" s="3">
         <v>2</v>
@@ -9871,27 +9384,24 @@
         <v>6</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="H64" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I64">
-        <v>-1</v>
-      </c>
-      <c r="J64" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" spans="1:10">
+      <c r="I64" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="1:9">
       <c r="A65" s="16">
         <v>22016</v>
       </c>
       <c r="B65" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
       <c r="C65" s="3">
         <v>3</v>
@@ -9903,27 +9413,24 @@
         <v>12</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="H65" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I65">
-        <v>-1</v>
-      </c>
-      <c r="J65" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" spans="1:10">
+      <c r="I65" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="1:9">
       <c r="A66" s="16">
         <v>22016</v>
       </c>
       <c r="B66" t="s">
-        <v>503</v>
+        <v>465</v>
       </c>
       <c r="C66" s="3">
         <v>4</v>
@@ -9935,27 +9442,24 @@
         <v>24</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="H66" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I66">
-        <v>-1</v>
-      </c>
-      <c r="J66" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" spans="1:10">
+      <c r="I66" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="1:9">
       <c r="A67" s="16">
         <v>22017</v>
       </c>
       <c r="B67" t="s">
-        <v>504</v>
+        <v>466</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
@@ -9967,27 +9471,24 @@
         <v>0</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="H67" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I67">
-        <v>-1</v>
-      </c>
-      <c r="J67" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" spans="1:10">
+      <c r="I67" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:9">
       <c r="A68" s="16">
         <v>22017</v>
       </c>
       <c r="B68" t="s">
-        <v>505</v>
+        <v>467</v>
       </c>
       <c r="C68" s="3">
         <v>2</v>
@@ -9999,27 +9500,24 @@
         <v>6</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="H68" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I68">
-        <v>-1</v>
-      </c>
-      <c r="J68" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" spans="1:10">
+      <c r="I68" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:9">
       <c r="A69" s="16">
         <v>22017</v>
       </c>
       <c r="B69" t="s">
-        <v>506</v>
+        <v>468</v>
       </c>
       <c r="C69" s="3">
         <v>3</v>
@@ -10031,27 +9529,24 @@
         <v>12</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="H69" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I69">
-        <v>-1</v>
-      </c>
-      <c r="J69" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" spans="1:10">
+      <c r="I69" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="1:9">
       <c r="A70" s="16">
         <v>22017</v>
       </c>
       <c r="B70" t="s">
-        <v>507</v>
+        <v>469</v>
       </c>
       <c r="C70" s="3">
         <v>4</v>
@@ -10063,27 +9558,24 @@
         <v>24</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="H70" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I70">
-        <v>-1</v>
-      </c>
-      <c r="J70" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" spans="1:10">
+      <c r="I70" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="1:9">
       <c r="A71" s="16">
         <v>22018</v>
       </c>
       <c r="B71" t="s">
-        <v>508</v>
+        <v>470</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
@@ -10095,27 +9587,24 @@
         <v>0</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="H71" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I71">
-        <v>-1</v>
-      </c>
-      <c r="J71" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" spans="1:10">
+      <c r="I71" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="1:9">
       <c r="A72" s="16">
         <v>22018</v>
       </c>
       <c r="B72" t="s">
-        <v>509</v>
+        <v>471</v>
       </c>
       <c r="C72" s="3">
         <v>2</v>
@@ -10127,27 +9616,24 @@
         <v>6</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="H72" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I72">
-        <v>-1</v>
-      </c>
-      <c r="J72" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="73" customFormat="1" spans="1:10">
+      <c r="I72" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="1:9">
       <c r="A73" s="16">
         <v>22018</v>
       </c>
       <c r="B73" t="s">
-        <v>510</v>
+        <v>472</v>
       </c>
       <c r="C73" s="3">
         <v>3</v>
@@ -10159,27 +9645,24 @@
         <v>12</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="H73" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I73">
-        <v>-1</v>
-      </c>
-      <c r="J73" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" spans="1:10">
+      <c r="I73" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="1:9">
       <c r="A74" s="16">
         <v>22018</v>
       </c>
       <c r="B74" t="s">
-        <v>511</v>
+        <v>473</v>
       </c>
       <c r="C74" s="3">
         <v>4</v>
@@ -10191,19 +9674,16 @@
         <v>24</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="H74" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I74">
-        <v>-1</v>
-      </c>
-      <c r="J74" t="s">
-        <v>490</v>
+      <c r="I74" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -10219,27 +9699,26 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.1333333333333" customWidth="1"/>
-    <col min="5" max="5" width="19.6333333333333" customWidth="1"/>
-    <col min="6" max="6" width="17.8833333333333" customWidth="1"/>
+    <col min="4" max="4" width="18.1296296296296" customWidth="1"/>
+    <col min="5" max="5" width="19.6296296296296" customWidth="1"/>
+    <col min="6" max="6" width="17.8796296296296" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="16.8833333333333" customWidth="1"/>
+    <col min="8" max="8" width="16.8796296296296" customWidth="1"/>
     <col min="9" max="9" width="10.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.75" customWidth="1"/>
-    <col min="11" max="11" width="26" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
+    <col min="11" max="11" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10256,7 +9735,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>8</v>
@@ -10267,22 +9746,19 @@
       <c r="I1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="K1" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
@@ -10305,22 +9781,19 @@
       <c r="I2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J2" t="s">
-        <v>310</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="K2" s="13" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="4">
         <v>32001</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>515</v>
+        <v>477</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -10335,30 +9808,27 @@
         <v>0</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>516</v>
+        <v>478</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>517</v>
+        <v>479</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>518</v>
-      </c>
-      <c r="K3" t="s">
-        <v>519</v>
-      </c>
-      <c r="L3" s="15">
+        <v>480</v>
+      </c>
+      <c r="K3" s="15">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:11">
       <c r="A4" s="4">
         <v>32001</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>520</v>
+        <v>481</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -10373,30 +9843,27 @@
         <v>0</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>523</v>
-      </c>
-      <c r="K4" t="s">
-        <v>524</v>
-      </c>
-      <c r="L4" s="15">
+        <v>484</v>
+      </c>
+      <c r="K4" s="15">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:11">
       <c r="A5" s="4">
         <v>32001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
@@ -10411,30 +9878,27 @@
         <v>0</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J5" t="s">
-        <v>528</v>
-      </c>
-      <c r="K5" t="s">
-        <v>529</v>
-      </c>
-      <c r="L5" s="15">
+        <v>488</v>
+      </c>
+      <c r="K5" s="15">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:11">
       <c r="A6" s="4">
         <v>32001</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>530</v>
+        <v>489</v>
       </c>
       <c r="C6" s="3">
         <v>4</v>
@@ -10449,30 +9913,27 @@
         <v>0</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>531</v>
+        <v>490</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>532</v>
+        <v>491</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J6" t="s">
-        <v>533</v>
-      </c>
-      <c r="K6" t="s">
-        <v>534</v>
-      </c>
-      <c r="L6" s="15">
+        <v>492</v>
+      </c>
+      <c r="K6" s="15">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:11">
       <c r="A7" s="4">
         <v>32002</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>535</v>
+        <v>493</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -10487,30 +9948,27 @@
         <v>0</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>536</v>
+        <v>494</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>538</v>
-      </c>
-      <c r="K7" t="s">
-        <v>539</v>
-      </c>
-      <c r="L7" s="15">
+        <v>496</v>
+      </c>
+      <c r="K7" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:11">
       <c r="A8" s="4">
         <v>32002</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>540</v>
+        <v>497</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -10525,30 +9983,27 @@
         <v>0</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>541</v>
+        <v>498</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>542</v>
+        <v>499</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>543</v>
-      </c>
-      <c r="K8" t="s">
-        <v>544</v>
-      </c>
-      <c r="L8" s="15">
+        <v>500</v>
+      </c>
+      <c r="K8" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:11">
       <c r="A9" s="4">
         <v>32002</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>545</v>
+        <v>501</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
@@ -10563,30 +10018,27 @@
         <v>0</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>546</v>
+        <v>502</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>547</v>
+        <v>503</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>548</v>
-      </c>
-      <c r="K9" t="s">
-        <v>549</v>
-      </c>
-      <c r="L9" s="15">
+        <v>504</v>
+      </c>
+      <c r="K9" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:11">
       <c r="A10" s="4">
         <v>32002</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>550</v>
+        <v>505</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
@@ -10601,30 +10053,27 @@
         <v>0</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>551</v>
+        <v>506</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>552</v>
+        <v>507</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>553</v>
-      </c>
-      <c r="K10" t="s">
-        <v>554</v>
-      </c>
-      <c r="L10" s="15">
+        <v>508</v>
+      </c>
+      <c r="K10" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:11">
       <c r="A11" s="4">
         <v>32003</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>555</v>
+        <v>509</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -10639,30 +10088,27 @@
         <v>2</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>556</v>
+        <v>510</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>557</v>
+        <v>511</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J11" t="s">
-        <v>558</v>
-      </c>
-      <c r="K11" t="s">
-        <v>559</v>
-      </c>
-      <c r="L11" s="15">
+        <v>512</v>
+      </c>
+      <c r="K11" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:11">
       <c r="A12" s="4">
         <v>32003</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>560</v>
+        <v>513</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -10677,30 +10123,27 @@
         <v>2</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>561</v>
+        <v>514</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>562</v>
+        <v>515</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J12" t="s">
-        <v>563</v>
-      </c>
-      <c r="K12" t="s">
-        <v>564</v>
-      </c>
-      <c r="L12" s="15">
+        <v>516</v>
+      </c>
+      <c r="K12" s="15">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:11">
       <c r="A13" s="4">
         <v>32003</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>565</v>
+        <v>517</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -10715,30 +10158,27 @@
         <v>2</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>566</v>
+        <v>518</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>567</v>
+        <v>519</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J13" t="s">
-        <v>568</v>
-      </c>
-      <c r="K13" t="s">
-        <v>569</v>
-      </c>
-      <c r="L13" s="15">
+        <v>520</v>
+      </c>
+      <c r="K13" s="15">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:11">
       <c r="A14" s="4">
         <v>32003</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>570</v>
+        <v>521</v>
       </c>
       <c r="C14" s="3">
         <v>4</v>
@@ -10753,30 +10193,27 @@
         <v>2</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>571</v>
+        <v>522</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>572</v>
+        <v>523</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J14" t="s">
-        <v>573</v>
-      </c>
-      <c r="K14" t="s">
-        <v>574</v>
-      </c>
-      <c r="L14" s="15">
+        <v>524</v>
+      </c>
+      <c r="K14" s="15">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:11">
       <c r="A15" s="4">
         <v>32004</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -10791,30 +10228,27 @@
         <v>2</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>576</v>
+        <v>526</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>577</v>
+        <v>527</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J15" t="s">
-        <v>578</v>
-      </c>
-      <c r="K15" t="s">
-        <v>579</v>
-      </c>
-      <c r="L15" s="15">
+        <v>528</v>
+      </c>
+      <c r="K15" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:11">
       <c r="A16" s="4">
         <v>32004</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>580</v>
+        <v>529</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -10829,30 +10263,27 @@
         <v>2</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>581</v>
+        <v>530</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>582</v>
+        <v>531</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J16" t="s">
-        <v>583</v>
-      </c>
-      <c r="K16" t="s">
-        <v>584</v>
-      </c>
-      <c r="L16" s="15">
+        <v>532</v>
+      </c>
+      <c r="K16" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:11">
       <c r="A17" s="4">
         <v>32004</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>585</v>
+        <v>533</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
@@ -10867,30 +10298,27 @@
         <v>2</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>586</v>
+        <v>534</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>587</v>
+        <v>535</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J17" t="s">
-        <v>588</v>
-      </c>
-      <c r="K17" t="s">
-        <v>589</v>
-      </c>
-      <c r="L17" s="15">
+        <v>536</v>
+      </c>
+      <c r="K17" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:11">
       <c r="A18" s="4">
         <v>32004</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>590</v>
+        <v>537</v>
       </c>
       <c r="C18" s="3">
         <v>4</v>
@@ -10905,30 +10333,27 @@
         <v>2</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>591</v>
+        <v>538</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>592</v>
+        <v>539</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J18" t="s">
-        <v>593</v>
-      </c>
-      <c r="K18" t="s">
-        <v>594</v>
-      </c>
-      <c r="L18" s="15">
+        <v>540</v>
+      </c>
+      <c r="K18" s="15">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:11">
       <c r="A19" s="4">
         <v>32005</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>595</v>
+        <v>541</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -10943,30 +10368,27 @@
         <v>0</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>596</v>
+        <v>542</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>597</v>
+        <v>543</v>
       </c>
       <c r="I19" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J19" t="s">
-        <v>598</v>
-      </c>
-      <c r="K19" t="s">
-        <v>599</v>
-      </c>
-      <c r="L19" s="15">
+        <v>544</v>
+      </c>
+      <c r="K19" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:11">
       <c r="A20" s="4">
         <v>32005</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>600</v>
+        <v>545</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
@@ -10981,30 +10403,27 @@
         <v>0</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>601</v>
+        <v>546</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>602</v>
+        <v>547</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J20" t="s">
-        <v>603</v>
-      </c>
-      <c r="K20" t="s">
-        <v>604</v>
-      </c>
-      <c r="L20" s="15">
+        <v>548</v>
+      </c>
+      <c r="K20" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:11">
       <c r="A21" s="4">
         <v>32005</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>605</v>
+        <v>549</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
@@ -11019,30 +10438,27 @@
         <v>0</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>606</v>
+        <v>550</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>607</v>
+        <v>551</v>
       </c>
       <c r="I21" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J21" t="s">
-        <v>608</v>
-      </c>
-      <c r="K21" t="s">
-        <v>609</v>
-      </c>
-      <c r="L21" s="15">
+        <v>552</v>
+      </c>
+      <c r="K21" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:11">
       <c r="A22" s="4">
         <v>32005</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>610</v>
+        <v>553</v>
       </c>
       <c r="C22" s="3">
         <v>4</v>
@@ -11057,30 +10473,27 @@
         <v>0</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>611</v>
+        <v>554</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>612</v>
+        <v>555</v>
       </c>
       <c r="I22" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J22" t="s">
-        <v>613</v>
-      </c>
-      <c r="K22" t="s">
-        <v>614</v>
-      </c>
-      <c r="L22" s="15">
+        <v>556</v>
+      </c>
+      <c r="K22" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:11">
       <c r="A23" s="4">
         <v>32006</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>615</v>
+        <v>557</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -11095,30 +10508,27 @@
         <v>2</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>616</v>
+        <v>558</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>617</v>
+        <v>559</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="L23" s="15">
+        <v>560</v>
+      </c>
+      <c r="K23" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:11">
       <c r="A24" s="4">
         <v>32006</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>620</v>
+        <v>561</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
@@ -11133,30 +10543,27 @@
         <v>2</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>621</v>
+        <v>562</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>622</v>
+        <v>563</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="L24" s="15">
+        <v>564</v>
+      </c>
+      <c r="K24" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:11">
       <c r="A25" s="4">
         <v>32006</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>625</v>
+        <v>565</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
@@ -11171,30 +10578,27 @@
         <v>2</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>626</v>
+        <v>566</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>627</v>
+        <v>567</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="L25" s="15">
+        <v>568</v>
+      </c>
+      <c r="K25" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:11">
       <c r="A26" s="4">
         <v>32006</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
       <c r="C26" s="3">
         <v>4</v>
@@ -11209,30 +10613,27 @@
         <v>2</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>631</v>
+        <v>570</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>632</v>
+        <v>571</v>
       </c>
       <c r="I26" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="L26" s="15">
+        <v>572</v>
+      </c>
+      <c r="K26" s="15">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:11">
       <c r="A27" s="4">
         <v>32007</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -11247,30 +10648,27 @@
         <v>0</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>636</v>
+        <v>574</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>637</v>
+        <v>575</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J27" t="s">
-        <v>638</v>
-      </c>
-      <c r="K27" t="s">
-        <v>639</v>
-      </c>
-      <c r="L27" s="15">
+        <v>576</v>
+      </c>
+      <c r="K27" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:11">
       <c r="A28" s="4">
         <v>32007</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>640</v>
+        <v>577</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
@@ -11285,30 +10683,27 @@
         <v>0</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>641</v>
+        <v>578</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>642</v>
+        <v>579</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J28" t="s">
-        <v>643</v>
-      </c>
-      <c r="K28" t="s">
-        <v>644</v>
-      </c>
-      <c r="L28" s="15">
+        <v>580</v>
+      </c>
+      <c r="K28" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:11">
       <c r="A29" s="4">
         <v>32007</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>645</v>
+        <v>581</v>
       </c>
       <c r="C29" s="3">
         <v>3</v>
@@ -11323,30 +10718,27 @@
         <v>0</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>646</v>
+        <v>582</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>647</v>
+        <v>583</v>
       </c>
       <c r="I29" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J29" t="s">
-        <v>648</v>
-      </c>
-      <c r="K29" t="s">
-        <v>649</v>
-      </c>
-      <c r="L29" s="15">
+        <v>584</v>
+      </c>
+      <c r="K29" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:11">
       <c r="A30" s="4">
         <v>32007</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>650</v>
+        <v>585</v>
       </c>
       <c r="C30" s="3">
         <v>4</v>
@@ -11361,30 +10753,27 @@
         <v>0</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>651</v>
+        <v>586</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>652</v>
+        <v>587</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J30" t="s">
-        <v>653</v>
-      </c>
-      <c r="K30" t="s">
-        <v>654</v>
-      </c>
-      <c r="L30" s="15">
+        <v>588</v>
+      </c>
+      <c r="K30" s="15">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:11">
       <c r="A31" s="4">
         <v>32008</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>655</v>
+        <v>589</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -11399,30 +10788,27 @@
         <v>0</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>656</v>
+        <v>590</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>657</v>
+        <v>591</v>
       </c>
       <c r="I31" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J31" t="s">
-        <v>658</v>
-      </c>
-      <c r="K31" t="s">
-        <v>659</v>
-      </c>
-      <c r="L31" s="15">
+        <v>592</v>
+      </c>
+      <c r="K31" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:11">
       <c r="A32" s="4">
         <v>32008</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>660</v>
+        <v>593</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
@@ -11437,30 +10823,27 @@
         <v>0</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>661</v>
+        <v>594</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>662</v>
+        <v>595</v>
       </c>
       <c r="I32" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J32" t="s">
-        <v>663</v>
-      </c>
-      <c r="K32" t="s">
-        <v>664</v>
-      </c>
-      <c r="L32" s="15">
+        <v>596</v>
+      </c>
+      <c r="K32" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:11">
       <c r="A33" s="4">
         <v>32008</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>665</v>
+        <v>597</v>
       </c>
       <c r="C33" s="3">
         <v>3</v>
@@ -11475,30 +10858,27 @@
         <v>0</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>666</v>
+        <v>598</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>667</v>
+        <v>599</v>
       </c>
       <c r="I33" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J33" t="s">
-        <v>668</v>
-      </c>
-      <c r="K33" t="s">
-        <v>669</v>
-      </c>
-      <c r="L33" s="15">
+        <v>600</v>
+      </c>
+      <c r="K33" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:11">
       <c r="A34" s="4">
         <v>32008</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>670</v>
+        <v>601</v>
       </c>
       <c r="C34" s="3">
         <v>4</v>
@@ -11513,46 +10893,303 @@
         <v>0</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>671</v>
+        <v>602</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>672</v>
+        <v>603</v>
       </c>
       <c r="I34" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J34" t="s">
-        <v>673</v>
-      </c>
-      <c r="K34" t="s">
-        <v>674</v>
-      </c>
-      <c r="L34" s="15">
+        <v>604</v>
+      </c>
+      <c r="K34" s="15">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="7:8">
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="7:8">
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="7:8">
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="7:8">
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="7:8">
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+    <row r="35" spans="1:11">
+      <c r="A35" s="4">
+        <v>32009</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="6">
+        <v>5</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J35" t="s">
+        <v>592</v>
+      </c>
+      <c r="K35" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="4">
+        <v>32009</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2</v>
+      </c>
+      <c r="D36" s="6">
+        <v>22000</v>
+      </c>
+      <c r="E36" s="6">
+        <v>10</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J36" t="s">
+        <v>596</v>
+      </c>
+      <c r="K36" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="4">
+        <v>32009</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3</v>
+      </c>
+      <c r="D37" s="6">
+        <v>50000</v>
+      </c>
+      <c r="E37" s="6">
+        <v>15</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37" t="s">
+        <v>600</v>
+      </c>
+      <c r="K37" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="4">
+        <v>32009</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="C38" s="3">
+        <v>4</v>
+      </c>
+      <c r="D38" s="6">
+        <v>260000</v>
+      </c>
+      <c r="E38" s="6">
+        <v>20</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38" t="s">
+        <v>604</v>
+      </c>
+      <c r="K38" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="4">
+        <v>32010</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1500</v>
+      </c>
+      <c r="E39" s="6">
+        <v>5</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39" t="s">
+        <v>592</v>
+      </c>
+      <c r="K39" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="4">
+        <v>32010</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2</v>
+      </c>
+      <c r="D40" s="6">
+        <v>22000</v>
+      </c>
+      <c r="E40" s="6">
+        <v>10</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J40" t="s">
+        <v>596</v>
+      </c>
+      <c r="K40" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="4">
+        <v>32010</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="C41" s="3">
+        <v>3</v>
+      </c>
+      <c r="D41" s="6">
+        <v>50000</v>
+      </c>
+      <c r="E41" s="6">
+        <v>15</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J41" t="s">
+        <v>600</v>
+      </c>
+      <c r="K41" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="4">
+        <v>32010</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="C42" s="3">
+        <v>4</v>
+      </c>
+      <c r="D42" s="6">
+        <v>260000</v>
+      </c>
+      <c r="E42" s="6">
+        <v>20</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" t="s">
+        <v>604</v>
+      </c>
+      <c r="K42" s="15">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L34">
+  <autoFilter ref="A2:K42">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/project/OtherAssets/Excle/A_Default/建筑.xlsx
+++ b/project/OtherAssets/Excle/A_Default/建筑.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420"/>
+    <workbookView windowWidth="27840" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stall" sheetId="1" r:id="rId1"/>
@@ -1960,9 +1960,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1974,90 +1974,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2072,10 +1989,39 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2094,6 +2040,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2102,16 +2110,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2144,18 +2144,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2168,7 +2156,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2180,7 +2198,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2192,7 +2216,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2204,13 +2264,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2228,7 +2294,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2240,91 +2324,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2364,6 +2364,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2409,44 +2442,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2456,10 +2456,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2468,133 +2468,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3004,34 +3004,34 @@
   <sheetPr/>
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.5" style="17" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="3" customWidth="1"/>
-    <col min="3" max="5" width="14.6296296296296" style="3" customWidth="1"/>
+    <col min="3" max="5" width="14.6333333333333" style="3" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.6296296296296" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.3796296296296" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.6333333333333" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.3833333333333" style="3" customWidth="1"/>
     <col min="9" max="9" width="15" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.1296296296296" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.1296296296296" style="11" customWidth="1"/>
-    <col min="12" max="13" width="20.3796296296296" style="11" customWidth="1"/>
-    <col min="14" max="14" width="18.6296296296296" style="3" customWidth="1"/>
-    <col min="15" max="15" width="17.1296296296296" style="3" customWidth="1"/>
-    <col min="16" max="16" width="25.3796296296296" style="3" customWidth="1"/>
-    <col min="17" max="17" width="31.3796296296296" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.1333333333333" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.1333333333333" style="11" customWidth="1"/>
+    <col min="12" max="13" width="20.3833333333333" style="11" customWidth="1"/>
+    <col min="14" max="14" width="18.6333333333333" style="3" customWidth="1"/>
+    <col min="15" max="15" width="17.1333333333333" style="3" customWidth="1"/>
+    <col min="16" max="16" width="25.3833333333333" style="3" customWidth="1"/>
+    <col min="17" max="17" width="31.3833333333333" style="3" customWidth="1"/>
     <col min="18" max="18" width="29.75" style="3" customWidth="1"/>
-    <col min="19" max="19" width="20.3796296296296" style="3" customWidth="1"/>
-    <col min="20" max="20" width="21.1296296296296" style="3" customWidth="1"/>
-    <col min="21" max="21" width="17.1296296296296" style="3" customWidth="1"/>
+    <col min="19" max="19" width="20.3833333333333" style="3" customWidth="1"/>
+    <col min="20" max="20" width="21.1333333333333" style="3" customWidth="1"/>
+    <col min="21" max="21" width="17.1333333333333" style="3" customWidth="1"/>
     <col min="22" max="22" width="14" style="3" customWidth="1"/>
-    <col min="23" max="23" width="15.8796296296296" style="3" customWidth="1"/>
+    <col min="23" max="23" width="15.8833333333333" style="3" customWidth="1"/>
     <col min="24" max="24" width="17" style="3" customWidth="1"/>
     <col min="25" max="25" width="14" style="3" customWidth="1"/>
     <col min="26" max="16384" width="9" style="3"/>
@@ -7524,20 +7524,20 @@
   <sheetPr/>
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="22.1296296296296" customWidth="1"/>
+    <col min="1" max="2" width="22.1333333333333" customWidth="1"/>
     <col min="4" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="18.25" customWidth="1"/>
-    <col min="7" max="7" width="19.1296296296296" customWidth="1"/>
-    <col min="8" max="8" width="16.8796296296296" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1333333333333" customWidth="1"/>
+    <col min="8" max="8" width="16.8833333333333" style="1" customWidth="1"/>
     <col min="9" max="9" width="28.5" customWidth="1"/>
-    <col min="10" max="10" width="21.3796296296296" customWidth="1"/>
-    <col min="11" max="11" width="20.8796296296296" customWidth="1"/>
+    <col min="10" max="10" width="21.3833333333333" customWidth="1"/>
+    <col min="11" max="11" width="20.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -9701,18 +9701,18 @@
   <sheetPr/>
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.1296296296296" customWidth="1"/>
-    <col min="5" max="5" width="19.6296296296296" customWidth="1"/>
-    <col min="6" max="6" width="17.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="18.1333333333333" customWidth="1"/>
+    <col min="5" max="5" width="19.6333333333333" customWidth="1"/>
+    <col min="6" max="6" width="17.8833333333333" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="16.8796296296296" customWidth="1"/>
+    <col min="8" max="8" width="16.8833333333333" customWidth="1"/>
     <col min="9" max="9" width="10.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="26" customWidth="1"/>
     <col min="11" max="11" width="16.75" customWidth="1"/>

--- a/project/OtherAssets/Excle/A_Default/建筑.xlsx
+++ b/project/OtherAssets/Excle/A_Default/建筑.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="27840" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stall" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="605">
   <si>
     <t>ID</t>
   </si>
@@ -1953,25 +1953,16 @@
   <si>
     <t>shop_decoration_20084</t>
   </si>
-  <si>
-    <t>桌子</t>
-  </si>
-  <si>
-    <t>吧台坐位</t>
-  </si>
-  <si>
-    <t>露台底座</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1979,6 +1970,36 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1996,8 +2017,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2011,8 +2048,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2026,24 +2087,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2054,68 +2107,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2153,24 +2144,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2183,7 +2156,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2195,7 +2174,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2207,7 +2186,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2219,7 +2204,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2231,7 +2222,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2243,13 +2264,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2261,79 +2312,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2377,41 +2368,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2436,6 +2392,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2453,9 +2442,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2465,10 +2456,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2477,133 +2468,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3019,28 +3010,28 @@
       <selection pane="topRight" activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.5" style="17" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="3" customWidth="1"/>
-    <col min="3" max="5" width="14.6296296296296" style="3" customWidth="1"/>
+    <col min="3" max="5" width="14.6333333333333" style="3" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.6296296296296" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.3796296296296" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.6333333333333" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.3833333333333" style="3" customWidth="1"/>
     <col min="9" max="9" width="15" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.1296296296296" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.1296296296296" style="11" customWidth="1"/>
-    <col min="12" max="13" width="20.3796296296296" style="11" customWidth="1"/>
-    <col min="14" max="14" width="18.6296296296296" style="3" customWidth="1"/>
-    <col min="15" max="15" width="17.1296296296296" style="3" customWidth="1"/>
-    <col min="16" max="16" width="25.3796296296296" style="3" customWidth="1"/>
-    <col min="17" max="17" width="31.3796296296296" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.1333333333333" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.1333333333333" style="11" customWidth="1"/>
+    <col min="12" max="13" width="20.3833333333333" style="11" customWidth="1"/>
+    <col min="14" max="14" width="18.6333333333333" style="3" customWidth="1"/>
+    <col min="15" max="15" width="17.1333333333333" style="3" customWidth="1"/>
+    <col min="16" max="16" width="25.3833333333333" style="3" customWidth="1"/>
+    <col min="17" max="17" width="31.3833333333333" style="3" customWidth="1"/>
     <col min="18" max="18" width="29.75" style="3" customWidth="1"/>
-    <col min="19" max="19" width="20.3796296296296" style="3" customWidth="1"/>
-    <col min="20" max="20" width="21.1296296296296" style="3" customWidth="1"/>
-    <col min="21" max="21" width="17.1296296296296" style="3" customWidth="1"/>
+    <col min="19" max="19" width="20.3833333333333" style="3" customWidth="1"/>
+    <col min="20" max="20" width="21.1333333333333" style="3" customWidth="1"/>
+    <col min="21" max="21" width="17.1333333333333" style="3" customWidth="1"/>
     <col min="22" max="22" width="14" style="3" customWidth="1"/>
-    <col min="23" max="23" width="15.8796296296296" style="3" customWidth="1"/>
+    <col min="23" max="23" width="15.8833333333333" style="3" customWidth="1"/>
     <col min="24" max="24" width="17" style="3" customWidth="1"/>
     <col min="25" max="25" width="14" style="3" customWidth="1"/>
     <col min="26" max="16384" width="9" style="3"/>
@@ -7533,20 +7524,20 @@
   <sheetPr/>
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="22.1296296296296" customWidth="1"/>
+    <col min="1" max="2" width="22.1333333333333" customWidth="1"/>
     <col min="4" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="18.25" customWidth="1"/>
-    <col min="7" max="7" width="19.1296296296296" customWidth="1"/>
-    <col min="8" max="8" width="16.8796296296296" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1333333333333" customWidth="1"/>
+    <col min="8" max="8" width="16.8833333333333" style="1" customWidth="1"/>
     <col min="9" max="9" width="28.5" customWidth="1"/>
-    <col min="10" max="10" width="21.3796296296296" customWidth="1"/>
-    <col min="11" max="11" width="20.8796296296296" customWidth="1"/>
+    <col min="10" max="10" width="21.3833333333333" customWidth="1"/>
+    <col min="11" max="11" width="20.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -9708,20 +9699,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.1296296296296" customWidth="1"/>
-    <col min="5" max="5" width="19.6296296296296" customWidth="1"/>
-    <col min="6" max="6" width="17.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="18.1333333333333" customWidth="1"/>
+    <col min="5" max="5" width="19.6333333333333" customWidth="1"/>
+    <col min="6" max="6" width="17.8833333333333" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="16.8796296296296" customWidth="1"/>
+    <col min="8" max="8" width="16.8833333333333" customWidth="1"/>
     <col min="9" max="9" width="10.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="26" customWidth="1"/>
     <col min="11" max="11" width="16.75" customWidth="1"/>
@@ -10922,7 +10913,7 @@
         <v>32009</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
@@ -10957,7 +10948,7 @@
         <v>32009</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="C36" s="3">
         <v>2</v>
@@ -10992,7 +10983,7 @@
         <v>32009</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="C37" s="3">
         <v>3</v>
@@ -11027,7 +11018,7 @@
         <v>32009</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C38" s="3">
         <v>4</v>
@@ -11061,8 +11052,8 @@
       <c r="A39" s="4">
         <v>32010</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>606</v>
+      <c r="B39" s="10" t="s">
+        <v>589</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
@@ -11096,8 +11087,8 @@
       <c r="A40" s="4">
         <v>32010</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>606</v>
+      <c r="B40" s="10" t="s">
+        <v>593</v>
       </c>
       <c r="C40" s="3">
         <v>2</v>
@@ -11131,8 +11122,8 @@
       <c r="A41" s="4">
         <v>32010</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>606</v>
+      <c r="B41" s="10" t="s">
+        <v>597</v>
       </c>
       <c r="C41" s="3">
         <v>3</v>
@@ -11166,8 +11157,8 @@
       <c r="A42" s="4">
         <v>32010</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>606</v>
+      <c r="B42" s="10" t="s">
+        <v>601</v>
       </c>
       <c r="C42" s="3">
         <v>4</v>
@@ -11194,146 +11185,6 @@
         <v>604</v>
       </c>
       <c r="K42" s="15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="4">
-        <v>32011</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="C43" s="3">
-        <v>1</v>
-      </c>
-      <c r="D43" s="6">
-        <v>1500</v>
-      </c>
-      <c r="E43" s="6">
-        <v>5</v>
-      </c>
-      <c r="F43" s="6">
-        <v>0</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="I43" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J43" t="s">
-        <v>592</v>
-      </c>
-      <c r="K43" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="4">
-        <v>32011</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="C44" s="3">
-        <v>2</v>
-      </c>
-      <c r="D44" s="6">
-        <v>22000</v>
-      </c>
-      <c r="E44" s="6">
-        <v>10</v>
-      </c>
-      <c r="F44" s="6">
-        <v>0</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J44" t="s">
-        <v>596</v>
-      </c>
-      <c r="K44" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="4">
-        <v>32011</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="C45" s="3">
-        <v>3</v>
-      </c>
-      <c r="D45" s="6">
-        <v>50000</v>
-      </c>
-      <c r="E45" s="6">
-        <v>15</v>
-      </c>
-      <c r="F45" s="6">
-        <v>0</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="I45" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J45" t="s">
-        <v>600</v>
-      </c>
-      <c r="K45" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="4">
-        <v>32011</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="C46" s="3">
-        <v>4</v>
-      </c>
-      <c r="D46" s="6">
-        <v>260000</v>
-      </c>
-      <c r="E46" s="6">
-        <v>20</v>
-      </c>
-      <c r="F46" s="6">
-        <v>0</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="I46" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J46" t="s">
-        <v>604</v>
-      </c>
-      <c r="K46" s="15">
         <v>30</v>
       </c>
     </row>

--- a/project/OtherAssets/Excle/A_Default/建筑.xlsx
+++ b/project/OtherAssets/Excle/A_Default/建筑.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27840" windowHeight="12390" activeTab="2"/>
+    <workbookView windowWidth="18468" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stall" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="608">
   <si>
     <t>ID</t>
   </si>
@@ -1953,16 +1953,25 @@
   <si>
     <t>shop_decoration_20084</t>
   </si>
+  <si>
+    <t>桌子</t>
+  </si>
+  <si>
+    <t>吧台坐位</t>
+  </si>
+  <si>
+    <t>露台底座</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1970,36 +1979,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2017,9 +1996,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2033,16 +2041,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2056,19 +2089,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2080,14 +2104,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -2095,18 +2111,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2144,6 +2153,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2156,13 +2183,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2174,7 +2195,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2186,7 +2207,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2198,7 +2237,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2210,13 +2291,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2228,55 +2303,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2288,43 +2321,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2368,6 +2377,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2392,39 +2436,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2442,11 +2453,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2456,10 +2465,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2468,133 +2477,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3010,28 +3019,28 @@
       <selection pane="topRight" activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.5" style="17" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="3" customWidth="1"/>
-    <col min="3" max="5" width="14.6333333333333" style="3" customWidth="1"/>
+    <col min="3" max="5" width="14.6296296296296" style="3" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.6333333333333" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.3833333333333" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.6296296296296" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.3796296296296" style="3" customWidth="1"/>
     <col min="9" max="9" width="15" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.1333333333333" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.1333333333333" style="11" customWidth="1"/>
-    <col min="12" max="13" width="20.3833333333333" style="11" customWidth="1"/>
-    <col min="14" max="14" width="18.6333333333333" style="3" customWidth="1"/>
-    <col min="15" max="15" width="17.1333333333333" style="3" customWidth="1"/>
-    <col min="16" max="16" width="25.3833333333333" style="3" customWidth="1"/>
-    <col min="17" max="17" width="31.3833333333333" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.1296296296296" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.1296296296296" style="11" customWidth="1"/>
+    <col min="12" max="13" width="20.3796296296296" style="11" customWidth="1"/>
+    <col min="14" max="14" width="18.6296296296296" style="3" customWidth="1"/>
+    <col min="15" max="15" width="17.1296296296296" style="3" customWidth="1"/>
+    <col min="16" max="16" width="25.3796296296296" style="3" customWidth="1"/>
+    <col min="17" max="17" width="31.3796296296296" style="3" customWidth="1"/>
     <col min="18" max="18" width="29.75" style="3" customWidth="1"/>
-    <col min="19" max="19" width="20.3833333333333" style="3" customWidth="1"/>
-    <col min="20" max="20" width="21.1333333333333" style="3" customWidth="1"/>
-    <col min="21" max="21" width="17.1333333333333" style="3" customWidth="1"/>
+    <col min="19" max="19" width="20.3796296296296" style="3" customWidth="1"/>
+    <col min="20" max="20" width="21.1296296296296" style="3" customWidth="1"/>
+    <col min="21" max="21" width="17.1296296296296" style="3" customWidth="1"/>
     <col min="22" max="22" width="14" style="3" customWidth="1"/>
-    <col min="23" max="23" width="15.8833333333333" style="3" customWidth="1"/>
+    <col min="23" max="23" width="15.8796296296296" style="3" customWidth="1"/>
     <col min="24" max="24" width="17" style="3" customWidth="1"/>
     <col min="25" max="25" width="14" style="3" customWidth="1"/>
     <col min="26" max="16384" width="9" style="3"/>
@@ -7524,20 +7533,20 @@
   <sheetPr/>
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="22.1333333333333" customWidth="1"/>
+    <col min="1" max="2" width="22.1296296296296" customWidth="1"/>
     <col min="4" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="18.25" customWidth="1"/>
-    <col min="7" max="7" width="19.1333333333333" customWidth="1"/>
-    <col min="8" max="8" width="16.8833333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1296296296296" customWidth="1"/>
+    <col min="8" max="8" width="16.8796296296296" style="1" customWidth="1"/>
     <col min="9" max="9" width="28.5" customWidth="1"/>
-    <col min="10" max="10" width="21.3833333333333" customWidth="1"/>
-    <col min="11" max="11" width="20.8833333333333" customWidth="1"/>
+    <col min="10" max="10" width="21.3796296296296" customWidth="1"/>
+    <col min="11" max="11" width="20.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -9699,20 +9708,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:A42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.1333333333333" customWidth="1"/>
-    <col min="5" max="5" width="19.6333333333333" customWidth="1"/>
-    <col min="6" max="6" width="17.8833333333333" customWidth="1"/>
+    <col min="4" max="4" width="18.1296296296296" customWidth="1"/>
+    <col min="5" max="5" width="19.6296296296296" customWidth="1"/>
+    <col min="6" max="6" width="17.8796296296296" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="16.8833333333333" customWidth="1"/>
+    <col min="8" max="8" width="16.8796296296296" customWidth="1"/>
     <col min="9" max="9" width="10.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="26" customWidth="1"/>
     <col min="11" max="11" width="16.75" customWidth="1"/>
@@ -10913,7 +10922,7 @@
         <v>32009</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
@@ -10948,7 +10957,7 @@
         <v>32009</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="C36" s="3">
         <v>2</v>
@@ -10983,7 +10992,7 @@
         <v>32009</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="C37" s="3">
         <v>3</v>
@@ -11018,7 +11027,7 @@
         <v>32009</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C38" s="3">
         <v>4</v>
@@ -11052,8 +11061,8 @@
       <c r="A39" s="4">
         <v>32010</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>589</v>
+      <c r="B39" s="3" t="s">
+        <v>606</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
@@ -11087,8 +11096,8 @@
       <c r="A40" s="4">
         <v>32010</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>593</v>
+      <c r="B40" s="3" t="s">
+        <v>606</v>
       </c>
       <c r="C40" s="3">
         <v>2</v>
@@ -11122,8 +11131,8 @@
       <c r="A41" s="4">
         <v>32010</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>597</v>
+      <c r="B41" s="3" t="s">
+        <v>606</v>
       </c>
       <c r="C41" s="3">
         <v>3</v>
@@ -11157,8 +11166,8 @@
       <c r="A42" s="4">
         <v>32010</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>601</v>
+      <c r="B42" s="3" t="s">
+        <v>606</v>
       </c>
       <c r="C42" s="3">
         <v>4</v>
@@ -11185,6 +11194,146 @@
         <v>604</v>
       </c>
       <c r="K42" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="4">
+        <v>32011</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1500</v>
+      </c>
+      <c r="E43" s="6">
+        <v>5</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" t="s">
+        <v>592</v>
+      </c>
+      <c r="K43" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="4">
+        <v>32011</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2</v>
+      </c>
+      <c r="D44" s="6">
+        <v>22000</v>
+      </c>
+      <c r="E44" s="6">
+        <v>10</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J44" t="s">
+        <v>596</v>
+      </c>
+      <c r="K44" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="4">
+        <v>32011</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="C45" s="3">
+        <v>3</v>
+      </c>
+      <c r="D45" s="6">
+        <v>50000</v>
+      </c>
+      <c r="E45" s="6">
+        <v>15</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J45" t="s">
+        <v>600</v>
+      </c>
+      <c r="K45" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="4">
+        <v>32011</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="C46" s="3">
+        <v>4</v>
+      </c>
+      <c r="D46" s="6">
+        <v>260000</v>
+      </c>
+      <c r="E46" s="6">
+        <v>20</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J46" t="s">
+        <v>604</v>
+      </c>
+      <c r="K46" s="15">
         <v>30</v>
       </c>
     </row>

--- a/project/OtherAssets/Excle/A_Default/建筑.xlsx
+++ b/project/OtherAssets/Excle/A_Default/建筑.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Stall" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="Adorn" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stall!$A$2:$Y$58</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Adorn!$A$2:$K$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stall!$A$2:$X$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Adorn!$A$2:$K$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Equip!$A$3:$I$38</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="592">
   <si>
     <t>ID</t>
   </si>
@@ -59,9 +59,6 @@
     <t>食物图标</t>
   </si>
   <si>
-    <t>标题图片</t>
-  </si>
-  <si>
     <t>图标名字</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>foodIcon_s</t>
   </si>
   <si>
-    <t>title_s</t>
-  </si>
-  <si>
     <t>IconName_s</t>
   </si>
   <si>
@@ -170,9 +164,6 @@
     <t>stall_2001_food</t>
   </si>
   <si>
-    <t>Pizza</t>
-  </si>
-  <si>
     <t>shop_shtall_20011</t>
   </si>
   <si>
@@ -251,9 +242,6 @@
     <t>stall_2002_food</t>
   </si>
   <si>
-    <t>BigMac</t>
-  </si>
-  <si>
     <t>shop_shtall_20021</t>
   </si>
   <si>
@@ -320,9 +308,6 @@
     <t>stall_2003_food</t>
   </si>
   <si>
-    <t>Sushi</t>
-  </si>
-  <si>
     <t>shop_shtall_20031</t>
   </si>
   <si>
@@ -395,9 +380,6 @@
     <t>stall_2004_food</t>
   </si>
   <si>
-    <t>Seafood</t>
-  </si>
-  <si>
     <t>shop_shtall_20041</t>
   </si>
   <si>
@@ -455,9 +437,6 @@
     <t>stall_2005_food</t>
   </si>
   <si>
-    <t>IceCream</t>
-  </si>
-  <si>
     <t>shop_shtall_20051</t>
   </si>
   <si>
@@ -503,9 +482,6 @@
     <t>stall_2006_food</t>
   </si>
   <si>
-    <t>Coffee</t>
-  </si>
-  <si>
     <t>shop_shtall_20061</t>
   </si>
   <si>
@@ -581,9 +557,6 @@
     <t>stall_2007_food</t>
   </si>
   <si>
-    <t>BarCounter</t>
-  </si>
-  <si>
     <t>shop_shtall_20071</t>
   </si>
   <si>
@@ -623,9 +596,6 @@
     <t>stall_2008_food</t>
   </si>
   <si>
-    <t>Candy</t>
-  </si>
-  <si>
     <t>shop_shtall_20081</t>
   </si>
   <si>
@@ -680,9 +650,6 @@
     <t>stall_2009_food</t>
   </si>
   <si>
-    <t>Chocolate</t>
-  </si>
-  <si>
     <t>shop_shtall_20091</t>
   </si>
   <si>
@@ -737,9 +704,6 @@
     <t>stall_2010_food</t>
   </si>
   <si>
-    <t>Juice</t>
-  </si>
-  <si>
     <t>shop_shtall_20101</t>
   </si>
   <si>
@@ -779,9 +743,6 @@
     <t>stall_2011_food</t>
   </si>
   <si>
-    <t>Dessert</t>
-  </si>
-  <si>
     <t>shop_shtall_20111</t>
   </si>
   <si>
@@ -821,9 +782,6 @@
     <t>stall_2012_food</t>
   </si>
   <si>
-    <t>Cola</t>
-  </si>
-  <si>
     <t>shop_shtall_20121</t>
   </si>
   <si>
@@ -863,9 +821,6 @@
     <t>stall_2013_food</t>
   </si>
   <si>
-    <t>HotPot</t>
-  </si>
-  <si>
     <t>shop_shtall_20131</t>
   </si>
   <si>
@@ -903,9 +858,6 @@
   </si>
   <si>
     <t>stall_2014_food</t>
-  </si>
-  <si>
-    <t>Salad</t>
   </si>
   <si>
     <t>shop_shtall_20141</t>
@@ -1968,10 +1920,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1982,8 +1934,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2003,16 +2001,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2041,81 +2063,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2153,7 +2105,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2165,19 +2165,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2189,49 +2231,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2243,7 +2255,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2255,79 +2279,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2362,26 +2314,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2397,6 +2334,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2430,8 +2382,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2450,25 +2411,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2477,133 +2429,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3011,42 +2963,42 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y63"/>
+  <dimension ref="A1:X63"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M50" sqref="M50"/>
+      <selection pane="topRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.5" style="17" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="3" customWidth="1"/>
-    <col min="3" max="5" width="14.6296296296296" style="3" customWidth="1"/>
+    <col min="3" max="5" width="14.6333333333333" style="3" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.6296296296296" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.3796296296296" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.3833333333333" style="3" customWidth="1"/>
     <col min="9" max="9" width="15" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.1296296296296" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.1296296296296" style="11" customWidth="1"/>
-    <col min="12" max="13" width="20.3796296296296" style="11" customWidth="1"/>
-    <col min="14" max="14" width="18.6296296296296" style="3" customWidth="1"/>
-    <col min="15" max="15" width="17.1296296296296" style="3" customWidth="1"/>
-    <col min="16" max="16" width="25.3796296296296" style="3" customWidth="1"/>
-    <col min="17" max="17" width="31.3796296296296" style="3" customWidth="1"/>
-    <col min="18" max="18" width="29.75" style="3" customWidth="1"/>
-    <col min="19" max="19" width="20.3796296296296" style="3" customWidth="1"/>
-    <col min="20" max="20" width="21.1296296296296" style="3" customWidth="1"/>
-    <col min="21" max="21" width="17.1296296296296" style="3" customWidth="1"/>
-    <col min="22" max="22" width="14" style="3" customWidth="1"/>
-    <col min="23" max="23" width="15.8796296296296" style="3" customWidth="1"/>
-    <col min="24" max="24" width="17" style="3" customWidth="1"/>
-    <col min="25" max="25" width="14" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="3"/>
+    <col min="10" max="10" width="16.1333333333333" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.1333333333333" style="11" customWidth="1"/>
+    <col min="12" max="12" width="20.3833333333333" style="11" customWidth="1"/>
+    <col min="13" max="13" width="18.6333333333333" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.1333333333333" style="3" customWidth="1"/>
+    <col min="15" max="15" width="25.3833333333333" style="3" customWidth="1"/>
+    <col min="16" max="16" width="31.3833333333333" style="3" customWidth="1"/>
+    <col min="17" max="17" width="29.75" style="3" customWidth="1"/>
+    <col min="18" max="18" width="20.3833333333333" style="3" customWidth="1"/>
+    <col min="19" max="19" width="21.1333333333333" style="3" customWidth="1"/>
+    <col min="20" max="20" width="17.1333333333333" style="3" customWidth="1"/>
+    <col min="21" max="21" width="14" style="3" customWidth="1"/>
+    <col min="22" max="22" width="15.8833333333333" style="3" customWidth="1"/>
+    <col min="23" max="23" width="17" style="3" customWidth="1"/>
+    <col min="24" max="24" width="14" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="23.25" customHeight="1" spans="1:25">
+    <row r="1" customFormat="1" ht="23.25" customHeight="1" spans="1:24">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -3083,7 +3035,7 @@
       <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
@@ -3092,20 +3044,20 @@
       <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="15" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
       <c r="T1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U1" t="s">
         <v>17</v>
@@ -3119,88 +3071,82 @@
       <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" t="s">
+    </row>
+    <row r="2" customFormat="1" spans="1:24">
+      <c r="A2" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:25">
-      <c r="A2" s="18" t="s">
+      <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="H2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="S2" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>38</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>39</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>40</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>41</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>42</v>
       </c>
-      <c r="X2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:25">
+    </row>
+    <row r="3" customFormat="1" spans="1:24">
       <c r="A3" s="18">
         <v>12001</v>
       </c>
@@ -3226,58 +3172,55 @@
         <v>5</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="L3" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="M3" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="N3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" s="15">
+        <v>0</v>
+      </c>
+      <c r="P3" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="15">
-        <v>0</v>
-      </c>
-      <c r="R3" s="15">
-        <v>0</v>
-      </c>
-      <c r="S3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U3" t="s">
-        <v>52</v>
-      </c>
       <c r="V3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:24">
       <c r="A4" s="18">
         <v>12001</v>
       </c>
@@ -3303,25 +3246,25 @@
         <v>4</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="14" t="s">
+      <c r="N4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>51</v>
+      <c r="O4" s="15">
+        <v>0</v>
       </c>
       <c r="P4" s="15">
         <v>0</v>
@@ -3329,32 +3272,29 @@
       <c r="Q4" s="15">
         <v>0</v>
       </c>
-      <c r="R4" s="15">
-        <v>0</v>
+      <c r="R4" t="s">
+        <v>49</v>
       </c>
       <c r="S4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:24">
       <c r="A5" s="18">
         <v>12001</v>
       </c>
@@ -3380,58 +3320,55 @@
         <v>3</v>
       </c>
       <c r="I5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="N5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="P5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>0</v>
+      </c>
+      <c r="R5" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="S5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q5" s="15">
-        <v>0</v>
-      </c>
-      <c r="R5" s="15">
-        <v>0</v>
-      </c>
-      <c r="S5" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="T5" t="s">
-        <v>52</v>
-      </c>
-      <c r="U5" t="s">
-        <v>52</v>
-      </c>
       <c r="V5" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="W5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:24">
       <c r="A6" s="18">
         <v>12001</v>
       </c>
@@ -3457,58 +3394,55 @@
         <v>2</v>
       </c>
       <c r="I6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="P6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="Q6" s="15">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
         <v>67</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" s="3" t="s">
+      <c r="S6" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="T6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" t="s">
         <v>69</v>
       </c>
-      <c r="R6" s="15">
-        <v>0</v>
-      </c>
-      <c r="S6" t="s">
-        <v>70</v>
-      </c>
-      <c r="T6" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="U6" t="s">
-        <v>52</v>
-      </c>
       <c r="V6" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="W6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:24">
       <c r="A7" s="18">
         <v>12002</v>
       </c>
@@ -3534,25 +3468,25 @@
         <v>5</v>
       </c>
       <c r="I7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" t="s">
         <v>73</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="N7" t="s">
-        <v>77</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>51</v>
+      <c r="N7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="15">
+        <v>0</v>
       </c>
       <c r="P7" s="15">
         <v>0</v>
@@ -3560,32 +3494,29 @@
       <c r="Q7" s="15">
         <v>0</v>
       </c>
-      <c r="R7" s="15">
-        <v>0</v>
+      <c r="R7" t="s">
+        <v>49</v>
       </c>
       <c r="S7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:24">
       <c r="A8" s="18">
         <v>12002</v>
       </c>
@@ -3611,25 +3542,25 @@
         <v>4</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="M8" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" t="s">
         <v>76</v>
       </c>
-      <c r="N8" t="s">
-        <v>80</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>51</v>
+      <c r="N8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="15">
+        <v>0</v>
       </c>
       <c r="P8" s="15">
         <v>0</v>
@@ -3637,32 +3568,29 @@
       <c r="Q8" s="15">
         <v>0</v>
       </c>
-      <c r="R8" s="15">
-        <v>0</v>
+      <c r="R8" t="s">
+        <v>49</v>
       </c>
       <c r="S8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X8" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:24">
       <c r="A9" s="18">
         <v>12002</v>
       </c>
@@ -3688,58 +3616,55 @@
         <v>3</v>
       </c>
       <c r="I9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>0</v>
+      </c>
+      <c r="R9" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="S9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T9" t="s">
+        <v>49</v>
+      </c>
+      <c r="U9" t="s">
         <v>82</v>
       </c>
-      <c r="K9" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="V9" t="s">
         <v>83</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q9" s="15">
-        <v>0</v>
-      </c>
-      <c r="R9" s="15">
-        <v>0</v>
-      </c>
-      <c r="S9" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="T9" t="s">
-        <v>52</v>
-      </c>
-      <c r="U9" t="s">
-        <v>52</v>
-      </c>
-      <c r="V9" t="s">
-        <v>86</v>
-      </c>
       <c r="W9" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="X9" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:24">
       <c r="A10" s="18">
         <v>12002</v>
       </c>
@@ -3765,58 +3690,55 @@
         <v>2</v>
       </c>
       <c r="I10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="15">
+        <v>0</v>
+      </c>
+      <c r="R10" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="S10" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P10" s="3" t="s">
+      <c r="T10" t="s">
+        <v>49</v>
+      </c>
+      <c r="U10" t="s">
         <v>91</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R10" s="15">
-        <v>0</v>
-      </c>
-      <c r="S10" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="T10" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="U10" t="s">
-        <v>52</v>
-      </c>
       <c r="V10" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="W10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="X10" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:24">
       <c r="A11" s="18">
         <v>12003</v>
       </c>
@@ -3842,25 +3764,25 @@
         <v>5</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="N11" t="s">
-        <v>100</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>51</v>
+        <v>94</v>
+      </c>
+      <c r="M11" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="15">
+        <v>0</v>
       </c>
       <c r="P11" s="15">
         <v>0</v>
@@ -3868,32 +3790,29 @@
       <c r="Q11" s="15">
         <v>0</v>
       </c>
-      <c r="R11" s="15">
-        <v>0</v>
+      <c r="R11" t="s">
+        <v>49</v>
       </c>
       <c r="S11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:24">
       <c r="A12" s="18">
         <v>12003</v>
       </c>
@@ -3919,58 +3838,55 @@
         <v>4</v>
       </c>
       <c r="I12" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="M12" t="s">
+        <v>98</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
         <v>101</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="S12" t="s">
         <v>102</v>
       </c>
-      <c r="K12" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="N12" t="s">
-        <v>103</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="R12" s="15">
-        <v>0</v>
-      </c>
-      <c r="S12" t="s">
-        <v>106</v>
-      </c>
       <c r="T12" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="U12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V12" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="W12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="X12" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:24">
       <c r="A13" s="18">
         <v>12003</v>
       </c>
@@ -3996,58 +3912,55 @@
         <v>3</v>
       </c>
       <c r="I13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="M13" t="s">
+        <v>105</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
         <v>108</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="S13" t="s">
         <v>109</v>
       </c>
-      <c r="K13" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="T13" t="s">
+        <v>49</v>
+      </c>
+      <c r="U13" t="s">
         <v>110</v>
       </c>
-      <c r="O13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="R13" s="15">
-        <v>0</v>
-      </c>
-      <c r="S13" t="s">
-        <v>113</v>
-      </c>
-      <c r="T13" t="s">
-        <v>114</v>
-      </c>
-      <c r="U13" t="s">
-        <v>52</v>
-      </c>
       <c r="V13" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="W13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="X13" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:24">
       <c r="A14" s="18">
         <v>12003</v>
       </c>
@@ -4073,58 +3986,55 @@
         <v>2</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="N14" t="s">
-        <v>118</v>
+        <v>94</v>
+      </c>
+      <c r="M14" t="s">
+        <v>113</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
+      </c>
+      <c r="P14" s="15">
+        <v>0</v>
       </c>
       <c r="Q14" s="15">
         <v>0</v>
       </c>
-      <c r="R14" s="15">
-        <v>0</v>
+      <c r="R14" t="s">
+        <v>115</v>
       </c>
       <c r="S14" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="T14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V14" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="W14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="X14" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:24">
       <c r="A15" s="18">
         <v>12004</v>
       </c>
@@ -4150,25 +4060,25 @@
         <v>5</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="N15" t="s">
-        <v>125</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>51</v>
+        <v>118</v>
+      </c>
+      <c r="M15" t="s">
+        <v>119</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="15">
+        <v>0</v>
       </c>
       <c r="P15" s="15">
         <v>0</v>
@@ -4176,32 +4086,29 @@
       <c r="Q15" s="15">
         <v>0</v>
       </c>
-      <c r="R15" s="15">
-        <v>0</v>
+      <c r="R15" t="s">
+        <v>49</v>
       </c>
       <c r="S15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X15" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:24">
       <c r="A16" s="18">
         <v>12004</v>
       </c>
@@ -4227,25 +4134,25 @@
         <v>4</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="N16" t="s">
-        <v>128</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>51</v>
+        <v>118</v>
+      </c>
+      <c r="M16" t="s">
+        <v>122</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" s="15">
+        <v>0</v>
       </c>
       <c r="P16" s="15">
         <v>0</v>
@@ -4253,32 +4160,29 @@
       <c r="Q16" s="15">
         <v>0</v>
       </c>
-      <c r="R16" s="15">
-        <v>0</v>
+      <c r="R16" t="s">
+        <v>49</v>
       </c>
       <c r="S16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X16" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:24">
       <c r="A17" s="18">
         <v>12004</v>
       </c>
@@ -4304,58 +4208,55 @@
         <v>3</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="N17" t="s">
-        <v>131</v>
+        <v>118</v>
+      </c>
+      <c r="M17" t="s">
+        <v>125</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
+      </c>
+      <c r="P17" s="15">
+        <v>0</v>
       </c>
       <c r="Q17" s="15">
         <v>0</v>
       </c>
-      <c r="R17" s="15">
-        <v>0</v>
-      </c>
-      <c r="S17" s="23" t="s">
-        <v>133</v>
+      <c r="R17" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="S17" t="s">
+        <v>49</v>
       </c>
       <c r="T17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V17" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="W17" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="X17" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:24">
       <c r="A18" s="18">
         <v>12004</v>
       </c>
@@ -4381,58 +4282,55 @@
         <v>2</v>
       </c>
       <c r="I18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="M18" t="s">
+        <v>130</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>0</v>
+      </c>
+      <c r="R18" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="S18" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="N18" t="s">
-        <v>136</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="R18" s="15">
-        <v>0</v>
-      </c>
-      <c r="S18" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="T18" s="23" t="s">
-        <v>140</v>
+      <c r="T18" t="s">
+        <v>49</v>
       </c>
       <c r="U18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X18" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:24">
       <c r="A19" s="18">
         <v>12005</v>
       </c>
@@ -4458,25 +4356,25 @@
         <v>5</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="N19" t="s">
-        <v>145</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>51</v>
+        <v>137</v>
+      </c>
+      <c r="M19" t="s">
+        <v>138</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" s="15">
+        <v>0</v>
       </c>
       <c r="P19" s="15">
         <v>0</v>
@@ -4484,32 +4382,29 @@
       <c r="Q19" s="15">
         <v>0</v>
       </c>
-      <c r="R19" s="15">
-        <v>0</v>
+      <c r="R19" t="s">
+        <v>49</v>
       </c>
       <c r="S19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X19" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:24">
       <c r="A20" s="18">
         <v>12005</v>
       </c>
@@ -4535,25 +4430,25 @@
         <v>4</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="N20" t="s">
-        <v>148</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>51</v>
+        <v>137</v>
+      </c>
+      <c r="M20" t="s">
+        <v>141</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20" s="15">
+        <v>0</v>
       </c>
       <c r="P20" s="15">
         <v>0</v>
@@ -4561,32 +4456,29 @@
       <c r="Q20" s="15">
         <v>0</v>
       </c>
-      <c r="R20" s="15">
-        <v>0</v>
+      <c r="R20" t="s">
+        <v>49</v>
       </c>
       <c r="S20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X20" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:24">
       <c r="A21" s="18">
         <v>12005</v>
       </c>
@@ -4612,58 +4504,55 @@
         <v>3</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="M21" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M21" t="s">
         <v>144</v>
       </c>
-      <c r="N21" t="s">
-        <v>151</v>
+      <c r="N21" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+      <c r="P21" s="15">
+        <v>0</v>
       </c>
       <c r="Q21" s="15">
         <v>0</v>
       </c>
-      <c r="R21" s="15">
-        <v>0</v>
+      <c r="R21" t="s">
+        <v>146</v>
       </c>
       <c r="S21" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="T21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X21" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:24">
       <c r="A22" s="18">
         <v>12005</v>
       </c>
@@ -4689,25 +4578,25 @@
         <v>2</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="M22" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="N22" t="s">
-        <v>156</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>51</v>
+        <v>137</v>
+      </c>
+      <c r="M22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O22" s="15">
+        <v>0</v>
       </c>
       <c r="P22" s="15">
         <v>0</v>
@@ -4715,32 +4604,29 @@
       <c r="Q22" s="15">
         <v>0</v>
       </c>
-      <c r="R22" s="15">
-        <v>0</v>
+      <c r="R22" t="s">
+        <v>49</v>
       </c>
       <c r="S22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X22" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:24">
       <c r="A23" s="18">
         <v>12006</v>
       </c>
@@ -4766,25 +4652,25 @@
         <v>5</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="M23" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="N23" t="s">
-        <v>161</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>51</v>
+        <v>152</v>
+      </c>
+      <c r="M23" t="s">
+        <v>153</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O23" s="15">
+        <v>0</v>
       </c>
       <c r="P23" s="15">
         <v>0</v>
@@ -4792,32 +4678,29 @@
       <c r="Q23" s="15">
         <v>0</v>
       </c>
-      <c r="R23" s="15">
-        <v>0</v>
+      <c r="R23" t="s">
+        <v>49</v>
       </c>
       <c r="S23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X23" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:24">
       <c r="A24" s="18">
         <v>12006</v>
       </c>
@@ -4843,58 +4726,55 @@
         <v>4</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L24" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="M24" t="s">
+        <v>156</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P24" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>0</v>
+      </c>
+      <c r="R24" t="s">
+        <v>158</v>
+      </c>
+      <c r="S24" t="s">
+        <v>49</v>
+      </c>
+      <c r="T24" t="s">
+        <v>49</v>
+      </c>
+      <c r="U24" t="s">
         <v>159</v>
       </c>
-      <c r="M24" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="N24" t="s">
-        <v>164</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q24" s="15">
-        <v>0</v>
-      </c>
-      <c r="R24" s="15">
-        <v>0</v>
-      </c>
-      <c r="S24" t="s">
-        <v>166</v>
-      </c>
-      <c r="T24" t="s">
-        <v>52</v>
-      </c>
-      <c r="U24" t="s">
-        <v>52</v>
-      </c>
       <c r="V24" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="W24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X24" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:24">
       <c r="A25" s="18">
         <v>12006</v>
       </c>
@@ -4920,58 +4800,55 @@
         <v>3</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L25" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="M25" t="s">
+        <v>162</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P25" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="15">
+        <v>0</v>
+      </c>
+      <c r="R25" t="s">
+        <v>164</v>
+      </c>
+      <c r="S25" t="s">
+        <v>49</v>
+      </c>
+      <c r="T25" t="s">
+        <v>49</v>
+      </c>
+      <c r="U25" t="s">
         <v>159</v>
       </c>
-      <c r="M25" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="N25" t="s">
-        <v>170</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q25" s="15">
-        <v>0</v>
-      </c>
-      <c r="R25" s="15">
-        <v>0</v>
-      </c>
-      <c r="S25" t="s">
-        <v>172</v>
-      </c>
-      <c r="T25" t="s">
-        <v>52</v>
-      </c>
-      <c r="U25" t="s">
-        <v>52</v>
-      </c>
       <c r="V25" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="W25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X25" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:24">
       <c r="A26" s="18">
         <v>12006</v>
       </c>
@@ -4997,58 +4874,55 @@
         <v>2</v>
       </c>
       <c r="I26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="M26" t="s">
+        <v>167</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="R26" t="s">
+        <v>171</v>
+      </c>
+      <c r="S26" t="s">
+        <v>172</v>
+      </c>
+      <c r="T26" t="s">
         <v>173</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="U26" t="s">
         <v>174</v>
       </c>
-      <c r="K26" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="M26" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="N26" t="s">
-        <v>175</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="S26" t="s">
-        <v>179</v>
-      </c>
-      <c r="T26" t="s">
-        <v>180</v>
-      </c>
-      <c r="U26" t="s">
-        <v>181</v>
-      </c>
       <c r="V26" t="s">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="W26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X26" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:24">
       <c r="A27" s="18">
         <v>12007</v>
       </c>
@@ -5074,25 +4948,25 @@
         <v>5</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="N27" t="s">
-        <v>187</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>51</v>
+        <v>177</v>
+      </c>
+      <c r="M27" t="s">
+        <v>178</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O27" s="15">
+        <v>0</v>
       </c>
       <c r="P27" s="15">
         <v>0</v>
@@ -5100,32 +4974,29 @@
       <c r="Q27" s="15">
         <v>0</v>
       </c>
-      <c r="R27" s="15">
-        <v>0</v>
+      <c r="R27" t="s">
+        <v>49</v>
       </c>
       <c r="S27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V27" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X27" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:24">
       <c r="A28" s="18">
         <v>12007</v>
       </c>
@@ -5151,25 +5022,25 @@
         <v>4</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="M28" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="N28" t="s">
-        <v>190</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>51</v>
+        <v>177</v>
+      </c>
+      <c r="M28" t="s">
+        <v>181</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O28" s="15">
+        <v>0</v>
       </c>
       <c r="P28" s="15">
         <v>0</v>
@@ -5177,32 +5048,29 @@
       <c r="Q28" s="15">
         <v>0</v>
       </c>
-      <c r="R28" s="15">
-        <v>0</v>
+      <c r="R28" t="s">
+        <v>49</v>
       </c>
       <c r="S28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X28" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:24">
       <c r="A29" s="18">
         <v>12007</v>
       </c>
@@ -5228,25 +5096,25 @@
         <v>3</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="M29" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="N29" t="s">
-        <v>193</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>51</v>
+        <v>177</v>
+      </c>
+      <c r="M29" t="s">
+        <v>184</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O29" s="15">
+        <v>0</v>
       </c>
       <c r="P29" s="15">
         <v>0</v>
@@ -5254,32 +5122,29 @@
       <c r="Q29" s="15">
         <v>0</v>
       </c>
-      <c r="R29" s="15">
-        <v>0</v>
+      <c r="R29" t="s">
+        <v>49</v>
       </c>
       <c r="S29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:24">
       <c r="A30" s="18">
         <v>12007</v>
       </c>
@@ -5305,25 +5170,25 @@
         <v>2</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="M30" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="N30" t="s">
-        <v>196</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>51</v>
+        <v>177</v>
+      </c>
+      <c r="M30" t="s">
+        <v>187</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O30" s="15">
+        <v>0</v>
       </c>
       <c r="P30" s="15">
         <v>0</v>
@@ -5331,32 +5196,29 @@
       <c r="Q30" s="15">
         <v>0</v>
       </c>
-      <c r="R30" s="15">
-        <v>0</v>
+      <c r="R30" t="s">
+        <v>49</v>
       </c>
       <c r="S30" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T30" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W30" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X30" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:24">
       <c r="A31" s="18">
         <v>12008</v>
       </c>
@@ -5382,25 +5244,25 @@
         <v>5</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="M31" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="N31" t="s">
-        <v>201</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>51</v>
+        <v>190</v>
+      </c>
+      <c r="M31" t="s">
+        <v>191</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O31" s="15">
+        <v>0</v>
       </c>
       <c r="P31" s="15">
         <v>0</v>
@@ -5408,32 +5270,29 @@
       <c r="Q31" s="15">
         <v>0</v>
       </c>
-      <c r="R31" s="15">
-        <v>0</v>
+      <c r="R31" t="s">
+        <v>49</v>
       </c>
       <c r="S31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X31" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:24">
       <c r="A32" s="18">
         <v>12008</v>
       </c>
@@ -5459,25 +5318,25 @@
         <v>4</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="M32" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="N32" t="s">
-        <v>204</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>51</v>
+        <v>190</v>
+      </c>
+      <c r="M32" t="s">
+        <v>194</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O32" s="15">
+        <v>0</v>
       </c>
       <c r="P32" s="15">
         <v>0</v>
@@ -5485,32 +5344,29 @@
       <c r="Q32" s="15">
         <v>0</v>
       </c>
-      <c r="R32" s="15">
-        <v>0</v>
+      <c r="R32" t="s">
+        <v>49</v>
       </c>
       <c r="S32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X32" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:24">
       <c r="A33" s="18">
         <v>12008</v>
       </c>
@@ -5536,58 +5392,55 @@
         <v>3</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L33" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="M33" t="s">
+        <v>197</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="P33" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="15">
+        <v>0</v>
+      </c>
+      <c r="R33" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="M33" s="14" t="s">
+      <c r="S33" t="s">
+        <v>49</v>
+      </c>
+      <c r="T33" t="s">
+        <v>49</v>
+      </c>
+      <c r="U33" t="s">
         <v>200</v>
       </c>
-      <c r="N33" t="s">
-        <v>207</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q33" s="15">
-        <v>0</v>
-      </c>
-      <c r="R33" s="15">
-        <v>0</v>
-      </c>
-      <c r="S33" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="T33" t="s">
-        <v>52</v>
-      </c>
-      <c r="U33" t="s">
-        <v>52</v>
-      </c>
       <c r="V33" t="s">
-        <v>210</v>
+        <v>49</v>
       </c>
       <c r="W33" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X33" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:24">
       <c r="A34" s="18">
         <v>12008</v>
       </c>
@@ -5613,58 +5466,55 @@
         <v>2</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="M34" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="N34" t="s">
-        <v>213</v>
+        <v>190</v>
+      </c>
+      <c r="M34" t="s">
+        <v>203</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
+      </c>
+      <c r="P34" s="15">
+        <v>0</v>
       </c>
       <c r="Q34" s="15">
         <v>0</v>
       </c>
-      <c r="R34" s="15">
-        <v>0</v>
-      </c>
-      <c r="S34" s="23" t="s">
-        <v>215</v>
+      <c r="R34" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="S34" t="s">
+        <v>49</v>
       </c>
       <c r="T34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U34" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="V34" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="W34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X34" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:24">
       <c r="A35" s="18">
         <v>12009</v>
       </c>
@@ -5690,58 +5540,55 @@
         <v>5</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="M35" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="N35" t="s">
-        <v>220</v>
+        <v>208</v>
+      </c>
+      <c r="M35" t="s">
+        <v>209</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>221</v>
+        <v>210</v>
+      </c>
+      <c r="P35" s="15">
+        <v>0</v>
       </c>
       <c r="Q35" s="15">
         <v>0</v>
       </c>
-      <c r="R35" s="15">
-        <v>0</v>
+      <c r="R35" t="s">
+        <v>211</v>
       </c>
       <c r="S35" t="s">
-        <v>222</v>
+        <v>49</v>
       </c>
       <c r="T35" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U35" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="V35" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="W35" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X35" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:24">
       <c r="A36" s="18">
         <v>12009</v>
       </c>
@@ -5767,58 +5614,55 @@
         <v>4</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L36" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="M36" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="N36" t="s">
-        <v>225</v>
+        <v>208</v>
+      </c>
+      <c r="M36" t="s">
+        <v>214</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
+      </c>
+      <c r="P36" s="15">
+        <v>0</v>
       </c>
       <c r="Q36" s="15">
         <v>0</v>
       </c>
-      <c r="R36" s="15">
-        <v>0</v>
+      <c r="R36" t="s">
+        <v>216</v>
       </c>
       <c r="S36" t="s">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="T36" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U36" t="s">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="V36" t="s">
-        <v>228</v>
+        <v>49</v>
       </c>
       <c r="W36" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X36" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:24">
       <c r="A37" s="18">
         <v>12009</v>
       </c>
@@ -5844,25 +5688,25 @@
         <v>3</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L37" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="M37" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="N37" t="s">
-        <v>231</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>51</v>
+        <v>208</v>
+      </c>
+      <c r="M37" t="s">
+        <v>220</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O37" s="15">
+        <v>0</v>
       </c>
       <c r="P37" s="15">
         <v>0</v>
@@ -5870,32 +5714,29 @@
       <c r="Q37" s="15">
         <v>0</v>
       </c>
-      <c r="R37" s="15">
-        <v>0</v>
+      <c r="R37" t="s">
+        <v>49</v>
       </c>
       <c r="S37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X37" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:24">
       <c r="A38" s="18">
         <v>12009</v>
       </c>
@@ -5921,25 +5762,25 @@
         <v>2</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L38" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="M38" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="N38" t="s">
-        <v>234</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>51</v>
+        <v>208</v>
+      </c>
+      <c r="M38" t="s">
+        <v>223</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O38" s="15">
+        <v>0</v>
       </c>
       <c r="P38" s="15">
         <v>0</v>
@@ -5947,32 +5788,29 @@
       <c r="Q38" s="15">
         <v>0</v>
       </c>
-      <c r="R38" s="15">
-        <v>0</v>
+      <c r="R38" t="s">
+        <v>49</v>
       </c>
       <c r="S38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V38" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X38" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:24">
       <c r="A39" s="18">
         <v>12010</v>
       </c>
@@ -5998,25 +5836,25 @@
         <v>5</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="M39" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N39" t="s">
-        <v>239</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>51</v>
+        <v>226</v>
+      </c>
+      <c r="M39" t="s">
+        <v>227</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O39" s="15">
+        <v>0</v>
       </c>
       <c r="P39" s="15">
         <v>0</v>
@@ -6024,32 +5862,29 @@
       <c r="Q39" s="15">
         <v>0</v>
       </c>
-      <c r="R39" s="15">
-        <v>0</v>
+      <c r="R39" t="s">
+        <v>49</v>
       </c>
       <c r="S39" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T39" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V39" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W39" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X39" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:24">
       <c r="A40" s="18">
         <v>12010</v>
       </c>
@@ -6075,25 +5910,25 @@
         <v>4</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L40" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="M40" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N40" t="s">
-        <v>242</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>51</v>
+        <v>226</v>
+      </c>
+      <c r="M40" t="s">
+        <v>230</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O40" s="15">
+        <v>0</v>
       </c>
       <c r="P40" s="15">
         <v>0</v>
@@ -6101,32 +5936,29 @@
       <c r="Q40" s="15">
         <v>0</v>
       </c>
-      <c r="R40" s="15">
-        <v>0</v>
+      <c r="R40" t="s">
+        <v>49</v>
       </c>
       <c r="S40" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T40" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V40" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W40" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X40" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:24">
       <c r="A41" s="18">
         <v>12010</v>
       </c>
@@ -6152,25 +5984,25 @@
         <v>3</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="M41" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N41" t="s">
-        <v>245</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>51</v>
+        <v>226</v>
+      </c>
+      <c r="M41" t="s">
+        <v>233</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O41" s="15">
+        <v>0</v>
       </c>
       <c r="P41" s="15">
         <v>0</v>
@@ -6178,32 +6010,29 @@
       <c r="Q41" s="15">
         <v>0</v>
       </c>
-      <c r="R41" s="15">
-        <v>0</v>
+      <c r="R41" t="s">
+        <v>49</v>
       </c>
       <c r="S41" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T41" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V41" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W41" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X41" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:24">
       <c r="A42" s="18">
         <v>12010</v>
       </c>
@@ -6229,25 +6058,25 @@
         <v>2</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="M42" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N42" t="s">
-        <v>248</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>51</v>
+        <v>226</v>
+      </c>
+      <c r="M42" t="s">
+        <v>236</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O42" s="15">
+        <v>0</v>
       </c>
       <c r="P42" s="15">
         <v>0</v>
@@ -6255,32 +6084,29 @@
       <c r="Q42" s="15">
         <v>0</v>
       </c>
-      <c r="R42" s="15">
-        <v>0</v>
+      <c r="R42" t="s">
+        <v>49</v>
       </c>
       <c r="S42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V42" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X42" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:24">
       <c r="A43" s="18">
         <v>12011</v>
       </c>
@@ -6306,25 +6132,25 @@
         <v>5</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L43" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="M43" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="N43" t="s">
-        <v>253</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>51</v>
+        <v>239</v>
+      </c>
+      <c r="M43" t="s">
+        <v>240</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O43" s="15">
+        <v>0</v>
       </c>
       <c r="P43" s="15">
         <v>0</v>
@@ -6332,32 +6158,29 @@
       <c r="Q43" s="15">
         <v>0</v>
       </c>
-      <c r="R43" s="15">
-        <v>0</v>
+      <c r="R43" t="s">
+        <v>49</v>
       </c>
       <c r="S43" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T43" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V43" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W43" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X43" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:24">
       <c r="A44" s="18">
         <v>12011</v>
       </c>
@@ -6383,25 +6206,25 @@
         <v>4</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L44" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="M44" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="N44" t="s">
-        <v>256</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>51</v>
+        <v>239</v>
+      </c>
+      <c r="M44" t="s">
+        <v>243</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O44" s="15">
+        <v>0</v>
       </c>
       <c r="P44" s="15">
         <v>0</v>
@@ -6409,32 +6232,29 @@
       <c r="Q44" s="15">
         <v>0</v>
       </c>
-      <c r="R44" s="15">
-        <v>0</v>
+      <c r="R44" t="s">
+        <v>49</v>
       </c>
       <c r="S44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V44" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X44" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:24">
       <c r="A45" s="18">
         <v>12011</v>
       </c>
@@ -6460,25 +6280,25 @@
         <v>3</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L45" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="M45" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="N45" t="s">
-        <v>259</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>51</v>
+        <v>239</v>
+      </c>
+      <c r="M45" t="s">
+        <v>246</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O45" s="15">
+        <v>0</v>
       </c>
       <c r="P45" s="15">
         <v>0</v>
@@ -6486,32 +6306,29 @@
       <c r="Q45" s="15">
         <v>0</v>
       </c>
-      <c r="R45" s="15">
-        <v>0</v>
+      <c r="R45" t="s">
+        <v>49</v>
       </c>
       <c r="S45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U45" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V45" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X45" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:24">
       <c r="A46" s="18">
         <v>12011</v>
       </c>
@@ -6537,25 +6354,25 @@
         <v>2</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="M46" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="N46" t="s">
-        <v>262</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>51</v>
+        <v>239</v>
+      </c>
+      <c r="M46" t="s">
+        <v>249</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O46" s="15">
+        <v>0</v>
       </c>
       <c r="P46" s="15">
         <v>0</v>
@@ -6563,32 +6380,29 @@
       <c r="Q46" s="15">
         <v>0</v>
       </c>
-      <c r="R46" s="15">
-        <v>0</v>
+      <c r="R46" t="s">
+        <v>49</v>
       </c>
       <c r="S46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V46" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X46" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:24">
       <c r="A47" s="18">
         <v>12012</v>
       </c>
@@ -6614,25 +6428,25 @@
         <v>5</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L47" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="M47" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="N47" t="s">
-        <v>267</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>51</v>
+        <v>252</v>
+      </c>
+      <c r="M47" t="s">
+        <v>253</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O47" s="15">
+        <v>0</v>
       </c>
       <c r="P47" s="15">
         <v>0</v>
@@ -6640,32 +6454,29 @@
       <c r="Q47" s="15">
         <v>0</v>
       </c>
-      <c r="R47" s="15">
-        <v>0</v>
+      <c r="R47" t="s">
+        <v>49</v>
       </c>
       <c r="S47" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T47" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V47" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W47" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X47" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:24">
       <c r="A48" s="18">
         <v>12012</v>
       </c>
@@ -6691,25 +6502,25 @@
         <v>4</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L48" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="M48" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="N48" t="s">
-        <v>270</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>51</v>
+        <v>252</v>
+      </c>
+      <c r="M48" t="s">
+        <v>256</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O48" s="15">
+        <v>0</v>
       </c>
       <c r="P48" s="15">
         <v>0</v>
@@ -6717,32 +6528,29 @@
       <c r="Q48" s="15">
         <v>0</v>
       </c>
-      <c r="R48" s="15">
-        <v>0</v>
+      <c r="R48" t="s">
+        <v>49</v>
       </c>
       <c r="S48" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T48" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V48" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W48" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X48" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:24">
       <c r="A49" s="18">
         <v>12012</v>
       </c>
@@ -6768,25 +6576,25 @@
         <v>3</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L49" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="M49" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="N49" t="s">
-        <v>273</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>51</v>
+        <v>252</v>
+      </c>
+      <c r="M49" t="s">
+        <v>259</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O49" s="15">
+        <v>0</v>
       </c>
       <c r="P49" s="15">
         <v>0</v>
@@ -6794,32 +6602,29 @@
       <c r="Q49" s="15">
         <v>0</v>
       </c>
-      <c r="R49" s="15">
-        <v>0</v>
+      <c r="R49" t="s">
+        <v>49</v>
       </c>
       <c r="S49" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T49" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V49" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W49" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X49" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:24">
       <c r="A50" s="18">
         <v>12012</v>
       </c>
@@ -6845,25 +6650,25 @@
         <v>2</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L50" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="M50" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="N50" t="s">
-        <v>276</v>
-      </c>
-      <c r="O50" s="3" t="s">
-        <v>51</v>
+        <v>252</v>
+      </c>
+      <c r="M50" t="s">
+        <v>262</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O50" s="15">
+        <v>0</v>
       </c>
       <c r="P50" s="15">
         <v>0</v>
@@ -6871,32 +6676,29 @@
       <c r="Q50" s="15">
         <v>0</v>
       </c>
-      <c r="R50" s="15">
-        <v>0</v>
+      <c r="R50" t="s">
+        <v>49</v>
       </c>
       <c r="S50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V50" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X50" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:24">
       <c r="A51" s="18">
         <v>12013</v>
       </c>
@@ -6922,25 +6724,25 @@
         <v>5</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L51" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="M51" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="N51" t="s">
-        <v>281</v>
-      </c>
-      <c r="O51" s="3" t="s">
-        <v>51</v>
+        <v>265</v>
+      </c>
+      <c r="M51" t="s">
+        <v>266</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O51" s="15">
+        <v>0</v>
       </c>
       <c r="P51" s="15">
         <v>0</v>
@@ -6948,32 +6750,29 @@
       <c r="Q51" s="15">
         <v>0</v>
       </c>
-      <c r="R51" s="15">
-        <v>0</v>
+      <c r="R51" t="s">
+        <v>49</v>
       </c>
       <c r="S51" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T51" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V51" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W51" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X51" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:24">
       <c r="A52" s="18">
         <v>12013</v>
       </c>
@@ -6999,25 +6798,25 @@
         <v>4</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L52" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="M52" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="N52" t="s">
-        <v>284</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>51</v>
+        <v>265</v>
+      </c>
+      <c r="M52" t="s">
+        <v>269</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O52" s="15">
+        <v>0</v>
       </c>
       <c r="P52" s="15">
         <v>0</v>
@@ -7025,32 +6824,29 @@
       <c r="Q52" s="15">
         <v>0</v>
       </c>
-      <c r="R52" s="15">
-        <v>0</v>
+      <c r="R52" t="s">
+        <v>49</v>
       </c>
       <c r="S52" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T52" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V52" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W52" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X52" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:24">
       <c r="A53" s="18">
         <v>12013</v>
       </c>
@@ -7076,25 +6872,25 @@
         <v>3</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="K53" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L53" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="M53" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="N53" t="s">
-        <v>287</v>
-      </c>
-      <c r="O53" s="3" t="s">
-        <v>51</v>
+        <v>265</v>
+      </c>
+      <c r="M53" t="s">
+        <v>272</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O53" s="15">
+        <v>0</v>
       </c>
       <c r="P53" s="15">
         <v>0</v>
@@ -7102,32 +6898,29 @@
       <c r="Q53" s="15">
         <v>0</v>
       </c>
-      <c r="R53" s="15">
-        <v>0</v>
+      <c r="R53" t="s">
+        <v>49</v>
       </c>
       <c r="S53" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T53" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V53" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W53" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X53" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:24">
       <c r="A54" s="18">
         <v>12013</v>
       </c>
@@ -7153,25 +6946,25 @@
         <v>2</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="K54" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L54" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="M54" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="N54" t="s">
-        <v>290</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>51</v>
+        <v>265</v>
+      </c>
+      <c r="M54" t="s">
+        <v>275</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O54" s="15">
+        <v>0</v>
       </c>
       <c r="P54" s="15">
         <v>0</v>
@@ -7179,32 +6972,29 @@
       <c r="Q54" s="15">
         <v>0</v>
       </c>
-      <c r="R54" s="15">
-        <v>0</v>
+      <c r="R54" t="s">
+        <v>49</v>
       </c>
       <c r="S54" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T54" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V54" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W54" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X54" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:24">
       <c r="A55" s="18">
         <v>12014</v>
       </c>
@@ -7230,25 +7020,25 @@
         <v>5</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L55" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="M55" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="N55" t="s">
-        <v>295</v>
-      </c>
-      <c r="O55" s="3" t="s">
-        <v>51</v>
+        <v>278</v>
+      </c>
+      <c r="M55" t="s">
+        <v>279</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O55" s="15">
+        <v>0</v>
       </c>
       <c r="P55" s="15">
         <v>0</v>
@@ -7256,32 +7046,29 @@
       <c r="Q55" s="15">
         <v>0</v>
       </c>
-      <c r="R55" s="15">
-        <v>0</v>
+      <c r="R55" t="s">
+        <v>49</v>
       </c>
       <c r="S55" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T55" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U55" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V55" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W55" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X55" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:24">
       <c r="A56" s="18">
         <v>12014</v>
       </c>
@@ -7307,25 +7094,25 @@
         <v>4</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L56" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="M56" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="N56" t="s">
-        <v>298</v>
-      </c>
-      <c r="O56" s="3" t="s">
-        <v>51</v>
+        <v>278</v>
+      </c>
+      <c r="M56" t="s">
+        <v>282</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O56" s="15">
+        <v>0</v>
       </c>
       <c r="P56" s="15">
         <v>0</v>
@@ -7333,32 +7120,29 @@
       <c r="Q56" s="15">
         <v>0</v>
       </c>
-      <c r="R56" s="15">
-        <v>0</v>
+      <c r="R56" t="s">
+        <v>49</v>
       </c>
       <c r="S56" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T56" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V56" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W56" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X56" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:24">
       <c r="A57" s="18">
         <v>12014</v>
       </c>
@@ -7384,58 +7168,55 @@
         <v>3</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L57" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="M57" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="N57" t="s">
-        <v>301</v>
+        <v>278</v>
+      </c>
+      <c r="M57" t="s">
+        <v>285</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>302</v>
+        <v>286</v>
+      </c>
+      <c r="P57" s="15">
+        <v>0</v>
       </c>
       <c r="Q57" s="15">
         <v>0</v>
       </c>
-      <c r="R57" s="15">
-        <v>0</v>
-      </c>
-      <c r="S57" s="23" t="s">
-        <v>303</v>
+      <c r="R57" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="S57" t="s">
+        <v>49</v>
       </c>
       <c r="T57" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U57" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="V57" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="W57" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X57" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="1:24">
       <c r="A58" s="18">
         <v>12014</v>
       </c>
@@ -7461,25 +7242,25 @@
         <v>2</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L58" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="M58" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="N58" t="s">
-        <v>306</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>51</v>
+        <v>278</v>
+      </c>
+      <c r="M58" t="s">
+        <v>290</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O58" s="15">
+        <v>0</v>
       </c>
       <c r="P58" s="15">
         <v>0</v>
@@ -7487,29 +7268,26 @@
       <c r="Q58" s="15">
         <v>0</v>
       </c>
-      <c r="R58" s="15">
-        <v>0</v>
+      <c r="R58" t="s">
+        <v>49</v>
       </c>
       <c r="S58" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T58" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U58" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V58" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W58" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X58" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="9:9">
@@ -7519,7 +7297,7 @@
       <c r="I63" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Y58">
+  <autoFilter ref="A2:X58">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7537,16 +7315,16 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="22.1296296296296" customWidth="1"/>
+    <col min="1" max="2" width="22.1333333333333" customWidth="1"/>
     <col min="4" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="18.25" customWidth="1"/>
-    <col min="7" max="7" width="19.1296296296296" customWidth="1"/>
-    <col min="8" max="8" width="16.8796296296296" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1333333333333" customWidth="1"/>
+    <col min="8" max="8" width="16.8833333333333" style="1" customWidth="1"/>
     <col min="9" max="9" width="28.5" customWidth="1"/>
-    <col min="10" max="10" width="21.3796296296296" customWidth="1"/>
-    <col min="11" max="11" width="20.8796296296296" customWidth="1"/>
+    <col min="10" max="10" width="21.3833333333333" customWidth="1"/>
+    <col min="11" max="11" width="20.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -7554,7 +7332,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -7575,36 +7353,36 @@
         <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -7612,7 +7390,7 @@
         <v>22001</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -7624,16 +7402,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7641,7 +7419,7 @@
         <v>22001</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -7653,16 +7431,16 @@
         <v>6</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -7670,7 +7448,7 @@
         <v>22001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
@@ -7682,16 +7460,16 @@
         <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -7699,7 +7477,7 @@
         <v>22001</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="C6" s="3">
         <v>4</v>
@@ -7711,16 +7489,16 @@
         <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -7728,7 +7506,7 @@
         <v>22002</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -7740,16 +7518,16 @@
         <v>3</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -7757,7 +7535,7 @@
         <v>22002</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -7769,16 +7547,16 @@
         <v>9</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -7786,7 +7564,7 @@
         <v>22002</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
@@ -7798,16 +7576,16 @@
         <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -7815,7 +7593,7 @@
         <v>22002</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
@@ -7827,16 +7605,16 @@
         <v>25</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -7844,7 +7622,7 @@
         <v>22003</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -7856,16 +7634,16 @@
         <v>15</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -7873,7 +7651,7 @@
         <v>22003</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -7885,16 +7663,16 @@
         <v>10</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -7902,7 +7680,7 @@
         <v>22003</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -7914,16 +7692,16 @@
         <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I13" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -7931,7 +7709,7 @@
         <v>22003</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="C14" s="3">
         <v>4</v>
@@ -7943,16 +7721,16 @@
         <v>25</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -7960,7 +7738,7 @@
         <v>22004</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -7972,16 +7750,16 @@
         <v>3</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -7989,7 +7767,7 @@
         <v>22004</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -8001,16 +7779,16 @@
         <v>9</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I16" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -8018,7 +7796,7 @@
         <v>22004</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
@@ -8030,16 +7808,16 @@
         <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -8047,7 +7825,7 @@
         <v>22004</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="C18" s="3">
         <v>4</v>
@@ -8059,16 +7837,16 @@
         <v>25</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I18" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -8076,7 +7854,7 @@
         <v>22005</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -8088,16 +7866,16 @@
         <v>6</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I19" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -8105,7 +7883,7 @@
         <v>22005</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
@@ -8117,16 +7895,16 @@
         <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I20" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -8134,7 +7912,7 @@
         <v>22005</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
@@ -8146,16 +7924,16 @@
         <v>20</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I21" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -8163,7 +7941,7 @@
         <v>22005</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="C22" s="3">
         <v>4</v>
@@ -8175,16 +7953,16 @@
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I22" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -8192,7 +7970,7 @@
         <v>22006</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -8204,16 +7982,16 @@
         <v>1</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I23" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -8221,7 +7999,7 @@
         <v>22006</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
@@ -8233,16 +8011,16 @@
         <v>8</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I24" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -8250,7 +8028,7 @@
         <v>22006</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
@@ -8262,16 +8040,16 @@
         <v>14</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I25" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -8279,7 +8057,7 @@
         <v>22006</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="C26" s="3">
         <v>4</v>
@@ -8291,16 +8069,16 @@
         <v>20</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I26" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -8308,7 +8086,7 @@
         <v>22007</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -8320,16 +8098,16 @@
         <v>1</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I27" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -8337,7 +8115,7 @@
         <v>22007</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
@@ -8349,16 +8127,16 @@
         <v>9</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I28" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -8366,7 +8144,7 @@
         <v>22007</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="C29" s="3">
         <v>3</v>
@@ -8378,16 +8156,16 @@
         <v>15</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I29" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -8395,7 +8173,7 @@
         <v>22007</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="C30" s="3">
         <v>4</v>
@@ -8407,16 +8185,16 @@
         <v>25</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I30" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -8424,7 +8202,7 @@
         <v>22008</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -8436,16 +8214,16 @@
         <v>1</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I31" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -8453,7 +8231,7 @@
         <v>22008</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
@@ -8465,16 +8243,16 @@
         <v>15</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I32" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -8482,7 +8260,7 @@
         <v>22008</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="C33" s="3">
         <v>3</v>
@@ -8494,16 +8272,16 @@
         <v>21</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I33" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -8511,7 +8289,7 @@
         <v>22008</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="C34" s="3">
         <v>4</v>
@@ -8523,16 +8301,16 @@
         <v>28</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I34" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -8540,7 +8318,7 @@
         <v>22009</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
@@ -8552,16 +8330,16 @@
         <v>0</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I35" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -8569,7 +8347,7 @@
         <v>22009</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="C36" s="3">
         <v>2</v>
@@ -8581,16 +8359,16 @@
         <v>6</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I36" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -8598,7 +8376,7 @@
         <v>22009</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="C37" s="3">
         <v>3</v>
@@ -8610,16 +8388,16 @@
         <v>12</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I37" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -8627,7 +8405,7 @@
         <v>22009</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="C38" s="3">
         <v>4</v>
@@ -8639,16 +8417,16 @@
         <v>24</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I38" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -8656,7 +8434,7 @@
         <v>22010</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
@@ -8668,16 +8446,16 @@
         <v>0</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I39" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -8685,7 +8463,7 @@
         <v>22010</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="C40" s="3">
         <v>2</v>
@@ -8697,16 +8475,16 @@
         <v>6</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I40" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -8714,7 +8492,7 @@
         <v>22010</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="C41" s="3">
         <v>3</v>
@@ -8726,16 +8504,16 @@
         <v>12</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I41" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -8743,7 +8521,7 @@
         <v>22010</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="C42" s="3">
         <v>4</v>
@@ -8755,16 +8533,16 @@
         <v>24</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I42" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:9">
@@ -8772,7 +8550,7 @@
         <v>22011</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
@@ -8784,16 +8562,16 @@
         <v>0</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I43" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:9">
@@ -8801,7 +8579,7 @@
         <v>22011</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="C44" s="3">
         <v>2</v>
@@ -8813,16 +8591,16 @@
         <v>6</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I44" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:9">
@@ -8830,7 +8608,7 @@
         <v>22011</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="C45" s="3">
         <v>3</v>
@@ -8842,16 +8620,16 @@
         <v>12</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I45" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:9">
@@ -8859,7 +8637,7 @@
         <v>22011</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="C46" s="3">
         <v>4</v>
@@ -8871,16 +8649,16 @@
         <v>24</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I46" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:9">
@@ -8888,7 +8666,7 @@
         <v>22012</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
@@ -8900,16 +8678,16 @@
         <v>0</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I47" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:9">
@@ -8917,7 +8695,7 @@
         <v>22012</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="C48" s="3">
         <v>2</v>
@@ -8929,16 +8707,16 @@
         <v>6</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I48" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:9">
@@ -8946,7 +8724,7 @@
         <v>22012</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="C49" s="3">
         <v>3</v>
@@ -8958,16 +8736,16 @@
         <v>12</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I49" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:9">
@@ -8975,7 +8753,7 @@
         <v>22012</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="C50" s="3">
         <v>4</v>
@@ -8987,16 +8765,16 @@
         <v>24</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I50" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:9">
@@ -9004,7 +8782,7 @@
         <v>22013</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
@@ -9016,16 +8794,16 @@
         <v>0</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I51" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:9">
@@ -9033,7 +8811,7 @@
         <v>22013</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C52" s="3">
         <v>2</v>
@@ -9045,16 +8823,16 @@
         <v>6</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I52" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
     </row>
     <row r="53" customFormat="1" spans="1:9">
@@ -9062,7 +8840,7 @@
         <v>22013</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C53" s="3">
         <v>3</v>
@@ -9074,16 +8852,16 @@
         <v>12</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I53" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="1:9">
@@ -9091,7 +8869,7 @@
         <v>22013</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C54" s="3">
         <v>4</v>
@@ -9103,16 +8881,16 @@
         <v>24</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I54" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:9">
@@ -9120,7 +8898,7 @@
         <v>22014</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
@@ -9132,16 +8910,16 @@
         <v>0</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I55" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:9">
@@ -9149,7 +8927,7 @@
         <v>22014</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="C56" s="3">
         <v>2</v>
@@ -9161,16 +8939,16 @@
         <v>6</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I56" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="1:9">
@@ -9178,7 +8956,7 @@
         <v>22014</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="C57" s="3">
         <v>3</v>
@@ -9190,16 +8968,16 @@
         <v>12</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I57" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="58" customFormat="1" spans="1:9">
@@ -9207,7 +8985,7 @@
         <v>22014</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="C58" s="3">
         <v>4</v>
@@ -9219,16 +8997,16 @@
         <v>24</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I58" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -9236,7 +9014,7 @@
         <v>22015</v>
       </c>
       <c r="B59" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
@@ -9248,16 +9026,16 @@
         <v>0</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I59" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -9265,7 +9043,7 @@
         <v>22015</v>
       </c>
       <c r="B60" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="C60" s="3">
         <v>2</v>
@@ -9277,16 +9055,16 @@
         <v>6</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I60" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -9294,7 +9072,7 @@
         <v>22015</v>
       </c>
       <c r="B61" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="C61" s="3">
         <v>3</v>
@@ -9306,16 +9084,16 @@
         <v>12</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I61" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -9323,7 +9101,7 @@
         <v>22015</v>
       </c>
       <c r="B62" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="C62" s="3">
         <v>4</v>
@@ -9335,16 +9113,16 @@
         <v>24</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I62" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:9">
@@ -9352,7 +9130,7 @@
         <v>22016</v>
       </c>
       <c r="B63" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
@@ -9364,16 +9142,16 @@
         <v>0</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I63" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:9">
@@ -9381,7 +9159,7 @@
         <v>22016</v>
       </c>
       <c r="B64" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="C64" s="3">
         <v>2</v>
@@ -9393,16 +9171,16 @@
         <v>6</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I64" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:9">
@@ -9410,7 +9188,7 @@
         <v>22016</v>
       </c>
       <c r="B65" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="C65" s="3">
         <v>3</v>
@@ -9422,16 +9200,16 @@
         <v>12</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I65" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:9">
@@ -9439,7 +9217,7 @@
         <v>22016</v>
       </c>
       <c r="B66" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="C66" s="3">
         <v>4</v>
@@ -9451,16 +9229,16 @@
         <v>24</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I66" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
     <row r="67" customFormat="1" spans="1:9">
@@ -9468,7 +9246,7 @@
         <v>22017</v>
       </c>
       <c r="B67" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
@@ -9480,16 +9258,16 @@
         <v>0</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I67" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="68" customFormat="1" spans="1:9">
@@ -9497,7 +9275,7 @@
         <v>22017</v>
       </c>
       <c r="B68" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="C68" s="3">
         <v>2</v>
@@ -9509,16 +9287,16 @@
         <v>6</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I68" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
     </row>
     <row r="69" customFormat="1" spans="1:9">
@@ -9526,7 +9304,7 @@
         <v>22017</v>
       </c>
       <c r="B69" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="C69" s="3">
         <v>3</v>
@@ -9538,16 +9316,16 @@
         <v>12</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I69" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:9">
@@ -9555,7 +9333,7 @@
         <v>22017</v>
       </c>
       <c r="B70" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="C70" s="3">
         <v>4</v>
@@ -9567,16 +9345,16 @@
         <v>24</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I70" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:9">
@@ -9584,7 +9362,7 @@
         <v>22018</v>
       </c>
       <c r="B71" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
@@ -9596,16 +9374,16 @@
         <v>0</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I71" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:9">
@@ -9613,7 +9391,7 @@
         <v>22018</v>
       </c>
       <c r="B72" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="C72" s="3">
         <v>2</v>
@@ -9625,16 +9403,16 @@
         <v>6</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I72" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="1:9">
@@ -9642,7 +9420,7 @@
         <v>22018</v>
       </c>
       <c r="B73" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="C73" s="3">
         <v>3</v>
@@ -9654,16 +9432,16 @@
         <v>12</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I73" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="74" customFormat="1" spans="1:9">
@@ -9671,7 +9449,7 @@
         <v>22018</v>
       </c>
       <c r="B74" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="C74" s="3">
         <v>4</v>
@@ -9683,16 +9461,16 @@
         <v>24</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I74" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -9710,18 +9488,18 @@
   <sheetPr/>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.1296296296296" customWidth="1"/>
-    <col min="5" max="5" width="19.6296296296296" customWidth="1"/>
-    <col min="6" max="6" width="17.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="18.1333333333333" customWidth="1"/>
+    <col min="5" max="5" width="19.6333333333333" customWidth="1"/>
+    <col min="6" max="6" width="17.8833333333333" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="16.8796296296296" customWidth="1"/>
+    <col min="8" max="8" width="16.8833333333333" customWidth="1"/>
     <col min="9" max="9" width="10.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="26" customWidth="1"/>
     <col min="11" max="11" width="16.75" customWidth="1"/>
@@ -9732,7 +9510,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -9744,7 +9522,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>8</v>
@@ -9756,45 +9534,45 @@
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
       <c r="G2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -9802,7 +9580,7 @@
         <v>32001</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -9817,16 +9595,16 @@
         <v>0</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="K3" s="15">
         <v>12</v>
@@ -9837,7 +9615,7 @@
         <v>32001</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -9852,16 +9630,16 @@
         <v>0</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="K4" s="15">
         <v>24</v>
@@ -9872,7 +9650,7 @@
         <v>32001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
@@ -9887,16 +9665,16 @@
         <v>0</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="K5" s="15">
         <v>40</v>
@@ -9907,7 +9685,7 @@
         <v>32001</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="C6" s="3">
         <v>4</v>
@@ -9922,16 +9700,16 @@
         <v>0</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="K6" s="15">
         <v>60</v>
@@ -9942,7 +9720,7 @@
         <v>32002</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -9957,16 +9735,16 @@
         <v>0</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="K7" s="15">
         <v>2</v>
@@ -9977,7 +9755,7 @@
         <v>32002</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -9992,16 +9770,16 @@
         <v>0</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="K8" s="15">
         <v>5</v>
@@ -10012,7 +9790,7 @@
         <v>32002</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
@@ -10027,16 +9805,16 @@
         <v>0</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="K9" s="15">
         <v>10</v>
@@ -10047,7 +9825,7 @@
         <v>32002</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
@@ -10062,16 +9840,16 @@
         <v>0</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J10" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="K10" s="15">
         <v>20</v>
@@ -10082,7 +9860,7 @@
         <v>32003</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -10097,16 +9875,16 @@
         <v>2</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="K11" s="15">
         <v>10</v>
@@ -10117,7 +9895,7 @@
         <v>32003</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -10132,16 +9910,16 @@
         <v>2</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J12" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="K12" s="15">
         <v>15</v>
@@ -10152,7 +9930,7 @@
         <v>32003</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -10167,16 +9945,16 @@
         <v>2</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J13" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="K13" s="15">
         <v>30</v>
@@ -10187,7 +9965,7 @@
         <v>32003</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="C14" s="3">
         <v>4</v>
@@ -10202,16 +9980,16 @@
         <v>2</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J14" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="K14" s="15">
         <v>50</v>
@@ -10222,7 +10000,7 @@
         <v>32004</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -10237,16 +10015,16 @@
         <v>2</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J15" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="K15" s="15">
         <v>5</v>
@@ -10257,7 +10035,7 @@
         <v>32004</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -10272,16 +10050,16 @@
         <v>2</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J16" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="K16" s="15">
         <v>10</v>
@@ -10292,7 +10070,7 @@
         <v>32004</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
@@ -10307,16 +10085,16 @@
         <v>2</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="K17" s="15">
         <v>20</v>
@@ -10327,7 +10105,7 @@
         <v>32004</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="C18" s="3">
         <v>4</v>
@@ -10342,16 +10120,16 @@
         <v>2</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J18" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="K18" s="15">
         <v>30</v>
@@ -10362,7 +10140,7 @@
         <v>32005</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -10377,16 +10155,16 @@
         <v>0</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J19" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="K19" s="15">
         <v>2</v>
@@ -10397,7 +10175,7 @@
         <v>32005</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
@@ -10412,16 +10190,16 @@
         <v>0</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="K20" s="15">
         <v>5</v>
@@ -10432,7 +10210,7 @@
         <v>32005</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
@@ -10447,16 +10225,16 @@
         <v>0</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J21" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="K21" s="15">
         <v>10</v>
@@ -10467,7 +10245,7 @@
         <v>32005</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="C22" s="3">
         <v>4</v>
@@ -10482,16 +10260,16 @@
         <v>0</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J22" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="K22" s="15">
         <v>20</v>
@@ -10502,7 +10280,7 @@
         <v>32006</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -10517,16 +10295,16 @@
         <v>2</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="K23" s="15">
         <v>5</v>
@@ -10537,7 +10315,7 @@
         <v>32006</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
@@ -10552,16 +10330,16 @@
         <v>2</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="K24" s="15">
         <v>10</v>
@@ -10572,7 +10350,7 @@
         <v>32006</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
@@ -10587,16 +10365,16 @@
         <v>2</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="K25" s="15">
         <v>20</v>
@@ -10607,7 +10385,7 @@
         <v>32006</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="C26" s="3">
         <v>4</v>
@@ -10622,16 +10400,16 @@
         <v>2</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="K26" s="15">
         <v>30</v>
@@ -10642,7 +10420,7 @@
         <v>32007</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -10657,16 +10435,16 @@
         <v>0</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J27" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="K27" s="15">
         <v>5</v>
@@ -10677,7 +10455,7 @@
         <v>32007</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
@@ -10692,16 +10470,16 @@
         <v>0</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J28" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="K28" s="15">
         <v>10</v>
@@ -10712,7 +10490,7 @@
         <v>32007</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="C29" s="3">
         <v>3</v>
@@ -10727,16 +10505,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J29" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="K29" s="15">
         <v>20</v>
@@ -10747,7 +10525,7 @@
         <v>32007</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="C30" s="3">
         <v>4</v>
@@ -10762,16 +10540,16 @@
         <v>0</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J30" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="K30" s="15">
         <v>30</v>
@@ -10782,7 +10560,7 @@
         <v>32008</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -10797,16 +10575,16 @@
         <v>0</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J31" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="K31" s="15">
         <v>5</v>
@@ -10817,7 +10595,7 @@
         <v>32008</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
@@ -10832,16 +10610,16 @@
         <v>0</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J32" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="K32" s="15">
         <v>10</v>
@@ -10852,7 +10630,7 @@
         <v>32008</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="C33" s="3">
         <v>3</v>
@@ -10867,16 +10645,16 @@
         <v>0</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J33" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="K33" s="15">
         <v>20</v>
@@ -10887,7 +10665,7 @@
         <v>32008</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="C34" s="3">
         <v>4</v>
@@ -10902,16 +10680,16 @@
         <v>0</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J34" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="K34" s="15">
         <v>30</v>
@@ -10922,7 +10700,7 @@
         <v>32009</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
@@ -10937,16 +10715,16 @@
         <v>0</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J35" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="K35" s="15">
         <v>5</v>
@@ -10957,7 +10735,7 @@
         <v>32009</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="C36" s="3">
         <v>2</v>
@@ -10972,16 +10750,16 @@
         <v>0</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J36" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="K36" s="15">
         <v>10</v>
@@ -10992,7 +10770,7 @@
         <v>32009</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="C37" s="3">
         <v>3</v>
@@ -11007,16 +10785,16 @@
         <v>0</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J37" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="K37" s="15">
         <v>20</v>
@@ -11027,7 +10805,7 @@
         <v>32009</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="C38" s="3">
         <v>4</v>
@@ -11042,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J38" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="K38" s="15">
         <v>30</v>
@@ -11062,7 +10840,7 @@
         <v>32010</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
@@ -11077,16 +10855,16 @@
         <v>0</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J39" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="K39" s="15">
         <v>5</v>
@@ -11097,7 +10875,7 @@
         <v>32010</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="C40" s="3">
         <v>2</v>
@@ -11112,16 +10890,16 @@
         <v>0</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J40" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="K40" s="15">
         <v>10</v>
@@ -11132,7 +10910,7 @@
         <v>32010</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="C41" s="3">
         <v>3</v>
@@ -11147,16 +10925,16 @@
         <v>0</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="K41" s="15">
         <v>20</v>
@@ -11167,7 +10945,7 @@
         <v>32010</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="C42" s="3">
         <v>4</v>
@@ -11182,16 +10960,16 @@
         <v>0</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J42" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="K42" s="15">
         <v>30</v>
@@ -11202,7 +10980,7 @@
         <v>32011</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
@@ -11217,16 +10995,16 @@
         <v>0</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J43" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="K43" s="15">
         <v>5</v>
@@ -11237,7 +11015,7 @@
         <v>32011</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="C44" s="3">
         <v>2</v>
@@ -11252,16 +11030,16 @@
         <v>0</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J44" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="K44" s="15">
         <v>10</v>
@@ -11272,7 +11050,7 @@
         <v>32011</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="C45" s="3">
         <v>3</v>
@@ -11287,16 +11065,16 @@
         <v>0</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J45" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="K45" s="15">
         <v>20</v>
@@ -11307,7 +11085,7 @@
         <v>32011</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="C46" s="3">
         <v>4</v>
@@ -11322,23 +11100,23 @@
         <v>0</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J46" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="K46" s="15">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K42">
+  <autoFilter ref="A2:K46">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
